--- a/INTLINE/data/142/STANOR/old/07129 The Index of wholesale and retail trade.xlsx
+++ b/INTLINE/data/142/STANOR/old/07129 The Index of wholesale and retail trade.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="306">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="309">
   <x:si>
     <x:t>07129: The Index of wholesale and retail trade, by industry, contents and month</x:t>
   </x:si>
@@ -833,6 +833,15 @@
     <x:t>2021M11</x:t>
   </x:si>
   <x:si>
+    <x:t>2021M12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022M01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022M02</x:t>
+  </x:si>
+  <x:si>
     <x:t>47_ub Retail sale, except of motor vehicles and motorcycles and automotive fuel</x:t>
   </x:si>
   <x:si>
@@ -869,13 +878,13 @@
     <x:t>The index value for period m is the average of period m, m-1 and m-2.</x:t>
   </x:si>
   <x:si>
-    <x:t>Latest update:</x:t>
+    <x:t>Updated:</x:t>
   </x:si>
   <x:si>
     <x:t>Value index, unadjusted:</x:t>
   </x:si>
   <x:si>
-    <x:t>20211227 08:00</x:t>
+    <x:t>20220328 08:00</x:t>
   </x:si>
   <x:si>
     <x:t>Value index, calendar adjusted:</x:t>
@@ -1353,22 +1362,21 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:JE102"/>
+  <x:dimension ref="A1:JH102"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="2" width="40.710625" style="0" customWidth="1"/>
-    <x:col min="3" max="265" width="10.040625" style="0" customWidth="1"/>
+    <x:col min="1" max="268" width="9.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:265">
+    <x:row r="1" spans="1:268">
       <x:c r="A1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:265">
+    <x:row r="3" spans="1:268">
       <x:c r="C3" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
@@ -2158,13 +2166,22 @@
       <x:c r="JE3" s="2" t="s">
         <x:v>263</x:v>
       </x:c>
-    </x:row>
-    <x:row r="4" spans="1:265">
+      <x:c r="JF3" s="2" t="s">
+        <x:v>264</x:v>
+      </x:c>
+      <x:c r="JG3" s="2" t="s">
+        <x:v>265</x:v>
+      </x:c>
+      <x:c r="JH3" s="2" t="s">
+        <x:v>266</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:268">
       <x:c r="A4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>265</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="C4" s="3" t="n">
         <x:v>49.2</x:v>
@@ -2955,517 +2972,526 @@
       <x:c r="JE4" s="3" t="n">
         <x:v>139.4</x:v>
       </x:c>
-    </x:row>
-    <x:row r="5" spans="1:265">
+      <x:c r="JF4" s="3" t="n">
+        <x:v>158.4</x:v>
+      </x:c>
+      <x:c r="JG4" s="3" t="n">
+        <x:v>109.3</x:v>
+      </x:c>
+      <x:c r="JH4" s="3" t="n">
+        <x:v>106.2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:268">
       <x:c r="B5" s="2" t="s">
-        <x:v>266</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="C5" s="3" t="n">
+        <x:v>51.7</x:v>
+      </x:c>
+      <x:c r="D5" s="3" t="n">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="E5" s="3" t="n">
+        <x:v>51.9</x:v>
+      </x:c>
+      <x:c r="F5" s="3" t="n">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="G5" s="3" t="n">
+        <x:v>60.1</x:v>
+      </x:c>
+      <x:c r="H5" s="3" t="n">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="I5" s="3" t="n">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="J5" s="3" t="n">
+        <x:v>58.3</x:v>
+      </x:c>
+      <x:c r="K5" s="3" t="n">
+        <x:v>54.4</x:v>
+      </x:c>
+      <x:c r="L5" s="3" t="n">
+        <x:v>56.5</x:v>
+      </x:c>
+      <x:c r="M5" s="3" t="n">
+        <x:v>56.8</x:v>
+      </x:c>
+      <x:c r="N5" s="3" t="n">
+        <x:v>76.4</x:v>
+      </x:c>
+      <x:c r="O5" s="3" t="n">
         <x:v>52.7</x:v>
       </x:c>
-      <x:c r="D5" s="3" t="n">
-        <x:v>47.4</x:v>
-      </x:c>
-      <x:c r="E5" s="3" t="n">
-        <x:v>52.5</x:v>
-      </x:c>
-      <x:c r="F5" s="3" t="n">
-        <x:v>51.7</x:v>
-      </x:c>
-      <x:c r="G5" s="3" t="n">
-        <x:v>61.1</x:v>
-      </x:c>
-      <x:c r="H5" s="3" t="n">
-        <x:v>58.1</x:v>
-      </x:c>
-      <x:c r="I5" s="3" t="n">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="J5" s="3" t="n">
-        <x:v>59.6</x:v>
-      </x:c>
-      <x:c r="K5" s="3" t="n">
-        <x:v>55.2</x:v>
-      </x:c>
-      <x:c r="L5" s="3" t="n">
+      <x:c r="P5" s="3" t="n">
+        <x:v>47.8</x:v>
+      </x:c>
+      <x:c r="Q5" s="3" t="n">
+        <x:v>53.8</x:v>
+      </x:c>
+      <x:c r="R5" s="3" t="n">
+        <x:v>51.9</x:v>
+      </x:c>
+      <x:c r="S5" s="3" t="n">
+        <x:v>59.4</x:v>
+      </x:c>
+      <x:c r="T5" s="3" t="n">
+        <x:v>59.5</x:v>
+      </x:c>
+      <x:c r="U5" s="3" t="n">
+        <x:v>57.5</x:v>
+      </x:c>
+      <x:c r="V5" s="3" t="n">
+        <x:v>59.4</x:v>
+      </x:c>
+      <x:c r="W5" s="3" t="n">
+        <x:v>56.2</x:v>
+      </x:c>
+      <x:c r="X5" s="3" t="n">
+        <x:v>58.8</x:v>
+      </x:c>
+      <x:c r="Y5" s="3" t="n">
+        <x:v>60.4</x:v>
+      </x:c>
+      <x:c r="Z5" s="3" t="n">
+        <x:v>79.7</x:v>
+      </x:c>
+      <x:c r="AA5" s="3" t="n">
+        <x:v>55.8</x:v>
+      </x:c>
+      <x:c r="AB5" s="3" t="n">
+        <x:v>50.3</x:v>
+      </x:c>
+      <x:c r="AC5" s="3" t="n">
+        <x:v>56.4</x:v>
+      </x:c>
+      <x:c r="AD5" s="3" t="n">
+        <x:v>55.8</x:v>
+      </x:c>
+      <x:c r="AE5" s="3" t="n">
+        <x:v>63.7</x:v>
+      </x:c>
+      <x:c r="AF5" s="3" t="n">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="AG5" s="3" t="n">
+        <x:v>59.8</x:v>
+      </x:c>
+      <x:c r="AH5" s="3" t="n">
+        <x:v>61.7</x:v>
+      </x:c>
+      <x:c r="AI5" s="3" t="n">
+        <x:v>59.4</x:v>
+      </x:c>
+      <x:c r="AJ5" s="3" t="n">
+        <x:v>62.2</x:v>
+      </x:c>
+      <x:c r="AK5" s="3" t="n">
+        <x:v>63.3</x:v>
+      </x:c>
+      <x:c r="AL5" s="3" t="n">
+        <x:v>82.8</x:v>
+      </x:c>
+      <x:c r="AM5" s="3" t="n">
         <x:v>57.2</x:v>
       </x:c>
-      <x:c r="M5" s="3" t="n">
-        <x:v>57.6</x:v>
-      </x:c>
-      <x:c r="N5" s="3" t="n">
+      <x:c r="AN5" s="3" t="n">
+        <x:v>52.2</x:v>
+      </x:c>
+      <x:c r="AO5" s="3" t="n">
+        <x:v>58.3</x:v>
+      </x:c>
+      <x:c r="AP5" s="3" t="n">
+        <x:v>58.5</x:v>
+      </x:c>
+      <x:c r="AQ5" s="3" t="n">
+        <x:v>64.7</x:v>
+      </x:c>
+      <x:c r="AR5" s="3" t="n">
+        <x:v>66.5</x:v>
+      </x:c>
+      <x:c r="AS5" s="3" t="n">
+        <x:v>63.5</x:v>
+      </x:c>
+      <x:c r="AT5" s="3" t="n">
+        <x:v>65.3</x:v>
+      </x:c>
+      <x:c r="AU5" s="3" t="n">
+        <x:v>62.1</x:v>
+      </x:c>
+      <x:c r="AV5" s="3" t="n">
+        <x:v>64.7</x:v>
+      </x:c>
+      <x:c r="AW5" s="3" t="n">
+        <x:v>65.4</x:v>
+      </x:c>
+      <x:c r="AX5" s="3" t="n">
+        <x:v>85.7</x:v>
+      </x:c>
+      <x:c r="AY5" s="3" t="n">
+        <x:v>59.9</x:v>
+      </x:c>
+      <x:c r="AZ5" s="3" t="n">
+        <x:v>53.7</x:v>
+      </x:c>
+      <x:c r="BA5" s="3" t="n">
+        <x:v>61.8</x:v>
+      </x:c>
+      <x:c r="BB5" s="3" t="n">
+        <x:v>60.3</x:v>
+      </x:c>
+      <x:c r="BC5" s="3" t="n">
+        <x:v>66.8</x:v>
+      </x:c>
+      <x:c r="BD5" s="3" t="n">
+        <x:v>69.5</x:v>
+      </x:c>
+      <x:c r="BE5" s="3" t="n">
+        <x:v>64.4</x:v>
+      </x:c>
+      <x:c r="BF5" s="3" t="n">
+        <x:v>67.8</x:v>
+      </x:c>
+      <x:c r="BG5" s="3" t="n">
+        <x:v>64.5</x:v>
+      </x:c>
+      <x:c r="BH5" s="3" t="n">
+        <x:v>66.5</x:v>
+      </x:c>
+      <x:c r="BI5" s="3" t="n">
+        <x:v>67.4</x:v>
+      </x:c>
+      <x:c r="BJ5" s="3" t="n">
+        <x:v>88.6</x:v>
+      </x:c>
+      <x:c r="BK5" s="3" t="n">
+        <x:v>61.8</x:v>
+      </x:c>
+      <x:c r="BL5" s="3" t="n">
+        <x:v>56.4</x:v>
+      </x:c>
+      <x:c r="BM5" s="3" t="n">
+        <x:v>62.4</x:v>
+      </x:c>
+      <x:c r="BN5" s="3" t="n">
+        <x:v>62.1</x:v>
+      </x:c>
+      <x:c r="BO5" s="3" t="n">
+        <x:v>68.5</x:v>
+      </x:c>
+      <x:c r="BP5" s="3" t="n">
+        <x:v>71.6</x:v>
+      </x:c>
+      <x:c r="BQ5" s="3" t="n">
+        <x:v>68.8</x:v>
+      </x:c>
+      <x:c r="BR5" s="3" t="n">
+        <x:v>70.8</x:v>
+      </x:c>
+      <x:c r="BS5" s="3" t="n">
+        <x:v>66.7</x:v>
+      </x:c>
+      <x:c r="BT5" s="3" t="n">
+        <x:v>68.8</x:v>
+      </x:c>
+      <x:c r="BU5" s="3" t="n">
+        <x:v>70.1</x:v>
+      </x:c>
+      <x:c r="BV5" s="3" t="n">
+        <x:v>90.6</x:v>
+      </x:c>
+      <x:c r="BW5" s="3" t="n">
+        <x:v>64.1</x:v>
+      </x:c>
+      <x:c r="BX5" s="3" t="n">
+        <x:v>58.3</x:v>
+      </x:c>
+      <x:c r="BY5" s="3" t="n">
+        <x:v>65.5</x:v>
+      </x:c>
+      <x:c r="BZ5" s="3" t="n">
+        <x:v>64.4</x:v>
+      </x:c>
+      <x:c r="CA5" s="3" t="n">
+        <x:v>74.1</x:v>
+      </x:c>
+      <x:c r="CB5" s="3" t="n">
+        <x:v>75.9</x:v>
+      </x:c>
+      <x:c r="CC5" s="3" t="n">
+        <x:v>72.2</x:v>
+      </x:c>
+      <x:c r="CD5" s="3" t="n">
+        <x:v>74.5</x:v>
+      </x:c>
+      <x:c r="CE5" s="3" t="n">
+        <x:v>71.1</x:v>
+      </x:c>
+      <x:c r="CF5" s="3" t="n">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="CG5" s="3" t="n">
+        <x:v>75.7</x:v>
+      </x:c>
+      <x:c r="CH5" s="3" t="n">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="CI5" s="3" t="n">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="CJ5" s="3" t="n">
+        <x:v>63.2</x:v>
+      </x:c>
+      <x:c r="CK5" s="3" t="n">
+        <x:v>71.6</x:v>
+      </x:c>
+      <x:c r="CL5" s="3" t="n">
+        <x:v>71.5</x:v>
+      </x:c>
+      <x:c r="CM5" s="3" t="n">
+        <x:v>79.7</x:v>
+      </x:c>
+      <x:c r="CN5" s="3" t="n">
+        <x:v>83.1</x:v>
+      </x:c>
+      <x:c r="CO5" s="3" t="n">
+        <x:v>78.6</x:v>
+      </x:c>
+      <x:c r="CP5" s="3" t="n">
+        <x:v>80.4</x:v>
+      </x:c>
+      <x:c r="CQ5" s="3" t="n">
+        <x:v>77.4</x:v>
+      </x:c>
+      <x:c r="CR5" s="3" t="n">
+        <x:v>78.7</x:v>
+      </x:c>
+      <x:c r="CS5" s="3" t="n">
+        <x:v>81.8</x:v>
+      </x:c>
+      <x:c r="CT5" s="3" t="n">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="CU5" s="3" t="n">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="CV5" s="3" t="n">
+        <x:v>67.3</x:v>
+      </x:c>
+      <x:c r="CW5" s="3" t="n">
+        <x:v>75.1</x:v>
+      </x:c>
+      <x:c r="CX5" s="3" t="n">
+        <x:v>74.4</x:v>
+      </x:c>
+      <x:c r="CY5" s="3" t="n">
+        <x:v>85.9</x:v>
+      </x:c>
+      <x:c r="CZ5" s="3" t="n">
+        <x:v>85.4</x:v>
+      </x:c>
+      <x:c r="DA5" s="3" t="n">
+        <x:v>81.9</x:v>
+      </x:c>
+      <x:c r="DB5" s="3" t="n">
+        <x:v>83.4</x:v>
+      </x:c>
+      <x:c r="DC5" s="3" t="n">
+        <x:v>79.3</x:v>
+      </x:c>
+      <x:c r="DD5" s="3" t="n">
+        <x:v>80.1</x:v>
+      </x:c>
+      <x:c r="DE5" s="3" t="n">
+        <x:v>82.3</x:v>
+      </x:c>
+      <x:c r="DF5" s="3" t="n">
+        <x:v>104.7</x:v>
+      </x:c>
+      <x:c r="DG5" s="3" t="n">
+        <x:v>74.1</x:v>
+      </x:c>
+      <x:c r="DH5" s="3" t="n">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="DI5" s="3" t="n">
+        <x:v>76.3</x:v>
+      </x:c>
+      <x:c r="DJ5" s="3" t="n">
+        <x:v>75.9</x:v>
+      </x:c>
+      <x:c r="DK5" s="3" t="n">
+        <x:v>85.9</x:v>
+      </x:c>
+      <x:c r="DL5" s="3" t="n">
+        <x:v>87.8</x:v>
+      </x:c>
+      <x:c r="DM5" s="3" t="n">
+        <x:v>85.3</x:v>
+      </x:c>
+      <x:c r="DN5" s="3" t="n">
+        <x:v>86.8</x:v>
+      </x:c>
+      <x:c r="DO5" s="3" t="n">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="DP5" s="3" t="n">
+        <x:v>85.3</x:v>
+      </x:c>
+      <x:c r="DQ5" s="3" t="n">
+        <x:v>86.3</x:v>
+      </x:c>
+      <x:c r="DR5" s="3" t="n">
+        <x:v>110.5</x:v>
+      </x:c>
+      <x:c r="DS5" s="3" t="n">
+        <x:v>78.6</x:v>
+      </x:c>
+      <x:c r="DT5" s="3" t="n">
+        <x:v>70.8</x:v>
+      </x:c>
+      <x:c r="DU5" s="3" t="n">
+        <x:v>79.2</x:v>
+      </x:c>
+      <x:c r="DV5" s="3" t="n">
+        <x:v>76.5</x:v>
+      </x:c>
+      <x:c r="DW5" s="3" t="n">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="DX5" s="3" t="n">
+        <x:v>89.3</x:v>
+      </x:c>
+      <x:c r="DY5" s="3" t="n">
+        <x:v>86.6</x:v>
+      </x:c>
+      <x:c r="DZ5" s="3" t="n">
+        <x:v>87.5</x:v>
+      </x:c>
+      <x:c r="EA5" s="3" t="n">
+        <x:v>83.8</x:v>
+      </x:c>
+      <x:c r="EB5" s="3" t="n">
+        <x:v>86.6</x:v>
+      </x:c>
+      <x:c r="EC5" s="3" t="n">
+        <x:v>89.9</x:v>
+      </x:c>
+      <x:c r="ED5" s="3" t="n">
+        <x:v>111.3</x:v>
+      </x:c>
+      <x:c r="EE5" s="3" t="n">
         <x:v>78.4</x:v>
       </x:c>
-      <x:c r="O5" s="3" t="n">
-        <x:v>53.7</x:v>
-      </x:c>
-      <x:c r="P5" s="3" t="n">
-        <x:v>48.4</x:v>
-      </x:c>
-      <x:c r="Q5" s="3" t="n">
-        <x:v>54.4</x:v>
-      </x:c>
-      <x:c r="R5" s="3" t="n">
-        <x:v>52.7</x:v>
-      </x:c>
-      <x:c r="S5" s="3" t="n">
-        <x:v>60.4</x:v>
-      </x:c>
-      <x:c r="T5" s="3" t="n">
-        <x:v>60.6</x:v>
-      </x:c>
-      <x:c r="U5" s="3" t="n">
-        <x:v>58.6</x:v>
-      </x:c>
-      <x:c r="V5" s="3" t="n">
-        <x:v>60.7</x:v>
-      </x:c>
-      <x:c r="W5" s="3" t="n">
-        <x:v>57.2</x:v>
-      </x:c>
-      <x:c r="X5" s="3" t="n">
-        <x:v>59.8</x:v>
-      </x:c>
-      <x:c r="Y5" s="3" t="n">
-        <x:v>61.5</x:v>
-      </x:c>
-      <x:c r="Z5" s="3" t="n">
-        <x:v>81.8</x:v>
-      </x:c>
-      <x:c r="AA5" s="3" t="n">
-        <x:v>56.9</x:v>
-      </x:c>
-      <x:c r="AB5" s="3" t="n">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="AC5" s="3" t="n">
-        <x:v>57.2</x:v>
-      </x:c>
-      <x:c r="AD5" s="3" t="n">
-        <x:v>56.7</x:v>
-      </x:c>
-      <x:c r="AE5" s="3" t="n">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="AF5" s="3" t="n">
-        <x:v>64.3</x:v>
-      </x:c>
-      <x:c r="AG5" s="3" t="n">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="AH5" s="3" t="n">
-        <x:v>63.1</x:v>
-      </x:c>
-      <x:c r="AI5" s="3" t="n">
-        <x:v>60.6</x:v>
-      </x:c>
-      <x:c r="AJ5" s="3" t="n">
-        <x:v>63.4</x:v>
-      </x:c>
-      <x:c r="AK5" s="3" t="n">
-        <x:v>64.4</x:v>
-      </x:c>
-      <x:c r="AL5" s="3" t="n">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="AM5" s="3" t="n">
-        <x:v>58.4</x:v>
-      </x:c>
-      <x:c r="AN5" s="3" t="n">
-        <x:v>52.9</x:v>
-      </x:c>
-      <x:c r="AO5" s="3" t="n">
-        <x:v>59.1</x:v>
-      </x:c>
-      <x:c r="AP5" s="3" t="n">
-        <x:v>59.5</x:v>
-      </x:c>
-      <x:c r="AQ5" s="3" t="n">
-        <x:v>65.9</x:v>
-      </x:c>
-      <x:c r="AR5" s="3" t="n">
-        <x:v>67.8</x:v>
-      </x:c>
-      <x:c r="AS5" s="3" t="n">
-        <x:v>64.8</x:v>
-      </x:c>
-      <x:c r="AT5" s="3" t="n">
-        <x:v>66.8</x:v>
-      </x:c>
-      <x:c r="AU5" s="3" t="n">
-        <x:v>63.2</x:v>
-      </x:c>
-      <x:c r="AV5" s="3" t="n">
-        <x:v>65.9</x:v>
-      </x:c>
-      <x:c r="AW5" s="3" t="n">
-        <x:v>66.5</x:v>
-      </x:c>
-      <x:c r="AX5" s="3" t="n">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="AY5" s="3" t="n">
-        <x:v>61.1</x:v>
-      </x:c>
-      <x:c r="AZ5" s="3" t="n">
-        <x:v>54.4</x:v>
-      </x:c>
-      <x:c r="BA5" s="3" t="n">
-        <x:v>62.6</x:v>
-      </x:c>
-      <x:c r="BB5" s="3" t="n">
-        <x:v>61.3</x:v>
-      </x:c>
-      <x:c r="BC5" s="3" t="n">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="BD5" s="3" t="n">
-        <x:v>70.8</x:v>
-      </x:c>
-      <x:c r="BE5" s="3" t="n">
-        <x:v>65.5</x:v>
-      </x:c>
-      <x:c r="BF5" s="3" t="n">
-        <x:v>69.2</x:v>
-      </x:c>
-      <x:c r="BG5" s="3" t="n">
-        <x:v>65.4</x:v>
-      </x:c>
-      <x:c r="BH5" s="3" t="n">
-        <x:v>67.6</x:v>
-      </x:c>
-      <x:c r="BI5" s="3" t="n">
-        <x:v>68.5</x:v>
-      </x:c>
-      <x:c r="BJ5" s="3" t="n">
+      <x:c r="EF5" s="3" t="n">
+        <x:v>72.3</x:v>
+      </x:c>
+      <x:c r="EG5" s="3" t="n">
+        <x:v>79.7</x:v>
+      </x:c>
+      <x:c r="EH5" s="3" t="n">
+        <x:v>79.5</x:v>
+      </x:c>
+      <x:c r="EI5" s="3" t="n">
+        <x:v>90.5</x:v>
+      </x:c>
+      <x:c r="EJ5" s="3" t="n">
+        <x:v>90.9</x:v>
+      </x:c>
+      <x:c r="EK5" s="3" t="n">
+        <x:v>88.2</x:v>
+      </x:c>
+      <x:c r="EL5" s="3" t="n">
+        <x:v>90.5</x:v>
+      </x:c>
+      <x:c r="EM5" s="3" t="n">
+        <x:v>86.3</x:v>
+      </x:c>
+      <x:c r="EN5" s="3" t="n">
+        <x:v>89.3</x:v>
+      </x:c>
+      <x:c r="EO5" s="3" t="n">
+        <x:v>91.3</x:v>
+      </x:c>
+      <x:c r="EP5" s="3" t="n">
+        <x:v>114.4</x:v>
+      </x:c>
+      <x:c r="EQ5" s="3" t="n">
+        <x:v>81.5</x:v>
+      </x:c>
+      <x:c r="ER5" s="3" t="n">
+        <x:v>74.9</x:v>
+      </x:c>
+      <x:c r="ES5" s="3" t="n">
+        <x:v>84.4</x:v>
+      </x:c>
+      <x:c r="ET5" s="3" t="n">
+        <x:v>82.5</x:v>
+      </x:c>
+      <x:c r="EU5" s="3" t="n">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="EV5" s="3" t="n">
+        <x:v>95.6</x:v>
+      </x:c>
+      <x:c r="EW5" s="3" t="n">
+        <x:v>91.7</x:v>
+      </x:c>
+      <x:c r="EX5" s="3" t="n">
+        <x:v>92.4</x:v>
+      </x:c>
+      <x:c r="EY5" s="3" t="n">
+        <x:v>89.1</x:v>
+      </x:c>
+      <x:c r="EZ5" s="3" t="n">
+        <x:v>90.2</x:v>
+      </x:c>
+      <x:c r="FA5" s="3" t="n">
+        <x:v>93.2</x:v>
+      </x:c>
+      <x:c r="FB5" s="3" t="n">
+        <x:v>116.8</x:v>
+      </x:c>
+      <x:c r="FC5" s="3" t="n">
+        <x:v>83.9</x:v>
+      </x:c>
+      <x:c r="FD5" s="3" t="n">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="FE5" s="3" t="n">
+        <x:v>85.3</x:v>
+      </x:c>
+      <x:c r="FF5" s="3" t="n">
+        <x:v>83.6</x:v>
+      </x:c>
+      <x:c r="FG5" s="3" t="n">
+        <x:v>98.4</x:v>
+      </x:c>
+      <x:c r="FH5" s="3" t="n">
+        <x:v>98.3</x:v>
+      </x:c>
+      <x:c r="FI5" s="3" t="n">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="FJ5" s="3" t="n">
+        <x:v>95.3</x:v>
+      </x:c>
+      <x:c r="FK5" s="3" t="n">
         <x:v>90.8</x:v>
       </x:c>
-      <x:c r="BK5" s="3" t="n">
-        <x:v>62.8</x:v>
-      </x:c>
-      <x:c r="BL5" s="3" t="n">
-        <x:v>57.1</x:v>
-      </x:c>
-      <x:c r="BM5" s="3" t="n">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="BN5" s="3" t="n">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="BO5" s="3" t="n">
-        <x:v>69.6</x:v>
-      </x:c>
-      <x:c r="BP5" s="3" t="n">
-        <x:v>72.8</x:v>
-      </x:c>
-      <x:c r="BQ5" s="3" t="n">
-        <x:v>69.9</x:v>
-      </x:c>
-      <x:c r="BR5" s="3" t="n">
-        <x:v>72.2</x:v>
-      </x:c>
-      <x:c r="BS5" s="3" t="n">
-        <x:v>67.7</x:v>
-      </x:c>
-      <x:c r="BT5" s="3" t="n">
-        <x:v>69.8</x:v>
-      </x:c>
-      <x:c r="BU5" s="3" t="n">
-        <x:v>71.2</x:v>
-      </x:c>
-      <x:c r="BV5" s="3" t="n">
-        <x:v>92.6</x:v>
-      </x:c>
-      <x:c r="BW5" s="3" t="n">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="BX5" s="3" t="n">
-        <x:v>58.8</x:v>
-      </x:c>
-      <x:c r="BY5" s="3" t="n">
-        <x:v>66.1</x:v>
-      </x:c>
-      <x:c r="BZ5" s="3" t="n">
-        <x:v>65.2</x:v>
-      </x:c>
-      <x:c r="CA5" s="3" t="n">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="CB5" s="3" t="n">
-        <x:v>76.9</x:v>
-      </x:c>
-      <x:c r="CC5" s="3" t="n">
-        <x:v>73.1</x:v>
-      </x:c>
-      <x:c r="CD5" s="3" t="n">
-        <x:v>75.7</x:v>
-      </x:c>
-      <x:c r="CE5" s="3" t="n">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="CF5" s="3" t="n">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="CG5" s="3" t="n">
-        <x:v>76.6</x:v>
-      </x:c>
-      <x:c r="CH5" s="3" t="n">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="CI5" s="3" t="n">
-        <x:v>69.9</x:v>
-      </x:c>
-      <x:c r="CJ5" s="3" t="n">
-        <x:v>63.7</x:v>
-      </x:c>
-      <x:c r="CK5" s="3" t="n">
-        <x:v>72.2</x:v>
-      </x:c>
-      <x:c r="CL5" s="3" t="n">
-        <x:v>72.6</x:v>
-      </x:c>
-      <x:c r="CM5" s="3" t="n">
-        <x:v>80.7</x:v>
-      </x:c>
-      <x:c r="CN5" s="3" t="n">
-        <x:v>84.5</x:v>
-      </x:c>
-      <x:c r="CO5" s="3" t="n">
-        <x:v>79.6</x:v>
-      </x:c>
-      <x:c r="CP5" s="3" t="n">
-        <x:v>81.6</x:v>
-      </x:c>
-      <x:c r="CQ5" s="3" t="n">
-        <x:v>78.3</x:v>
-      </x:c>
-      <x:c r="CR5" s="3" t="n">
-        <x:v>79.8</x:v>
-      </x:c>
-      <x:c r="CS5" s="3" t="n">
-        <x:v>82.8</x:v>
-      </x:c>
-      <x:c r="CT5" s="3" t="n">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="CU5" s="3" t="n">
-        <x:v>73.8</x:v>
-      </x:c>
-      <x:c r="CV5" s="3" t="n">
-        <x:v>67.9</x:v>
-      </x:c>
-      <x:c r="CW5" s="3" t="n">
-        <x:v>75.7</x:v>
-      </x:c>
-      <x:c r="CX5" s="3" t="n">
-        <x:v>75.3</x:v>
-      </x:c>
-      <x:c r="CY5" s="3" t="n">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="CZ5" s="3" t="n">
-        <x:v>86.5</x:v>
-      </x:c>
-      <x:c r="DA5" s="3" t="n">
-        <x:v>82.8</x:v>
-      </x:c>
-      <x:c r="DB5" s="3" t="n">
-        <x:v>84.6</x:v>
-      </x:c>
-      <x:c r="DC5" s="3" t="n">
-        <x:v>80.2</x:v>
-      </x:c>
-      <x:c r="DD5" s="3" t="n">
-        <x:v>81.1</x:v>
-      </x:c>
-      <x:c r="DE5" s="3" t="n">
-        <x:v>83.3</x:v>
-      </x:c>
-      <x:c r="DF5" s="3" t="n">
-        <x:v>106.8</x:v>
-      </x:c>
-      <x:c r="DG5" s="3" t="n">
-        <x:v>74.9</x:v>
-      </x:c>
-      <x:c r="DH5" s="3" t="n">
-        <x:v>68.4</x:v>
-      </x:c>
-      <x:c r="DI5" s="3" t="n">
-        <x:v>76.7</x:v>
-      </x:c>
-      <x:c r="DJ5" s="3" t="n">
-        <x:v>76.6</x:v>
-      </x:c>
-      <x:c r="DK5" s="3" t="n">
-        <x:v>86.7</x:v>
-      </x:c>
-      <x:c r="DL5" s="3" t="n">
-        <x:v>88.7</x:v>
-      </x:c>
-      <x:c r="DM5" s="3" t="n">
+      <x:c r="FL5" s="3" t="n">
+        <x:v>92.5</x:v>
+      </x:c>
+      <x:c r="FM5" s="3" t="n">
+        <x:v>95.7</x:v>
+      </x:c>
+      <x:c r="FN5" s="3" t="n">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="FO5" s="3" t="n">
         <x:v>86.1</x:v>
-      </x:c>
-      <x:c r="DN5" s="3" t="n">
-        <x:v>87.7</x:v>
-      </x:c>
-      <x:c r="DO5" s="3" t="n">
-        <x:v>82.7</x:v>
-      </x:c>
-      <x:c r="DP5" s="3" t="n">
-        <x:v>86.1</x:v>
-      </x:c>
-      <x:c r="DQ5" s="3" t="n">
-        <x:v>87.1</x:v>
-      </x:c>
-      <x:c r="DR5" s="3" t="n">
-        <x:v>112.6</x:v>
-      </x:c>
-      <x:c r="DS5" s="3" t="n">
-        <x:v>79.3</x:v>
-      </x:c>
-      <x:c r="DT5" s="3" t="n">
-        <x:v>71.3</x:v>
-      </x:c>
-      <x:c r="DU5" s="3" t="n">
-        <x:v>79.6</x:v>
-      </x:c>
-      <x:c r="DV5" s="3" t="n">
-        <x:v>77.2</x:v>
-      </x:c>
-      <x:c r="DW5" s="3" t="n">
-        <x:v>88.7</x:v>
-      </x:c>
-      <x:c r="DX5" s="3" t="n">
-        <x:v>90.1</x:v>
-      </x:c>
-      <x:c r="DY5" s="3" t="n">
-        <x:v>87.3</x:v>
-      </x:c>
-      <x:c r="DZ5" s="3" t="n">
-        <x:v>88.5</x:v>
-      </x:c>
-      <x:c r="EA5" s="3" t="n">
-        <x:v>84.5</x:v>
-      </x:c>
-      <x:c r="EB5" s="3" t="n">
-        <x:v>87.4</x:v>
-      </x:c>
-      <x:c r="EC5" s="3" t="n">
-        <x:v>90.7</x:v>
-      </x:c>
-      <x:c r="ED5" s="3" t="n">
-        <x:v>113.3</x:v>
-      </x:c>
-      <x:c r="EE5" s="3" t="n">
-        <x:v>79.1</x:v>
-      </x:c>
-      <x:c r="EF5" s="3" t="n">
-        <x:v>72.7</x:v>
-      </x:c>
-      <x:c r="EG5" s="3" t="n">
-        <x:v>80.1</x:v>
-      </x:c>
-      <x:c r="EH5" s="3" t="n">
-        <x:v>80.2</x:v>
-      </x:c>
-      <x:c r="EI5" s="3" t="n">
-        <x:v>91.3</x:v>
-      </x:c>
-      <x:c r="EJ5" s="3" t="n">
-        <x:v>91.7</x:v>
-      </x:c>
-      <x:c r="EK5" s="3" t="n">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="EL5" s="3" t="n">
-        <x:v>91.4</x:v>
-      </x:c>
-      <x:c r="EM5" s="3" t="n">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="EN5" s="3" t="n">
-        <x:v>90.1</x:v>
-      </x:c>
-      <x:c r="EO5" s="3" t="n">
-        <x:v>92.1</x:v>
-      </x:c>
-      <x:c r="EP5" s="3" t="n">
-        <x:v>116.4</x:v>
-      </x:c>
-      <x:c r="EQ5" s="3" t="n">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="ER5" s="3" t="n">
-        <x:v>75.3</x:v>
-      </x:c>
-      <x:c r="ES5" s="3" t="n">
-        <x:v>84.7</x:v>
-      </x:c>
-      <x:c r="ET5" s="3" t="n">
-        <x:v>83.1</x:v>
-      </x:c>
-      <x:c r="EU5" s="3" t="n">
-        <x:v>96.7</x:v>
-      </x:c>
-      <x:c r="EV5" s="3" t="n">
-        <x:v>96.3</x:v>
-      </x:c>
-      <x:c r="EW5" s="3" t="n">
-        <x:v>92.4</x:v>
-      </x:c>
-      <x:c r="EX5" s="3" t="n">
-        <x:v>93.2</x:v>
-      </x:c>
-      <x:c r="EY5" s="3" t="n">
-        <x:v>89.8</x:v>
-      </x:c>
-      <x:c r="EZ5" s="3" t="n">
-        <x:v>90.9</x:v>
-      </x:c>
-      <x:c r="FA5" s="3" t="n">
-        <x:v>93.8</x:v>
-      </x:c>
-      <x:c r="FB5" s="3" t="n">
-        <x:v>118.5</x:v>
-      </x:c>
-      <x:c r="FC5" s="3" t="n">
-        <x:v>84.4</x:v>
-      </x:c>
-      <x:c r="FD5" s="3" t="n">
-        <x:v>77.4</x:v>
-      </x:c>
-      <x:c r="FE5" s="3" t="n">
-        <x:v>85.5</x:v>
-      </x:c>
-      <x:c r="FF5" s="3" t="n">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="FG5" s="3" t="n">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="FH5" s="3" t="n">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="FI5" s="3" t="n">
-        <x:v>94.4</x:v>
-      </x:c>
-      <x:c r="FJ5" s="3" t="n">
-        <x:v>95.7</x:v>
-      </x:c>
-      <x:c r="FK5" s="3" t="n">
-        <x:v>91.1</x:v>
-      </x:c>
-      <x:c r="FL5" s="3" t="n">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="FM5" s="3" t="n">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="FN5" s="3" t="n">
-        <x:v>121.3</x:v>
-      </x:c>
-      <x:c r="FO5" s="3" t="n">
-        <x:v>86.2</x:v>
       </x:c>
       <x:c r="FP5" s="3" t="n">
         <x:v>80</x:v>
@@ -3474,40 +3500,40 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="FR5" s="3" t="n">
-        <x:v>89.6</x:v>
+        <x:v>89.4</x:v>
       </x:c>
       <x:c r="FS5" s="3" t="n">
-        <x:v>101.7</x:v>
+        <x:v>101.3</x:v>
       </x:c>
       <x:c r="FT5" s="3" t="n">
-        <x:v>103.3</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="FU5" s="3" t="n">
-        <x:v>97.9</x:v>
+        <x:v>97.7</x:v>
       </x:c>
       <x:c r="FV5" s="3" t="n">
-        <x:v>99.7</x:v>
+        <x:v>99.5</x:v>
       </x:c>
       <x:c r="FW5" s="3" t="n">
         <x:v>94.1</x:v>
       </x:c>
       <x:c r="FX5" s="3" t="n">
-        <x:v>96.6</x:v>
+        <x:v>96.5</x:v>
       </x:c>
       <x:c r="FY5" s="3" t="n">
         <x:v>100.3</x:v>
       </x:c>
       <x:c r="FZ5" s="3" t="n">
-        <x:v>125.7</x:v>
+        <x:v>124.7</x:v>
       </x:c>
       <x:c r="GA5" s="3" t="n">
-        <x:v>88.8</x:v>
+        <x:v>88.9</x:v>
       </x:c>
       <x:c r="GB5" s="3" t="n">
-        <x:v>82.9</x:v>
+        <x:v>83.2</x:v>
       </x:c>
       <x:c r="GC5" s="3" t="n">
-        <x:v>92.7</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="GD5" s="3" t="n">
         <x:v>94.3</x:v>
@@ -3516,40 +3542,40 @@
         <x:v>103.2</x:v>
       </x:c>
       <x:c r="GF5" s="3" t="n">
-        <x:v>106.7</x:v>
+        <x:v>106.5</x:v>
       </x:c>
       <x:c r="GG5" s="3" t="n">
-        <x:v>102.1</x:v>
+        <x:v>101.9</x:v>
       </x:c>
       <x:c r="GH5" s="3" t="n">
         <x:v>103.4</x:v>
       </x:c>
       <x:c r="GI5" s="3" t="n">
-        <x:v>97.4</x:v>
+        <x:v>97.6</x:v>
       </x:c>
       <x:c r="GJ5" s="3" t="n">
         <x:v>100.8</x:v>
       </x:c>
       <x:c r="GK5" s="3" t="n">
-        <x:v>105.4</x:v>
+        <x:v>105.7</x:v>
       </x:c>
       <x:c r="GL5" s="3" t="n">
-        <x:v>128.9</x:v>
+        <x:v>128.2</x:v>
       </x:c>
       <x:c r="GM5" s="3" t="n">
-        <x:v>92.5</x:v>
+        <x:v>92.8</x:v>
       </x:c>
       <x:c r="GN5" s="3" t="n">
-        <x:v>85.1</x:v>
+        <x:v>85.4</x:v>
       </x:c>
       <x:c r="GO5" s="3" t="n">
-        <x:v>94.5</x:v>
+        <x:v>94.9</x:v>
       </x:c>
       <x:c r="GP5" s="3" t="n">
-        <x:v>93.9</x:v>
+        <x:v>94.1</x:v>
       </x:c>
       <x:c r="GQ5" s="3" t="n">
-        <x:v>108.9</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="GR5" s="3" t="n">
         <x:v>110.3</x:v>
@@ -3558,201 +3584,210 @@
         <x:v>104.5</x:v>
       </x:c>
       <x:c r="GT5" s="3" t="n">
-        <x:v>106.6</x:v>
+        <x:v>106.7</x:v>
       </x:c>
       <x:c r="GU5" s="3" t="n">
-        <x:v>99.9</x:v>
+        <x:v>100.3</x:v>
       </x:c>
       <x:c r="GV5" s="3" t="n">
-        <x:v>104.1</x:v>
+        <x:v>104.5</x:v>
       </x:c>
       <x:c r="GW5" s="3" t="n">
-        <x:v>108.6</x:v>
+        <x:v>109.1</x:v>
       </x:c>
       <x:c r="GX5" s="3" t="n">
-        <x:v>128.8</x:v>
+        <x:v>128.6</x:v>
       </x:c>
       <x:c r="GY5" s="3" t="n">
-        <x:v>92.8</x:v>
+        <x:v>93.4</x:v>
       </x:c>
       <x:c r="GZ5" s="3" t="n">
-        <x:v>87.8</x:v>
+        <x:v>88.3</x:v>
       </x:c>
       <x:c r="HA5" s="3" t="n">
-        <x:v>97.7</x:v>
+        <x:v>98.5</x:v>
       </x:c>
       <x:c r="HB5" s="3" t="n">
-        <x:v>96</x:v>
+        <x:v>96.5</x:v>
       </x:c>
       <x:c r="HC5" s="3" t="n">
-        <x:v>112.7</x:v>
+        <x:v>113.3</x:v>
       </x:c>
       <x:c r="HD5" s="3" t="n">
-        <x:v>113.9</x:v>
+        <x:v>114.3</x:v>
       </x:c>
       <x:c r="HE5" s="3" t="n">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="HF5" s="3" t="n">
+        <x:v>108.9</x:v>
+      </x:c>
+      <x:c r="HG5" s="3" t="n">
+        <x:v>101.7</x:v>
+      </x:c>
+      <x:c r="HH5" s="3" t="n">
+        <x:v>104.8</x:v>
+      </x:c>
+      <x:c r="HI5" s="3" t="n">
+        <x:v>113.2</x:v>
+      </x:c>
+      <x:c r="HJ5" s="3" t="n">
+        <x:v>134.4</x:v>
+      </x:c>
+      <x:c r="HK5" s="3" t="n">
+        <x:v>96.1</x:v>
+      </x:c>
+      <x:c r="HL5" s="3" t="n">
+        <x:v>89.8</x:v>
+      </x:c>
+      <x:c r="HM5" s="3" t="n">
+        <x:v>100.5</x:v>
+      </x:c>
+      <x:c r="HN5" s="3" t="n">
+        <x:v>100.4</x:v>
+      </x:c>
+      <x:c r="HO5" s="3" t="n">
+        <x:v>118.9</x:v>
+      </x:c>
+      <x:c r="HP5" s="3" t="n">
+        <x:v>114.6</x:v>
+      </x:c>
+      <x:c r="HQ5" s="3" t="n">
+        <x:v>110.1</x:v>
+      </x:c>
+      <x:c r="HR5" s="3" t="n">
+        <x:v>112.8</x:v>
+      </x:c>
+      <x:c r="HS5" s="3" t="n">
+        <x:v>105.5</x:v>
+      </x:c>
+      <x:c r="HT5" s="3" t="n">
         <x:v>107.7</x:v>
       </x:c>
-      <x:c r="HF5" s="3" t="n">
-        <x:v>108.4</x:v>
-      </x:c>
-      <x:c r="HG5" s="3" t="n">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="HH5" s="3" t="n">
-        <x:v>104.1</x:v>
-      </x:c>
-      <x:c r="HI5" s="3" t="n">
-        <x:v>111.9</x:v>
-      </x:c>
-      <x:c r="HJ5" s="3" t="n">
+      <x:c r="HU5" s="3" t="n">
+        <x:v>117.3</x:v>
+      </x:c>
+      <x:c r="HV5" s="3" t="n">
+        <x:v>135.7</x:v>
+      </x:c>
+      <x:c r="HW5" s="3" t="n">
+        <x:v>98.5</x:v>
+      </x:c>
+      <x:c r="HX5" s="3" t="n">
+        <x:v>91.6</x:v>
+      </x:c>
+      <x:c r="HY5" s="3" t="n">
+        <x:v>103.4</x:v>
+      </x:c>
+      <x:c r="HZ5" s="3" t="n">
+        <x:v>104.5</x:v>
+      </x:c>
+      <x:c r="IA5" s="3" t="n">
+        <x:v>117.7</x:v>
+      </x:c>
+      <x:c r="IB5" s="3" t="n">
+        <x:v>117.6</x:v>
+      </x:c>
+      <x:c r="IC5" s="3" t="n">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="ID5" s="3" t="n">
+        <x:v>114.7</x:v>
+      </x:c>
+      <x:c r="IE5" s="3" t="n">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="IF5" s="3" t="n">
+        <x:v>109.1</x:v>
+      </x:c>
+      <x:c r="IG5" s="3" t="n">
+        <x:v>119.3</x:v>
+      </x:c>
+      <x:c r="IH5" s="3" t="n">
+        <x:v>136.7</x:v>
+      </x:c>
+      <x:c r="II5" s="3" t="n">
+        <x:v>100.3</x:v>
+      </x:c>
+      <x:c r="IJ5" s="3" t="n">
+        <x:v>95.2</x:v>
+      </x:c>
+      <x:c r="IK5" s="3" t="n">
+        <x:v>109.6</x:v>
+      </x:c>
+      <x:c r="IL5" s="3" t="n">
+        <x:v>115.9</x:v>
+      </x:c>
+      <x:c r="IM5" s="3" t="n">
         <x:v>134.3</x:v>
       </x:c>
-      <x:c r="HK5" s="3" t="n">
-        <x:v>95.1</x:v>
-      </x:c>
-      <x:c r="HL5" s="3" t="n">
-        <x:v>88.9</x:v>
-      </x:c>
-      <x:c r="HM5" s="3" t="n">
-        <x:v>99.4</x:v>
-      </x:c>
-      <x:c r="HN5" s="3" t="n">
-        <x:v>99.5</x:v>
-      </x:c>
-      <x:c r="HO5" s="3" t="n">
-        <x:v>118.2</x:v>
-      </x:c>
-      <x:c r="HP5" s="3" t="n">
-        <x:v>113.6</x:v>
-      </x:c>
-      <x:c r="HQ5" s="3" t="n">
-        <x:v>109.3</x:v>
-      </x:c>
-      <x:c r="HR5" s="3" t="n">
-        <x:v>111.8</x:v>
-      </x:c>
-      <x:c r="HS5" s="3" t="n">
-        <x:v>104.4</x:v>
-      </x:c>
-      <x:c r="HT5" s="3" t="n">
-        <x:v>106.7</x:v>
-      </x:c>
-      <x:c r="HU5" s="3" t="n">
-        <x:v>115.3</x:v>
-      </x:c>
-      <x:c r="HV5" s="3" t="n">
-        <x:v>135.4</x:v>
-      </x:c>
-      <x:c r="HW5" s="3" t="n">
-        <x:v>97.4</x:v>
-      </x:c>
-      <x:c r="HX5" s="3" t="n">
-        <x:v>90.6</x:v>
-      </x:c>
-      <x:c r="HY5" s="3" t="n">
-        <x:v>102.2</x:v>
-      </x:c>
-      <x:c r="HZ5" s="3" t="n">
-        <x:v>103.5</x:v>
-      </x:c>
-      <x:c r="IA5" s="3" t="n">
-        <x:v>116.7</x:v>
-      </x:c>
-      <x:c r="IB5" s="3" t="n">
-        <x:v>116.4</x:v>
-      </x:c>
-      <x:c r="IC5" s="3" t="n">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="ID5" s="3" t="n">
-        <x:v>113.5</x:v>
-      </x:c>
-      <x:c r="IE5" s="3" t="n">
-        <x:v>106.6</x:v>
-      </x:c>
-      <x:c r="IF5" s="3" t="n">
-        <x:v>107.9</x:v>
-      </x:c>
-      <x:c r="IG5" s="3" t="n">
-        <x:v>117.3</x:v>
-      </x:c>
-      <x:c r="IH5" s="3" t="n">
-        <x:v>135.8</x:v>
-      </x:c>
-      <x:c r="II5" s="3" t="n">
-        <x:v>98.9</x:v>
-      </x:c>
-      <x:c r="IJ5" s="3" t="n">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="IK5" s="3" t="n">
-        <x:v>107.1</x:v>
-      </x:c>
-      <x:c r="IL5" s="3" t="n">
-        <x:v>113.3</x:v>
-      </x:c>
-      <x:c r="IM5" s="3" t="n">
-        <x:v>132.3</x:v>
-      </x:c>
       <x:c r="IN5" s="3" t="n">
-        <x:v>138.7</x:v>
+        <x:v>140.4</x:v>
       </x:c>
       <x:c r="IO5" s="3" t="n">
-        <x:v>134.2</x:v>
+        <x:v>135.6</x:v>
       </x:c>
       <x:c r="IP5" s="3" t="n">
-        <x:v>129.7</x:v>
+        <x:v>131.7</x:v>
       </x:c>
       <x:c r="IQ5" s="3" t="n">
-        <x:v>121.5</x:v>
+        <x:v>123.5</x:v>
       </x:c>
       <x:c r="IR5" s="3" t="n">
-        <x:v>125.8</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="IS5" s="3" t="n">
-        <x:v>140</x:v>
+        <x:v>144.3</x:v>
       </x:c>
       <x:c r="IT5" s="3" t="n">
-        <x:v>153.1</x:v>
+        <x:v>155.5</x:v>
       </x:c>
       <x:c r="IU5" s="3" t="n">
-        <x:v>111.6</x:v>
+        <x:v>114.9</x:v>
       </x:c>
       <x:c r="IV5" s="3" t="n">
-        <x:v>106.1</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="IW5" s="3" t="n">
-        <x:v>120.5</x:v>
+        <x:v>124.3</x:v>
       </x:c>
       <x:c r="IX5" s="3" t="n">
-        <x:v>118.8</x:v>
+        <x:v>122.6</x:v>
       </x:c>
       <x:c r="IY5" s="3" t="n">
-        <x:v>144.2</x:v>
+        <x:v>147.4</x:v>
       </x:c>
       <x:c r="IZ5" s="3" t="n">
+        <x:v>146.4</x:v>
+      </x:c>
+      <x:c r="JA5" s="3" t="n">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="JB5" s="3" t="n">
+        <x:v>134.7</x:v>
+      </x:c>
+      <x:c r="JC5" s="3" t="n">
+        <x:v>126.1</x:v>
+      </x:c>
+      <x:c r="JD5" s="3" t="n">
+        <x:v>129.3</x:v>
+      </x:c>
+      <x:c r="JE5" s="3" t="n">
         <x:v>143.5</x:v>
       </x:c>
-      <x:c r="JA5" s="3" t="n">
-        <x:v>135</x:v>
-      </x:c>
-      <x:c r="JB5" s="3" t="n">
-        <x:v>132.3</x:v>
-      </x:c>
-      <x:c r="JC5" s="3" t="n">
-        <x:v>123.5</x:v>
-      </x:c>
-      <x:c r="JD5" s="3" t="n">
-        <x:v>126.6</x:v>
-      </x:c>
-      <x:c r="JE5" s="3" t="n">
-        <x:v>138.9</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:265">
+      <x:c r="JF5" s="3" t="n">
+        <x:v>159.1</x:v>
+      </x:c>
+      <x:c r="JG5" s="3" t="n">
+        <x:v>118.5</x:v>
+      </x:c>
+      <x:c r="JH5" s="3" t="n">
+        <x:v>110</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:268">
       <x:c r="B6" s="2" t="s">
-        <x:v>267</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="C6" s="3" t="n">
         <x:v>55</x:v>
@@ -4543,574 +4578,583 @@
       <x:c r="JE6" s="3" t="n">
         <x:v>119.2</x:v>
       </x:c>
-    </x:row>
-    <x:row r="7" spans="1:265">
+      <x:c r="JF6" s="3" t="n">
+        <x:v>135.8</x:v>
+      </x:c>
+      <x:c r="JG6" s="3" t="n">
+        <x:v>93.8</x:v>
+      </x:c>
+      <x:c r="JH6" s="3" t="n">
+        <x:v>88.4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:268">
       <x:c r="B7" s="2" t="s">
-        <x:v>268</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="C7" s="3" t="n">
+        <x:v>66.2</x:v>
+      </x:c>
+      <x:c r="D7" s="3" t="n">
+        <x:v>66.7</x:v>
+      </x:c>
+      <x:c r="E7" s="3" t="n">
+        <x:v>66.4</x:v>
+      </x:c>
+      <x:c r="F7" s="3" t="n">
+        <x:v>66.2</x:v>
+      </x:c>
+      <x:c r="G7" s="3" t="n">
+        <x:v>68.5</x:v>
+      </x:c>
+      <x:c r="H7" s="3" t="n">
+        <x:v>65.4</x:v>
+      </x:c>
+      <x:c r="I7" s="3" t="n">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="J7" s="3" t="n">
+        <x:v>67.3</x:v>
+      </x:c>
+      <x:c r="K7" s="3" t="n">
+        <x:v>66.8</x:v>
+      </x:c>
+      <x:c r="L7" s="3" t="n">
+        <x:v>66.6</x:v>
+      </x:c>
+      <x:c r="M7" s="3" t="n">
+        <x:v>65.9</x:v>
+      </x:c>
+      <x:c r="N7" s="3" t="n">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="O7" s="3" t="n">
+        <x:v>66.7</x:v>
+      </x:c>
+      <x:c r="P7" s="3" t="n">
         <x:v>66.9</x:v>
       </x:c>
-      <x:c r="D7" s="3" t="n">
-        <x:v>67.4</x:v>
-      </x:c>
-      <x:c r="E7" s="3" t="n">
+      <x:c r="Q7" s="3" t="n">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="R7" s="3" t="n">
+        <x:v>66.5</x:v>
+      </x:c>
+      <x:c r="S7" s="3" t="n">
         <x:v>67.2</x:v>
       </x:c>
-      <x:c r="F7" s="3" t="n">
-        <x:v>66.9</x:v>
-      </x:c>
-      <x:c r="G7" s="3" t="n">
+      <x:c r="T7" s="3" t="n">
+        <x:v>67.5</x:v>
+      </x:c>
+      <x:c r="U7" s="3" t="n">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="V7" s="3" t="n">
+        <x:v>68.1</x:v>
+      </x:c>
+      <x:c r="W7" s="3" t="n">
+        <x:v>68.2</x:v>
+      </x:c>
+      <x:c r="X7" s="3" t="n">
+        <x:v>68.5</x:v>
+      </x:c>
+      <x:c r="Y7" s="3" t="n">
         <x:v>69.3</x:v>
       </x:c>
-      <x:c r="H7" s="3" t="n">
-        <x:v>66.1</x:v>
-      </x:c>
-      <x:c r="I7" s="3" t="n">
-        <x:v>67.7</x:v>
-      </x:c>
-      <x:c r="J7" s="3" t="n">
-        <x:v>68.2</x:v>
-      </x:c>
-      <x:c r="K7" s="3" t="n">
-        <x:v>67.5</x:v>
-      </x:c>
-      <x:c r="L7" s="3" t="n">
-        <x:v>67.3</x:v>
-      </x:c>
-      <x:c r="M7" s="3" t="n">
-        <x:v>66.6</x:v>
-      </x:c>
-      <x:c r="N7" s="3" t="n">
-        <x:v>68.8</x:v>
-      </x:c>
-      <x:c r="O7" s="3" t="n">
-        <x:v>67.3</x:v>
-      </x:c>
-      <x:c r="P7" s="3" t="n">
-        <x:v>67.7</x:v>
-      </x:c>
-      <x:c r="Q7" s="3" t="n">
-        <x:v>68.8</x:v>
-      </x:c>
-      <x:c r="R7" s="3" t="n">
-        <x:v>67.2</x:v>
-      </x:c>
-      <x:c r="S7" s="3" t="n">
-        <x:v>67.9</x:v>
-      </x:c>
-      <x:c r="T7" s="3" t="n">
-        <x:v>68.4</x:v>
-      </x:c>
-      <x:c r="U7" s="3" t="n">
-        <x:v>68.8</x:v>
-      </x:c>
-      <x:c r="V7" s="3" t="n">
-        <x:v>68.9</x:v>
-      </x:c>
-      <x:c r="W7" s="3" t="n">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="X7" s="3" t="n">
-        <x:v>69.3</x:v>
-      </x:c>
-      <x:c r="Y7" s="3" t="n">
+      <x:c r="Z7" s="3" t="n">
+        <x:v>69.9</x:v>
+      </x:c>
+      <x:c r="AA7" s="3" t="n">
+        <x:v>70.1</x:v>
+      </x:c>
+      <x:c r="AB7" s="3" t="n">
         <x:v>70.2</x:v>
       </x:c>
-      <x:c r="Z7" s="3" t="n">
-        <x:v>70.7</x:v>
-      </x:c>
-      <x:c r="AA7" s="3" t="n">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="AB7" s="3" t="n">
-        <x:v>71.1</x:v>
-      </x:c>
       <x:c r="AC7" s="3" t="n">
-        <x:v>71</x:v>
+        <x:v>70.2</x:v>
       </x:c>
       <x:c r="AD7" s="3" t="n">
-        <x:v>71.4</x:v>
+        <x:v>70.4</x:v>
       </x:c>
       <x:c r="AE7" s="3" t="n">
-        <x:v>72.2</x:v>
+        <x:v>71.2</x:v>
       </x:c>
       <x:c r="AF7" s="3" t="n">
-        <x:v>71.3</x:v>
+        <x:v>70.3</x:v>
       </x:c>
       <x:c r="AG7" s="3" t="n">
+        <x:v>69.2</x:v>
+      </x:c>
+      <x:c r="AH7" s="3" t="n">
         <x:v>70.2</x:v>
       </x:c>
-      <x:c r="AH7" s="3" t="n">
+      <x:c r="AI7" s="3" t="n">
         <x:v>71.2</x:v>
       </x:c>
-      <x:c r="AI7" s="3" t="n">
-        <x:v>72.2</x:v>
-      </x:c>
       <x:c r="AJ7" s="3" t="n">
-        <x:v>72.5</x:v>
+        <x:v>71.5</x:v>
       </x:c>
       <x:c r="AK7" s="3" t="n">
-        <x:v>72.9</x:v>
+        <x:v>71.9</x:v>
       </x:c>
       <x:c r="AL7" s="3" t="n">
-        <x:v>72.7</x:v>
+        <x:v>71.8</x:v>
       </x:c>
       <x:c r="AM7" s="3" t="n">
-        <x:v>72.7</x:v>
+        <x:v>71.7</x:v>
       </x:c>
       <x:c r="AN7" s="3" t="n">
-        <x:v>73.2</x:v>
+        <x:v>72.3</x:v>
       </x:c>
       <x:c r="AO7" s="3" t="n">
+        <x:v>72.3</x:v>
+      </x:c>
+      <x:c r="AP7" s="3" t="n">
         <x:v>73.3</x:v>
       </x:c>
-      <x:c r="AP7" s="3" t="n">
+      <x:c r="AQ7" s="3" t="n">
+        <x:v>72.3</x:v>
+      </x:c>
+      <x:c r="AR7" s="3" t="n">
+        <x:v>73.4</x:v>
+      </x:c>
+      <x:c r="AS7" s="3" t="n">
+        <x:v>73.4</x:v>
+      </x:c>
+      <x:c r="AT7" s="3" t="n">
+        <x:v>73.6</x:v>
+      </x:c>
+      <x:c r="AU7" s="3" t="n">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AV7" s="3" t="n">
+        <x:v>74.4</x:v>
+      </x:c>
+      <x:c r="AW7" s="3" t="n">
+        <x:v>74.4</x:v>
+      </x:c>
+      <x:c r="AX7" s="3" t="n">
+        <x:v>74.6</x:v>
+      </x:c>
+      <x:c r="AY7" s="3" t="n">
+        <x:v>74.5</x:v>
+      </x:c>
+      <x:c r="AZ7" s="3" t="n">
         <x:v>74.2</x:v>
       </x:c>
-      <x:c r="AQ7" s="3" t="n">
-        <x:v>73.2</x:v>
-      </x:c>
-      <x:c r="AR7" s="3" t="n">
+      <x:c r="BA7" s="3" t="n">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="BB7" s="3" t="n">
+        <x:v>75.1</x:v>
+      </x:c>
+      <x:c r="BC7" s="3" t="n">
+        <x:v>74.2</x:v>
+      </x:c>
+      <x:c r="BD7" s="3" t="n">
+        <x:v>76.1</x:v>
+      </x:c>
+      <x:c r="BE7" s="3" t="n">
         <x:v>74.4</x:v>
       </x:c>
-      <x:c r="AS7" s="3" t="n">
-        <x:v>74.4</x:v>
-      </x:c>
-      <x:c r="AT7" s="3" t="n">
-        <x:v>74.5</x:v>
-      </x:c>
-      <x:c r="AU7" s="3" t="n">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="AV7" s="3" t="n">
-        <x:v>75.4</x:v>
-      </x:c>
-      <x:c r="AW7" s="3" t="n">
-        <x:v>75.4</x:v>
-      </x:c>
-      <x:c r="AX7" s="3" t="n">
-        <x:v>75.6</x:v>
-      </x:c>
-      <x:c r="AY7" s="3" t="n">
-        <x:v>75.5</x:v>
-      </x:c>
-      <x:c r="AZ7" s="3" t="n">
-        <x:v>75.2</x:v>
-      </x:c>
-      <x:c r="BA7" s="3" t="n">
-        <x:v>76.9</x:v>
-      </x:c>
-      <x:c r="BB7" s="3" t="n">
+      <x:c r="BF7" s="3" t="n">
+        <x:v>76.2</x:v>
+      </x:c>
+      <x:c r="BG7" s="3" t="n">
+        <x:v>76.3</x:v>
+      </x:c>
+      <x:c r="BH7" s="3" t="n">
+        <x:v>75.9</x:v>
+      </x:c>
+      <x:c r="BI7" s="3" t="n">
+        <x:v>75.7</x:v>
+      </x:c>
+      <x:c r="BJ7" s="3" t="n">
+        <x:v>76.6</x:v>
+      </x:c>
+      <x:c r="BK7" s="3" t="n">
+        <x:v>77.1</x:v>
+      </x:c>
+      <x:c r="BL7" s="3" t="n">
+        <x:v>77.8</x:v>
+      </x:c>
+      <x:c r="BM7" s="3" t="n">
+        <x:v>76.7</x:v>
+      </x:c>
+      <x:c r="BN7" s="3" t="n">
+        <x:v>77.5</x:v>
+      </x:c>
+      <x:c r="BO7" s="3" t="n">
         <x:v>76.1</x:v>
       </x:c>
-      <x:c r="BC7" s="3" t="n">
-        <x:v>75.1</x:v>
-      </x:c>
-      <x:c r="BD7" s="3" t="n">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="BE7" s="3" t="n">
-        <x:v>75.3</x:v>
-      </x:c>
-      <x:c r="BF7" s="3" t="n">
-        <x:v>77.2</x:v>
-      </x:c>
-      <x:c r="BG7" s="3" t="n">
-        <x:v>77.1</x:v>
-      </x:c>
-      <x:c r="BH7" s="3" t="n">
-        <x:v>76.8</x:v>
-      </x:c>
-      <x:c r="BI7" s="3" t="n">
-        <x:v>76.6</x:v>
-      </x:c>
-      <x:c r="BJ7" s="3" t="n">
-        <x:v>77.5</x:v>
-      </x:c>
-      <x:c r="BK7" s="3" t="n">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BL7" s="3" t="n">
-        <x:v>78.8</x:v>
-      </x:c>
-      <x:c r="BM7" s="3" t="n">
-        <x:v>77.5</x:v>
-      </x:c>
-      <x:c r="BN7" s="3" t="n">
-        <x:v>78.4</x:v>
-      </x:c>
-      <x:c r="BO7" s="3" t="n">
-        <x:v>76.9</x:v>
-      </x:c>
       <x:c r="BP7" s="3" t="n">
+        <x:v>77.9</x:v>
+      </x:c>
+      <x:c r="BQ7" s="3" t="n">
         <x:v>78.7</x:v>
       </x:c>
-      <x:c r="BQ7" s="3" t="n">
-        <x:v>79.6</x:v>
-      </x:c>
       <x:c r="BR7" s="3" t="n">
-        <x:v>79.6</x:v>
+        <x:v>78.7</x:v>
       </x:c>
       <x:c r="BS7" s="3" t="n">
-        <x:v>79.2</x:v>
+        <x:v>78.3</x:v>
       </x:c>
       <x:c r="BT7" s="3" t="n">
-        <x:v>79.1</x:v>
+        <x:v>78.3</x:v>
       </x:c>
       <x:c r="BU7" s="3" t="n">
-        <x:v>79.5</x:v>
+        <x:v>78.6</x:v>
       </x:c>
       <x:c r="BV7" s="3" t="n">
-        <x:v>79.5</x:v>
+        <x:v>78.7</x:v>
       </x:c>
       <x:c r="BW7" s="3" t="n">
-        <x:v>80.5</x:v>
+        <x:v>79.7</x:v>
       </x:c>
       <x:c r="BX7" s="3" t="n">
-        <x:v>80.9</x:v>
+        <x:v>80.1</x:v>
       </x:c>
       <x:c r="BY7" s="3" t="n">
-        <x:v>81.6</x:v>
+        <x:v>80.8</x:v>
       </x:c>
       <x:c r="BZ7" s="3" t="n">
-        <x:v>80.9</x:v>
+        <x:v>80.1</x:v>
       </x:c>
       <x:c r="CA7" s="3" t="n">
-        <x:v>83</x:v>
+        <x:v>82.3</x:v>
       </x:c>
       <x:c r="CB7" s="3" t="n">
-        <x:v>83.3</x:v>
+        <x:v>82.5</x:v>
       </x:c>
       <x:c r="CC7" s="3" t="n">
-        <x:v>83.3</x:v>
+        <x:v>82.6</x:v>
       </x:c>
       <x:c r="CD7" s="3" t="n">
-        <x:v>83.8</x:v>
+        <x:v>82.9</x:v>
       </x:c>
       <x:c r="CE7" s="3" t="n">
+        <x:v>83.2</x:v>
+      </x:c>
+      <x:c r="CF7" s="3" t="n">
+        <x:v>84.1</x:v>
+      </x:c>
+      <x:c r="CG7" s="3" t="n">
         <x:v>84</x:v>
       </x:c>
-      <x:c r="CF7" s="3" t="n">
-        <x:v>84.9</x:v>
-      </x:c>
-      <x:c r="CG7" s="3" t="n">
-        <x:v>84.9</x:v>
-      </x:c>
       <x:c r="CH7" s="3" t="n">
-        <x:v>85.4</x:v>
+        <x:v>84.6</x:v>
       </x:c>
       <x:c r="CI7" s="3" t="n">
-        <x:v>86.1</x:v>
+        <x:v>85.2</x:v>
       </x:c>
       <x:c r="CJ7" s="3" t="n">
-        <x:v>86.8</x:v>
+        <x:v>85.9</x:v>
       </x:c>
       <x:c r="CK7" s="3" t="n">
-        <x:v>87.6</x:v>
+        <x:v>86.6</x:v>
       </x:c>
       <x:c r="CL7" s="3" t="n">
-        <x:v>89</x:v>
+        <x:v>87.9</x:v>
       </x:c>
       <x:c r="CM7" s="3" t="n">
-        <x:v>87.9</x:v>
+        <x:v>86.9</x:v>
       </x:c>
       <x:c r="CN7" s="3" t="n">
+        <x:v>88.7</x:v>
+      </x:c>
+      <x:c r="CO7" s="3" t="n">
+        <x:v>87.8</x:v>
+      </x:c>
+      <x:c r="CP7" s="3" t="n">
+        <x:v>87.5</x:v>
+      </x:c>
+      <x:c r="CQ7" s="3" t="n">
+        <x:v>88.9</x:v>
+      </x:c>
+      <x:c r="CR7" s="3" t="n">
+        <x:v>88.3</x:v>
+      </x:c>
+      <x:c r="CS7" s="3" t="n">
+        <x:v>89.4</x:v>
+      </x:c>
+      <x:c r="CT7" s="3" t="n">
+        <x:v>88.5</x:v>
+      </x:c>
+      <x:c r="CU7" s="3" t="n">
+        <x:v>89.1</x:v>
+      </x:c>
+      <x:c r="CV7" s="3" t="n">
+        <x:v>90.1</x:v>
+      </x:c>
+      <x:c r="CW7" s="3" t="n">
+        <x:v>89.8</x:v>
+      </x:c>
+      <x:c r="CX7" s="3" t="n">
+        <x:v>89.9</x:v>
+      </x:c>
+      <x:c r="CY7" s="3" t="n">
+        <x:v>91.4</x:v>
+      </x:c>
+      <x:c r="CZ7" s="3" t="n">
+        <x:v>89.9</x:v>
+      </x:c>
+      <x:c r="DA7" s="3" t="n">
+        <x:v>88.9</x:v>
+      </x:c>
+      <x:c r="DB7" s="3" t="n">
+        <x:v>88.8</x:v>
+      </x:c>
+      <x:c r="DC7" s="3" t="n">
+        <x:v>88.8</x:v>
+      </x:c>
+      <x:c r="DD7" s="3" t="n">
+        <x:v>87.5</x:v>
+      </x:c>
+      <x:c r="DE7" s="3" t="n">
+        <x:v>87.8</x:v>
+      </x:c>
+      <x:c r="DF7" s="3" t="n">
+        <x:v>87.7</x:v>
+      </x:c>
+      <x:c r="DG7" s="3" t="n">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="DH7" s="3" t="n">
+        <x:v>87.7</x:v>
+      </x:c>
+      <x:c r="DI7" s="3" t="n">
+        <x:v>88.2</x:v>
+      </x:c>
+      <x:c r="DJ7" s="3" t="n">
+        <x:v>88.7</x:v>
+      </x:c>
+      <x:c r="DK7" s="3" t="n">
+        <x:v>88.6</x:v>
+      </x:c>
+      <x:c r="DL7" s="3" t="n">
+        <x:v>89.3</x:v>
+      </x:c>
+      <x:c r="DM7" s="3" t="n">
+        <x:v>90.3</x:v>
+      </x:c>
+      <x:c r="DN7" s="3" t="n">
+        <x:v>90.5</x:v>
+      </x:c>
+      <x:c r="DO7" s="3" t="n">
         <x:v>89.7</x:v>
       </x:c>
-      <x:c r="CO7" s="3" t="n">
-        <x:v>88.7</x:v>
-      </x:c>
-      <x:c r="CP7" s="3" t="n">
-        <x:v>88.3</x:v>
-      </x:c>
-      <x:c r="CQ7" s="3" t="n">
-        <x:v>89.8</x:v>
-      </x:c>
-      <x:c r="CR7" s="3" t="n">
-        <x:v>89.2</x:v>
-      </x:c>
-      <x:c r="CS7" s="3" t="n">
-        <x:v>90.2</x:v>
-      </x:c>
-      <x:c r="CT7" s="3" t="n">
+      <x:c r="DP7" s="3" t="n">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="DQ7" s="3" t="n">
+        <x:v>89.7</x:v>
+      </x:c>
+      <x:c r="DR7" s="3" t="n">
+        <x:v>90.7</x:v>
+      </x:c>
+      <x:c r="DS7" s="3" t="n">
+        <x:v>91.2</x:v>
+      </x:c>
+      <x:c r="DT7" s="3" t="n">
+        <x:v>90.3</x:v>
+      </x:c>
+      <x:c r="DU7" s="3" t="n">
+        <x:v>90.6</x:v>
+      </x:c>
+      <x:c r="DV7" s="3" t="n">
         <x:v>89.3</x:v>
       </x:c>
-      <x:c r="CU7" s="3" t="n">
+      <x:c r="DW7" s="3" t="n">
         <x:v>89.9</x:v>
       </x:c>
-      <x:c r="CV7" s="3" t="n">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="CW7" s="3" t="n">
-        <x:v>90.7</x:v>
-      </x:c>
-      <x:c r="CX7" s="3" t="n">
+      <x:c r="DX7" s="3" t="n">
+        <x:v>90.4</x:v>
+      </x:c>
+      <x:c r="DY7" s="3" t="n">
+        <x:v>91.5</x:v>
+      </x:c>
+      <x:c r="DZ7" s="3" t="n">
         <x:v>90.8</x:v>
       </x:c>
-      <x:c r="CY7" s="3" t="n">
+      <x:c r="EA7" s="3" t="n">
+        <x:v>92.1</x:v>
+      </x:c>
+      <x:c r="EB7" s="3" t="n">
         <x:v>92.5</x:v>
       </x:c>
-      <x:c r="CZ7" s="3" t="n">
-        <x:v>90.7</x:v>
-      </x:c>
-      <x:c r="DA7" s="3" t="n">
-        <x:v>89.8</x:v>
-      </x:c>
-      <x:c r="DB7" s="3" t="n">
-        <x:v>89.7</x:v>
-      </x:c>
-      <x:c r="DC7" s="3" t="n">
-        <x:v>89.8</x:v>
-      </x:c>
-      <x:c r="DD7" s="3" t="n">
-        <x:v>88.4</x:v>
-      </x:c>
-      <x:c r="DE7" s="3" t="n">
-        <x:v>88.7</x:v>
-      </x:c>
-      <x:c r="DF7" s="3" t="n">
-        <x:v>88.5</x:v>
-      </x:c>
-      <x:c r="DG7" s="3" t="n">
-        <x:v>88.9</x:v>
-      </x:c>
-      <x:c r="DH7" s="3" t="n">
-        <x:v>88.4</x:v>
-      </x:c>
-      <x:c r="DI7" s="3" t="n">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="DJ7" s="3" t="n">
-        <x:v>89.4</x:v>
-      </x:c>
-      <x:c r="DK7" s="3" t="n">
-        <x:v>89.4</x:v>
-      </x:c>
-      <x:c r="DL7" s="3" t="n">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="DM7" s="3" t="n">
-        <x:v>91.1</x:v>
-      </x:c>
-      <x:c r="DN7" s="3" t="n">
-        <x:v>91.2</x:v>
-      </x:c>
-      <x:c r="DO7" s="3" t="n">
-        <x:v>90.4</x:v>
-      </x:c>
-      <x:c r="DP7" s="3" t="n">
-        <x:v>91.8</x:v>
-      </x:c>
-      <x:c r="DQ7" s="3" t="n">
-        <x:v>90.4</x:v>
-      </x:c>
-      <x:c r="DR7" s="3" t="n">
-        <x:v>91.5</x:v>
-      </x:c>
-      <x:c r="DS7" s="3" t="n">
+      <x:c r="EC7" s="3" t="n">
+        <x:v>93.7</x:v>
+      </x:c>
+      <x:c r="ED7" s="3" t="n">
         <x:v>91.9</x:v>
       </x:c>
-      <x:c r="DT7" s="3" t="n">
-        <x:v>91.1</x:v>
-      </x:c>
-      <x:c r="DU7" s="3" t="n">
+      <x:c r="EE7" s="3" t="n">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="EF7" s="3" t="n">
+        <x:v>92.4</x:v>
+      </x:c>
+      <x:c r="EG7" s="3" t="n">
         <x:v>91.4</x:v>
       </x:c>
-      <x:c r="DV7" s="3" t="n">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="DW7" s="3" t="n">
-        <x:v>90.7</x:v>
-      </x:c>
-      <x:c r="DX7" s="3" t="n">
-        <x:v>91.1</x:v>
-      </x:c>
-      <x:c r="DY7" s="3" t="n">
-        <x:v>92.2</x:v>
-      </x:c>
-      <x:c r="DZ7" s="3" t="n">
-        <x:v>91.6</x:v>
-      </x:c>
-      <x:c r="EA7" s="3" t="n">
-        <x:v>92.8</x:v>
-      </x:c>
-      <x:c r="EB7" s="3" t="n">
-        <x:v>93.3</x:v>
-      </x:c>
-      <x:c r="EC7" s="3" t="n">
-        <x:v>94.4</x:v>
-      </x:c>
-      <x:c r="ED7" s="3" t="n">
+      <x:c r="EH7" s="3" t="n">
+        <x:v>92.4</x:v>
+      </x:c>
+      <x:c r="EI7" s="3" t="n">
+        <x:v>92.5</x:v>
+      </x:c>
+      <x:c r="EJ7" s="3" t="n">
+        <x:v>92.1</x:v>
+      </x:c>
+      <x:c r="EK7" s="3" t="n">
         <x:v>92.7</x:v>
       </x:c>
-      <x:c r="EE7" s="3" t="n">
-        <x:v>92.9</x:v>
-      </x:c>
-      <x:c r="EF7" s="3" t="n">
-        <x:v>93.2</x:v>
-      </x:c>
-      <x:c r="EG7" s="3" t="n">
-        <x:v>92.2</x:v>
-      </x:c>
-      <x:c r="EH7" s="3" t="n">
-        <x:v>93.2</x:v>
-      </x:c>
-      <x:c r="EI7" s="3" t="n">
-        <x:v>93.3</x:v>
-      </x:c>
-      <x:c r="EJ7" s="3" t="n">
-        <x:v>92.9</x:v>
-      </x:c>
-      <x:c r="EK7" s="3" t="n">
-        <x:v>93.4</x:v>
-      </x:c>
       <x:c r="EL7" s="3" t="n">
-        <x:v>95.1</x:v>
+        <x:v>94.2</x:v>
       </x:c>
       <x:c r="EM7" s="3" t="n">
-        <x:v>94.9</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="EN7" s="3" t="n">
-        <x:v>95.4</x:v>
+        <x:v>94.6</x:v>
       </x:c>
       <x:c r="EO7" s="3" t="n">
-        <x:v>95.1</x:v>
+        <x:v>94.3</x:v>
       </x:c>
       <x:c r="EP7" s="3" t="n">
+        <x:v>94.2</x:v>
+      </x:c>
+      <x:c r="EQ7" s="3" t="n">
+        <x:v>95.3</x:v>
+      </x:c>
+      <x:c r="ER7" s="3" t="n">
         <x:v>95</x:v>
       </x:c>
-      <x:c r="EQ7" s="3" t="n">
+      <x:c r="ES7" s="3" t="n">
         <x:v>96.1</x:v>
       </x:c>
-      <x:c r="ER7" s="3" t="n">
+      <x:c r="ET7" s="3" t="n">
+        <x:v>95.6</x:v>
+      </x:c>
+      <x:c r="EU7" s="3" t="n">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="EV7" s="3" t="n">
+        <x:v>96.1</x:v>
+      </x:c>
+      <x:c r="EW7" s="3" t="n">
+        <x:v>96.3</x:v>
+      </x:c>
+      <x:c r="EX7" s="3" t="n">
+        <x:v>96.3</x:v>
+      </x:c>
+      <x:c r="EY7" s="3" t="n">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="EZ7" s="3" t="n">
         <x:v>95.7</x:v>
       </x:c>
-      <x:c r="ES7" s="3" t="n">
-        <x:v>96.9</x:v>
-      </x:c>
-      <x:c r="ET7" s="3" t="n">
-        <x:v>96.4</x:v>
-      </x:c>
-      <x:c r="EU7" s="3" t="n">
+      <x:c r="FA7" s="3" t="n">
+        <x:v>96.3</x:v>
+      </x:c>
+      <x:c r="FB7" s="3" t="n">
+        <x:v>96.6</x:v>
+      </x:c>
+      <x:c r="FC7" s="3" t="n">
+        <x:v>98.3</x:v>
+      </x:c>
+      <x:c r="FD7" s="3" t="n">
+        <x:v>97.9</x:v>
+      </x:c>
+      <x:c r="FE7" s="3" t="n">
+        <x:v>97.3</x:v>
+      </x:c>
+      <x:c r="FF7" s="3" t="n">
+        <x:v>96.2</x:v>
+      </x:c>
+      <x:c r="FG7" s="3" t="n">
+        <x:v>99.1</x:v>
+      </x:c>
+      <x:c r="FH7" s="3" t="n">
+        <x:v>98.1</x:v>
+      </x:c>
+      <x:c r="FI7" s="3" t="n">
+        <x:v>97.4</x:v>
+      </x:c>
+      <x:c r="FJ7" s="3" t="n">
         <x:v>97.8</x:v>
       </x:c>
-      <x:c r="EV7" s="3" t="n">
-        <x:v>96.8</x:v>
-      </x:c>
-      <x:c r="EW7" s="3" t="n">
-        <x:v>97.1</x:v>
-      </x:c>
-      <x:c r="EX7" s="3" t="n">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="EY7" s="3" t="n">
-        <x:v>97.8</x:v>
-      </x:c>
-      <x:c r="EZ7" s="3" t="n">
-        <x:v>96.4</x:v>
-      </x:c>
-      <x:c r="FA7" s="3" t="n">
-        <x:v>96.9</x:v>
-      </x:c>
-      <x:c r="FB7" s="3" t="n">
-        <x:v>97.2</x:v>
-      </x:c>
-      <x:c r="FC7" s="3" t="n">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="FD7" s="3" t="n">
-        <x:v>98.6</x:v>
-      </x:c>
-      <x:c r="FE7" s="3" t="n">
-        <x:v>97.8</x:v>
-      </x:c>
-      <x:c r="FF7" s="3" t="n">
-        <x:v>96.7</x:v>
-      </x:c>
-      <x:c r="FG7" s="3" t="n">
-        <x:v>99.6</x:v>
-      </x:c>
-      <x:c r="FH7" s="3" t="n">
-        <x:v>98.6</x:v>
-      </x:c>
-      <x:c r="FI7" s="3" t="n">
-        <x:v>97.8</x:v>
-      </x:c>
-      <x:c r="FJ7" s="3" t="n">
-        <x:v>98.2</x:v>
-      </x:c>
       <x:c r="FK7" s="3" t="n">
-        <x:v>98.8</x:v>
+        <x:v>98.3</x:v>
       </x:c>
       <x:c r="FL7" s="3" t="n">
-        <x:v>98.2</x:v>
+        <x:v>97.7</x:v>
       </x:c>
       <x:c r="FM7" s="3" t="n">
-        <x:v>98</x:v>
+        <x:v>97.6</x:v>
       </x:c>
       <x:c r="FN7" s="3" t="n">
-        <x:v>98.8</x:v>
+        <x:v>98.4</x:v>
       </x:c>
       <x:c r="FO7" s="3" t="n">
-        <x:v>99.3</x:v>
+        <x:v>99.1</x:v>
       </x:c>
       <x:c r="FP7" s="3" t="n">
+        <x:v>99.5</x:v>
+      </x:c>
+      <x:c r="FQ7" s="3" t="n">
+        <x:v>100.2</x:v>
+      </x:c>
+      <x:c r="FR7" s="3" t="n">
+        <x:v>100.7</x:v>
+      </x:c>
+      <x:c r="FS7" s="3" t="n">
+        <x:v>99.7</x:v>
+      </x:c>
+      <x:c r="FT7" s="3" t="n">
+        <x:v>100.5</x:v>
+      </x:c>
+      <x:c r="FU7" s="3" t="n">
+        <x:v>98.9</x:v>
+      </x:c>
+      <x:c r="FV7" s="3" t="n">
+        <x:v>100.2</x:v>
+      </x:c>
+      <x:c r="FW7" s="3" t="n">
+        <x:v>100.1</x:v>
+      </x:c>
+      <x:c r="FX7" s="3" t="n">
+        <x:v>100.1</x:v>
+      </x:c>
+      <x:c r="FY7" s="3" t="n">
         <x:v>99.8</x:v>
-      </x:c>
-      <x:c r="FQ7" s="3" t="n">
-        <x:v>100.5</x:v>
-      </x:c>
-      <x:c r="FR7" s="3" t="n">
-        <x:v>100.9</x:v>
-      </x:c>
-      <x:c r="FS7" s="3" t="n">
-        <x:v>99.9</x:v>
-      </x:c>
-      <x:c r="FT7" s="3" t="n">
-        <x:v>100.7</x:v>
-      </x:c>
-      <x:c r="FU7" s="3" t="n">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="FV7" s="3" t="n">
-        <x:v>100.4</x:v>
-      </x:c>
-      <x:c r="FW7" s="3" t="n">
-        <x:v>100.2</x:v>
-      </x:c>
-      <x:c r="FX7" s="3" t="n">
-        <x:v>100.2</x:v>
-      </x:c>
-      <x:c r="FY7" s="3" t="n">
-        <x:v>99.9</x:v>
       </x:c>
       <x:c r="FZ7" s="3" t="n">
         <x:v>100.6</x:v>
       </x:c>
       <x:c r="GA7" s="3" t="n">
-        <x:v>100.3</x:v>
+        <x:v>100.2</x:v>
       </x:c>
       <x:c r="GB7" s="3" t="n">
         <x:v>100.9</x:v>
       </x:c>
       <x:c r="GC7" s="3" t="n">
-        <x:v>100.8</x:v>
+        <x:v>100.7</x:v>
       </x:c>
       <x:c r="GD7" s="3" t="n">
         <x:v>103.6</x:v>
       </x:c>
       <x:c r="GE7" s="3" t="n">
-        <x:v>98.7</x:v>
+        <x:v>98.8</x:v>
       </x:c>
       <x:c r="GF7" s="3" t="n">
-        <x:v>100.1</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="GG7" s="3" t="n">
-        <x:v>100.8</x:v>
+        <x:v>100.7</x:v>
       </x:c>
       <x:c r="GH7" s="3" t="n">
-        <x:v>100.6</x:v>
+        <x:v>100.7</x:v>
       </x:c>
       <x:c r="GI7" s="3" t="n">
         <x:v>100</x:v>
@@ -5122,753 +5166,762 @@
         <x:v>100.3</x:v>
       </x:c>
       <x:c r="GL7" s="3" t="n">
+        <x:v>100.5</x:v>
+      </x:c>
+      <x:c r="GM7" s="3" t="n">
+        <x:v>101.1</x:v>
+      </x:c>
+      <x:c r="GN7" s="3" t="n">
+        <x:v>99.7</x:v>
+      </x:c>
+      <x:c r="GO7" s="3" t="n">
+        <x:v>99.6</x:v>
+      </x:c>
+      <x:c r="GP7" s="3" t="n">
+        <x:v>98.9</x:v>
+      </x:c>
+      <x:c r="GQ7" s="3" t="n">
+        <x:v>99.9</x:v>
+      </x:c>
+      <x:c r="GR7" s="3" t="n">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="GS7" s="3" t="n">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="GT7" s="3" t="n">
+        <x:v>99.5</x:v>
+      </x:c>
+      <x:c r="GU7" s="3" t="n">
+        <x:v>99.9</x:v>
+      </x:c>
+      <x:c r="GV7" s="3" t="n">
+        <x:v>101.1</x:v>
+      </x:c>
+      <x:c r="GW7" s="3" t="n">
+        <x:v>100.3</x:v>
+      </x:c>
+      <x:c r="GX7" s="3" t="n">
+        <x:v>98.6</x:v>
+      </x:c>
+      <x:c r="GY7" s="3" t="n">
         <x:v>100.4</x:v>
       </x:c>
-      <x:c r="GM7" s="3" t="n">
+      <x:c r="GZ7" s="3" t="n">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="HA7" s="3" t="n">
+        <x:v>101.8</x:v>
+      </x:c>
+      <x:c r="HB7" s="3" t="n">
+        <x:v>101.3</x:v>
+      </x:c>
+      <x:c r="HC7" s="3" t="n">
+        <x:v>102.8</x:v>
+      </x:c>
+      <x:c r="HD7" s="3" t="n">
+        <x:v>103.2</x:v>
+      </x:c>
+      <x:c r="HE7" s="3" t="n">
+        <x:v>102.7</x:v>
+      </x:c>
+      <x:c r="HF7" s="3" t="n">
+        <x:v>102.6</x:v>
+      </x:c>
+      <x:c r="HG7" s="3" t="n">
+        <x:v>102.2</x:v>
+      </x:c>
+      <x:c r="HH7" s="3" t="n">
+        <x:v>102.2</x:v>
+      </x:c>
+      <x:c r="HI7" s="3" t="n">
+        <x:v>103.8</x:v>
+      </x:c>
+      <x:c r="HJ7" s="3" t="n">
+        <x:v>103.5</x:v>
+      </x:c>
+      <x:c r="HK7" s="3" t="n">
+        <x:v>102.9</x:v>
+      </x:c>
+      <x:c r="HL7" s="3" t="n">
+        <x:v>103.3</x:v>
+      </x:c>
+      <x:c r="HM7" s="3" t="n">
+        <x:v>103.3</x:v>
+      </x:c>
+      <x:c r="HN7" s="3" t="n">
+        <x:v>104.1</x:v>
+      </x:c>
+      <x:c r="HO7" s="3" t="n">
+        <x:v>106.9</x:v>
+      </x:c>
+      <x:c r="HP7" s="3" t="n">
+        <x:v>103.3</x:v>
+      </x:c>
+      <x:c r="HQ7" s="3" t="n">
+        <x:v>103.6</x:v>
+      </x:c>
+      <x:c r="HR7" s="3" t="n">
+        <x:v>104.3</x:v>
+      </x:c>
+      <x:c r="HS7" s="3" t="n">
+        <x:v>103.7</x:v>
+      </x:c>
+      <x:c r="HT7" s="3" t="n">
+        <x:v>103.7</x:v>
+      </x:c>
+      <x:c r="HU7" s="3" t="n">
+        <x:v>104.7</x:v>
+      </x:c>
+      <x:c r="HV7" s="3" t="n">
+        <x:v>102.9</x:v>
+      </x:c>
+      <x:c r="HW7" s="3" t="n">
+        <x:v>104.6</x:v>
+      </x:c>
+      <x:c r="HX7" s="3" t="n">
+        <x:v>102.9</x:v>
+      </x:c>
+      <x:c r="HY7" s="3" t="n">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="HZ7" s="3" t="n">
+        <x:v>105.6</x:v>
+      </x:c>
+      <x:c r="IA7" s="3" t="n">
+        <x:v>104.4</x:v>
+      </x:c>
+      <x:c r="IB7" s="3" t="n">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="IC7" s="3" t="n">
+        <x:v>105.1</x:v>
+      </x:c>
+      <x:c r="ID7" s="3" t="n">
+        <x:v>104.8</x:v>
+      </x:c>
+      <x:c r="IE7" s="3" t="n">
+        <x:v>104.8</x:v>
+      </x:c>
+      <x:c r="IF7" s="3" t="n">
+        <x:v>104.2</x:v>
+      </x:c>
+      <x:c r="IG7" s="3" t="n">
+        <x:v>105.2</x:v>
+      </x:c>
+      <x:c r="IH7" s="3" t="n">
+        <x:v>103.4</x:v>
+      </x:c>
+      <x:c r="II7" s="3" t="n">
+        <x:v>103.4</x:v>
+      </x:c>
+      <x:c r="IJ7" s="3" t="n">
+        <x:v>105.5</x:v>
+      </x:c>
+      <x:c r="IK7" s="3" t="n">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="IL7" s="3" t="n">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="IM7" s="3" t="n">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="IN7" s="3" t="n">
+        <x:v>120.6</x:v>
+      </x:c>
+      <x:c r="IO7" s="3" t="n">
+        <x:v>121.2</x:v>
+      </x:c>
+      <x:c r="IP7" s="3" t="n">
+        <x:v>115.2</x:v>
+      </x:c>
+      <x:c r="IQ7" s="3" t="n">
+        <x:v>115.4</x:v>
+      </x:c>
+      <x:c r="IR7" s="3" t="n">
+        <x:v>117.7</x:v>
+      </x:c>
+      <x:c r="IS7" s="3" t="n">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="IT7" s="3" t="n">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="IU7" s="3" t="n">
+        <x:v>115.4</x:v>
+      </x:c>
+      <x:c r="IV7" s="3" t="n">
+        <x:v>115.3</x:v>
+      </x:c>
+      <x:c r="IW7" s="3" t="n">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="IX7" s="3" t="n">
+        <x:v>116.6</x:v>
+      </x:c>
+      <x:c r="IY7" s="3" t="n">
+        <x:v>122.8</x:v>
+      </x:c>
+      <x:c r="IZ7" s="3" t="n">
+        <x:v>121.9</x:v>
+      </x:c>
+      <x:c r="JA7" s="3" t="n">
+        <x:v>116.7</x:v>
+      </x:c>
+      <x:c r="JB7" s="3" t="n">
+        <x:v>112.5</x:v>
+      </x:c>
+      <x:c r="JC7" s="3" t="n">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="JD7" s="3" t="n">
+        <x:v>114.8</x:v>
+      </x:c>
+      <x:c r="JE7" s="3" t="n">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="JF7" s="3" t="n">
+        <x:v>112.7</x:v>
+      </x:c>
+      <x:c r="JG7" s="3" t="n">
+        <x:v>113.1</x:v>
+      </x:c>
+      <x:c r="JH7" s="3" t="n">
+        <x:v>111.6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:268">
+      <x:c r="B8" s="2" t="s">
+        <x:v>272</x:v>
+      </x:c>
+      <x:c r="C8" s="3" t="n">
+        <x:v>60.8</x:v>
+      </x:c>
+      <x:c r="D8" s="3" t="n">
+        <x:v>56.3</x:v>
+      </x:c>
+      <x:c r="E8" s="3" t="n">
+        <x:v>62.4</x:v>
+      </x:c>
+      <x:c r="F8" s="3" t="n">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="G8" s="3" t="n">
+        <x:v>71.6</x:v>
+      </x:c>
+      <x:c r="H8" s="3" t="n">
+        <x:v>67.1</x:v>
+      </x:c>
+      <x:c r="I8" s="3" t="n">
+        <x:v>66.4</x:v>
+      </x:c>
+      <x:c r="J8" s="3" t="n">
+        <x:v>69.2</x:v>
+      </x:c>
+      <x:c r="K8" s="3" t="n">
+        <x:v>64.2</x:v>
+      </x:c>
+      <x:c r="L8" s="3" t="n">
+        <x:v>66.4</x:v>
+      </x:c>
+      <x:c r="M8" s="3" t="n">
+        <x:v>66.7</x:v>
+      </x:c>
+      <x:c r="N8" s="3" t="n">
+        <x:v>89.3</x:v>
+      </x:c>
+      <x:c r="O8" s="3" t="n">
+        <x:v>61.3</x:v>
+      </x:c>
+      <x:c r="P8" s="3" t="n">
+        <x:v>56.4</x:v>
+      </x:c>
+      <x:c r="Q8" s="3" t="n">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="R8" s="3" t="n">
+        <x:v>61.2</x:v>
+      </x:c>
+      <x:c r="S8" s="3" t="n">
+        <x:v>70.1</x:v>
+      </x:c>
+      <x:c r="T8" s="3" t="n">
+        <x:v>69.4</x:v>
+      </x:c>
+      <x:c r="U8" s="3" t="n">
+        <x:v>67.4</x:v>
+      </x:c>
+      <x:c r="V8" s="3" t="n">
+        <x:v>69.8</x:v>
+      </x:c>
+      <x:c r="W8" s="3" t="n">
+        <x:v>65.6</x:v>
+      </x:c>
+      <x:c r="X8" s="3" t="n">
+        <x:v>68.3</x:v>
+      </x:c>
+      <x:c r="Y8" s="3" t="n">
+        <x:v>70.1</x:v>
+      </x:c>
+      <x:c r="Z8" s="3" t="n">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="AA8" s="3" t="n">
+        <x:v>64.5</x:v>
+      </x:c>
+      <x:c r="AB8" s="3" t="n">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="AC8" s="3" t="n">
+        <x:v>65.9</x:v>
+      </x:c>
+      <x:c r="AD8" s="3" t="n">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="AE8" s="3" t="n">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AF8" s="3" t="n">
+        <x:v>72.6</x:v>
+      </x:c>
+      <x:c r="AG8" s="3" t="n">
+        <x:v>68.9</x:v>
+      </x:c>
+      <x:c r="AH8" s="3" t="n">
+        <x:v>71.9</x:v>
+      </x:c>
+      <x:c r="AI8" s="3" t="n">
+        <x:v>68.5</x:v>
+      </x:c>
+      <x:c r="AJ8" s="3" t="n">
+        <x:v>71.3</x:v>
+      </x:c>
+      <x:c r="AK8" s="3" t="n">
+        <x:v>72.6</x:v>
+      </x:c>
+      <x:c r="AL8" s="3" t="n">
+        <x:v>94.6</x:v>
+      </x:c>
+      <x:c r="AM8" s="3" t="n">
+        <x:v>65.8</x:v>
+      </x:c>
+      <x:c r="AN8" s="3" t="n">
+        <x:v>60.6</x:v>
+      </x:c>
+      <x:c r="AO8" s="3" t="n">
+        <x:v>67.8</x:v>
+      </x:c>
+      <x:c r="AP8" s="3" t="n">
+        <x:v>67.7</x:v>
+      </x:c>
+      <x:c r="AQ8" s="3" t="n">
+        <x:v>74.9</x:v>
+      </x:c>
+      <x:c r="AR8" s="3" t="n">
+        <x:v>76.2</x:v>
+      </x:c>
+      <x:c r="AS8" s="3" t="n">
+        <x:v>73.3</x:v>
+      </x:c>
+      <x:c r="AT8" s="3" t="n">
+        <x:v>75.5</x:v>
+      </x:c>
+      <x:c r="AU8" s="3" t="n">
+        <x:v>71.3</x:v>
+      </x:c>
+      <x:c r="AV8" s="3" t="n">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AW8" s="3" t="n">
+        <x:v>75.1</x:v>
+      </x:c>
+      <x:c r="AX8" s="3" t="n">
+        <x:v>98.3</x:v>
+      </x:c>
+      <x:c r="AY8" s="3" t="n">
+        <x:v>68.7</x:v>
+      </x:c>
+      <x:c r="AZ8" s="3" t="n">
+        <x:v>62.3</x:v>
+      </x:c>
+      <x:c r="BA8" s="3" t="n">
+        <x:v>71.3</x:v>
+      </x:c>
+      <x:c r="BB8" s="3" t="n">
+        <x:v>69.3</x:v>
+      </x:c>
+      <x:c r="BC8" s="3" t="n">
+        <x:v>76.7</x:v>
+      </x:c>
+      <x:c r="BD8" s="3" t="n">
+        <x:v>79.3</x:v>
+      </x:c>
+      <x:c r="BE8" s="3" t="n">
+        <x:v>74.3</x:v>
+      </x:c>
+      <x:c r="BF8" s="3" t="n">
+        <x:v>78.3</x:v>
+      </x:c>
+      <x:c r="BG8" s="3" t="n">
+        <x:v>73.8</x:v>
+      </x:c>
+      <x:c r="BH8" s="3" t="n">
+        <x:v>75.6</x:v>
+      </x:c>
+      <x:c r="BI8" s="3" t="n">
+        <x:v>76.3</x:v>
+      </x:c>
+      <x:c r="BJ8" s="3" t="n">
+        <x:v>100.4</x:v>
+      </x:c>
+      <x:c r="BK8" s="3" t="n">
+        <x:v>71.1</x:v>
+      </x:c>
+      <x:c r="BL8" s="3" t="n">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="BM8" s="3" t="n">
+        <x:v>71.8</x:v>
+      </x:c>
+      <x:c r="BN8" s="3" t="n">
+        <x:v>71.3</x:v>
+      </x:c>
+      <x:c r="BO8" s="3" t="n">
+        <x:v>78.3</x:v>
+      </x:c>
+      <x:c r="BP8" s="3" t="n">
+        <x:v>81.4</x:v>
+      </x:c>
+      <x:c r="BQ8" s="3" t="n">
+        <x:v>78.8</x:v>
+      </x:c>
+      <x:c r="BR8" s="3" t="n">
+        <x:v>81.1</x:v>
+      </x:c>
+      <x:c r="BS8" s="3" t="n">
+        <x:v>75.9</x:v>
+      </x:c>
+      <x:c r="BT8" s="3" t="n">
+        <x:v>77.9</x:v>
+      </x:c>
+      <x:c r="BU8" s="3" t="n">
+        <x:v>79.3</x:v>
+      </x:c>
+      <x:c r="BV8" s="3" t="n">
+        <x:v>102.7</x:v>
+      </x:c>
+      <x:c r="BW8" s="3" t="n">
+        <x:v>73.4</x:v>
+      </x:c>
+      <x:c r="BX8" s="3" t="n">
+        <x:v>66.9</x:v>
+      </x:c>
+      <x:c r="BY8" s="3" t="n">
+        <x:v>75.5</x:v>
+      </x:c>
+      <x:c r="BZ8" s="3" t="n">
+        <x:v>73.4</x:v>
+      </x:c>
+      <x:c r="CA8" s="3" t="n">
+        <x:v>84.8</x:v>
+      </x:c>
+      <x:c r="CB8" s="3" t="n">
+        <x:v>86.5</x:v>
+      </x:c>
+      <x:c r="CC8" s="3" t="n">
+        <x:v>82.9</x:v>
+      </x:c>
+      <x:c r="CD8" s="3" t="n">
+        <x:v>85.7</x:v>
+      </x:c>
+      <x:c r="CE8" s="3" t="n">
+        <x:v>80.7</x:v>
+      </x:c>
+      <x:c r="CF8" s="3" t="n">
+        <x:v>83.6</x:v>
+      </x:c>
+      <x:c r="CG8" s="3" t="n">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="CH8" s="3" t="n">
+        <x:v>109.9</x:v>
+      </x:c>
+      <x:c r="CI8" s="3" t="n">
+        <x:v>78.4</x:v>
+      </x:c>
+      <x:c r="CJ8" s="3" t="n">
+        <x:v>71.7</x:v>
+      </x:c>
+      <x:c r="CK8" s="3" t="n">
+        <x:v>80.5</x:v>
+      </x:c>
+      <x:c r="CL8" s="3" t="n">
+        <x:v>80.5</x:v>
+      </x:c>
+      <x:c r="CM8" s="3" t="n">
+        <x:v>89.5</x:v>
+      </x:c>
+      <x:c r="CN8" s="3" t="n">
+        <x:v>93.1</x:v>
+      </x:c>
+      <x:c r="CO8" s="3" t="n">
+        <x:v>88.4</x:v>
+      </x:c>
+      <x:c r="CP8" s="3" t="n">
+        <x:v>90.5</x:v>
+      </x:c>
+      <x:c r="CQ8" s="3" t="n">
+        <x:v>86.2</x:v>
+      </x:c>
+      <x:c r="CR8" s="3" t="n">
+        <x:v>87.8</x:v>
+      </x:c>
+      <x:c r="CS8" s="3" t="n">
+        <x:v>90.6</x:v>
+      </x:c>
+      <x:c r="CT8" s="3" t="n">
+        <x:v>114.8</x:v>
+      </x:c>
+      <x:c r="CU8" s="3" t="n">
+        <x:v>81.9</x:v>
+      </x:c>
+      <x:c r="CV8" s="3" t="n">
+        <x:v>75.1</x:v>
+      </x:c>
+      <x:c r="CW8" s="3" t="n">
+        <x:v>83.5</x:v>
+      </x:c>
+      <x:c r="CX8" s="3" t="n">
+        <x:v>82.1</x:v>
+      </x:c>
+      <x:c r="CY8" s="3" t="n">
+        <x:v>94.4</x:v>
+      </x:c>
+      <x:c r="CZ8" s="3" t="n">
+        <x:v>94.1</x:v>
+      </x:c>
+      <x:c r="DA8" s="3" t="n">
+        <x:v>89.8</x:v>
+      </x:c>
+      <x:c r="DB8" s="3" t="n">
+        <x:v>91.9</x:v>
+      </x:c>
+      <x:c r="DC8" s="3" t="n">
+        <x:v>86.2</x:v>
+      </x:c>
+      <x:c r="DD8" s="3" t="n">
+        <x:v>87.1</x:v>
+      </x:c>
+      <x:c r="DE8" s="3" t="n">
+        <x:v>89.2</x:v>
+      </x:c>
+      <x:c r="DF8" s="3" t="n">
+        <x:v>113.1</x:v>
+      </x:c>
+      <x:c r="DG8" s="3" t="n">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="DH8" s="3" t="n">
+        <x:v>73.3</x:v>
+      </x:c>
+      <x:c r="DI8" s="3" t="n">
+        <x:v>82.2</x:v>
+      </x:c>
+      <x:c r="DJ8" s="3" t="n">
+        <x:v>81.1</x:v>
+      </x:c>
+      <x:c r="DK8" s="3" t="n">
+        <x:v>91.8</x:v>
+      </x:c>
+      <x:c r="DL8" s="3" t="n">
+        <x:v>93.7</x:v>
+      </x:c>
+      <x:c r="DM8" s="3" t="n">
+        <x:v>91.4</x:v>
+      </x:c>
+      <x:c r="DN8" s="3" t="n">
+        <x:v>93.6</x:v>
+      </x:c>
+      <x:c r="DO8" s="3" t="n">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="DP8" s="3" t="n">
+        <x:v>90.7</x:v>
+      </x:c>
+      <x:c r="DQ8" s="3" t="n">
+        <x:v>91.4</x:v>
+      </x:c>
+      <x:c r="DR8" s="3" t="n">
+        <x:v>116.5</x:v>
+      </x:c>
+      <x:c r="DS8" s="3" t="n">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="DT8" s="3" t="n">
+        <x:v>75.6</x:v>
+      </x:c>
+      <x:c r="DU8" s="3" t="n">
+        <x:v>84.3</x:v>
+      </x:c>
+      <x:c r="DV8" s="3" t="n">
+        <x:v>81.5</x:v>
+      </x:c>
+      <x:c r="DW8" s="3" t="n">
+        <x:v>93.3</x:v>
+      </x:c>
+      <x:c r="DX8" s="3" t="n">
+        <x:v>94.8</x:v>
+      </x:c>
+      <x:c r="DY8" s="3" t="n">
+        <x:v>92.7</x:v>
+      </x:c>
+      <x:c r="DZ8" s="3" t="n">
+        <x:v>93.9</x:v>
+      </x:c>
+      <x:c r="EA8" s="3" t="n">
+        <x:v>89.4</x:v>
+      </x:c>
+      <x:c r="EB8" s="3" t="n">
+        <x:v>92.2</x:v>
+      </x:c>
+      <x:c r="EC8" s="3" t="n">
+        <x:v>95.7</x:v>
+      </x:c>
+      <x:c r="ED8" s="3" t="n">
+        <x:v>117.8</x:v>
+      </x:c>
+      <x:c r="EE8" s="3" t="n">
+        <x:v>84.7</x:v>
+      </x:c>
+      <x:c r="EF8" s="3" t="n">
+        <x:v>77.4</x:v>
+      </x:c>
+      <x:c r="EG8" s="3" t="n">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="EH8" s="3" t="n">
+        <x:v>84.4</x:v>
+      </x:c>
+      <x:c r="EI8" s="3" t="n">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="EJ8" s="3" t="n">
+        <x:v>96.8</x:v>
+      </x:c>
+      <x:c r="EK8" s="3" t="n">
+        <x:v>93.9</x:v>
+      </x:c>
+      <x:c r="EL8" s="3" t="n">
+        <x:v>97.4</x:v>
+      </x:c>
+      <x:c r="EM8" s="3" t="n">
+        <x:v>91.2</x:v>
+      </x:c>
+      <x:c r="EN8" s="3" t="n">
+        <x:v>94.3</x:v>
+      </x:c>
+      <x:c r="EO8" s="3" t="n">
+        <x:v>96.3</x:v>
+      </x:c>
+      <x:c r="EP8" s="3" t="n">
+        <x:v>120.2</x:v>
+      </x:c>
+      <x:c r="EQ8" s="3" t="n">
+        <x:v>87.6</x:v>
+      </x:c>
+      <x:c r="ER8" s="3" t="n">
+        <x:v>79.6</x:v>
+      </x:c>
+      <x:c r="ES8" s="3" t="n">
+        <x:v>89.2</x:v>
+      </x:c>
+      <x:c r="ET8" s="3" t="n">
+        <x:v>87.3</x:v>
+      </x:c>
+      <x:c r="EU8" s="3" t="n">
         <x:v>100.9</x:v>
       </x:c>
-      <x:c r="GN7" s="3" t="n">
-        <x:v>99.5</x:v>
-      </x:c>
-      <x:c r="GO7" s="3" t="n">
-        <x:v>99.5</x:v>
-      </x:c>
-      <x:c r="GP7" s="3" t="n">
-        <x:v>98.8</x:v>
-      </x:c>
-      <x:c r="GQ7" s="3" t="n">
-        <x:v>99.6</x:v>
-      </x:c>
-      <x:c r="GR7" s="3" t="n">
+      <x:c r="EV8" s="3" t="n">
+        <x:v>101.3</x:v>
+      </x:c>
+      <x:c r="EW8" s="3" t="n">
+        <x:v>97.5</x:v>
+      </x:c>
+      <x:c r="EX8" s="3" t="n">
+        <x:v>99.3</x:v>
+      </x:c>
+      <x:c r="EY8" s="3" t="n">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="EZ8" s="3" t="n">
+        <x:v>95.1</x:v>
+      </x:c>
+      <x:c r="FA8" s="3" t="n">
+        <x:v>98.3</x:v>
+      </x:c>
+      <x:c r="FB8" s="3" t="n">
+        <x:v>123.1</x:v>
+      </x:c>
+      <x:c r="FC8" s="3" t="n">
+        <x:v>90.3</x:v>
+      </x:c>
+      <x:c r="FD8" s="3" t="n">
+        <x:v>82.2</x:v>
+      </x:c>
+      <x:c r="FE8" s="3" t="n">
+        <x:v>90.7</x:v>
+      </x:c>
+      <x:c r="FF8" s="3" t="n">
+        <x:v>87.9</x:v>
+      </x:c>
+      <x:c r="FG8" s="3" t="n">
+        <x:v>103.2</x:v>
+      </x:c>
+      <x:c r="FH8" s="3" t="n">
+        <x:v>103.8</x:v>
+      </x:c>
+      <x:c r="FI8" s="3" t="n">
+        <x:v>98.6</x:v>
+      </x:c>
+      <x:c r="FJ8" s="3" t="n">
+        <x:v>100.7</x:v>
+      </x:c>
+      <x:c r="FK8" s="3" t="n">
+        <x:v>95.2</x:v>
+      </x:c>
+      <x:c r="FL8" s="3" t="n">
+        <x:v>96.9</x:v>
+      </x:c>
+      <x:c r="FM8" s="3" t="n">
         <x:v>99.8</x:v>
       </x:c>
-      <x:c r="GS7" s="3" t="n">
-        <x:v>98.8</x:v>
-      </x:c>
-      <x:c r="GT7" s="3" t="n">
-        <x:v>99.3</x:v>
-      </x:c>
-      <x:c r="GU7" s="3" t="n">
-        <x:v>99.6</x:v>
-      </x:c>
-      <x:c r="GV7" s="3" t="n">
-        <x:v>100.7</x:v>
-      </x:c>
-      <x:c r="GW7" s="3" t="n">
-        <x:v>100.2</x:v>
-      </x:c>
-      <x:c r="GX7" s="3" t="n">
-        <x:v>98.2</x:v>
-      </x:c>
-      <x:c r="GY7" s="3" t="n">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="GZ7" s="3" t="n">
-        <x:v>101.6</x:v>
-      </x:c>
-      <x:c r="HA7" s="3" t="n">
-        <x:v>101.3</x:v>
-      </x:c>
-      <x:c r="HB7" s="3" t="n">
-        <x:v>100.9</x:v>
-      </x:c>
-      <x:c r="HC7" s="3" t="n">
-        <x:v>102.2</x:v>
-      </x:c>
-      <x:c r="HD7" s="3" t="n">
-        <x:v>102.7</x:v>
-      </x:c>
-      <x:c r="HE7" s="3" t="n">
-        <x:v>102.2</x:v>
-      </x:c>
-      <x:c r="HF7" s="3" t="n">
-        <x:v>102.1</x:v>
-      </x:c>
-      <x:c r="HG7" s="3" t="n">
-        <x:v>101.6</x:v>
-      </x:c>
-      <x:c r="HH7" s="3" t="n">
-        <x:v>101.5</x:v>
-      </x:c>
-      <x:c r="HI7" s="3" t="n">
-        <x:v>103.1</x:v>
-      </x:c>
-      <x:c r="HJ7" s="3" t="n">
-        <x:v>102.8</x:v>
-      </x:c>
-      <x:c r="HK7" s="3" t="n">
-        <x:v>102.2</x:v>
-      </x:c>
-      <x:c r="HL7" s="3" t="n">
-        <x:v>102.6</x:v>
-      </x:c>
-      <x:c r="HM7" s="3" t="n">
-        <x:v>102.6</x:v>
-      </x:c>
-      <x:c r="HN7" s="3" t="n">
-        <x:v>103.2</x:v>
-      </x:c>
-      <x:c r="HO7" s="3" t="n">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="HP7" s="3" t="n">
-        <x:v>102.3</x:v>
-      </x:c>
-      <x:c r="HQ7" s="3" t="n">
-        <x:v>102.6</x:v>
-      </x:c>
-      <x:c r="HR7" s="3" t="n">
-        <x:v>103.4</x:v>
-      </x:c>
-      <x:c r="HS7" s="3" t="n">
-        <x:v>102.8</x:v>
-      </x:c>
-      <x:c r="HT7" s="3" t="n">
-        <x:v>102.8</x:v>
-      </x:c>
-      <x:c r="HU7" s="3" t="n">
-        <x:v>103.5</x:v>
-      </x:c>
-      <x:c r="HV7" s="3" t="n">
-        <x:v>102.2</x:v>
-      </x:c>
-      <x:c r="HW7" s="3" t="n">
-        <x:v>103.7</x:v>
-      </x:c>
-      <x:c r="HX7" s="3" t="n">
-        <x:v>101.9</x:v>
-      </x:c>
-      <x:c r="HY7" s="3" t="n">
-        <x:v>103.1</x:v>
-      </x:c>
-      <x:c r="HZ7" s="3" t="n">
-        <x:v>104.6</x:v>
-      </x:c>
-      <x:c r="IA7" s="3" t="n">
-        <x:v>103.3</x:v>
-      </x:c>
-      <x:c r="IB7" s="3" t="n">
-        <x:v>102.9</x:v>
-      </x:c>
-      <x:c r="IC7" s="3" t="n">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="ID7" s="3" t="n">
-        <x:v>103.6</x:v>
-      </x:c>
-      <x:c r="IE7" s="3" t="n">
-        <x:v>103.6</x:v>
-      </x:c>
-      <x:c r="IF7" s="3" t="n">
-        <x:v>103.1</x:v>
-      </x:c>
-      <x:c r="IG7" s="3" t="n">
+      <x:c r="FN8" s="3" t="n">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="FO8" s="3" t="n">
+        <x:v>90.6</x:v>
+      </x:c>
+      <x:c r="FP8" s="3" t="n">
+        <x:v>83.6</x:v>
+      </x:c>
+      <x:c r="FQ8" s="3" t="n">
+        <x:v>93.4</x:v>
+      </x:c>
+      <x:c r="FR8" s="3" t="n">
+        <x:v>92.4</x:v>
+      </x:c>
+      <x:c r="FS8" s="3" t="n">
         <x:v>104.1</x:v>
       </x:c>
-      <x:c r="IH7" s="3" t="n">
-        <x:v>102.1</x:v>
-      </x:c>
-      <x:c r="II7" s="3" t="n">
-        <x:v>102.3</x:v>
-      </x:c>
-      <x:c r="IJ7" s="3" t="n">
-        <x:v>104.4</x:v>
-      </x:c>
-      <x:c r="IK7" s="3" t="n">
-        <x:v>104.6</x:v>
-      </x:c>
-      <x:c r="IL7" s="3" t="n">
-        <x:v>110.2</x:v>
-      </x:c>
-      <x:c r="IM7" s="3" t="n">
-        <x:v>112.9</x:v>
-      </x:c>
-      <x:c r="IN7" s="3" t="n">
-        <x:v>119</x:v>
-      </x:c>
-      <x:c r="IO7" s="3" t="n">
-        <x:v>119.7</x:v>
-      </x:c>
-      <x:c r="IP7" s="3" t="n">
-        <x:v>113.4</x:v>
-      </x:c>
-      <x:c r="IQ7" s="3" t="n">
-        <x:v>113.9</x:v>
-      </x:c>
-      <x:c r="IR7" s="3" t="n">
-        <x:v>115.8</x:v>
-      </x:c>
-      <x:c r="IS7" s="3" t="n">
-        <x:v>119.4</x:v>
-      </x:c>
-      <x:c r="IT7" s="3" t="n">
-        <x:v>112.6</x:v>
-      </x:c>
-      <x:c r="IU7" s="3" t="n">
-        <x:v>112.6</x:v>
-      </x:c>
-      <x:c r="IV7" s="3" t="n">
-        <x:v>112.3</x:v>
-      </x:c>
-      <x:c r="IW7" s="3" t="n">
-        <x:v>112.6</x:v>
-      </x:c>
-      <x:c r="IX7" s="3" t="n">
-        <x:v>112.8</x:v>
-      </x:c>
-      <x:c r="IY7" s="3" t="n">
-        <x:v>119.8</x:v>
-      </x:c>
-      <x:c r="IZ7" s="3" t="n">
-        <x:v>119.4</x:v>
-      </x:c>
-      <x:c r="JA7" s="3" t="n">
-        <x:v>114.8</x:v>
-      </x:c>
-      <x:c r="JB7" s="3" t="n">
-        <x:v>110.5</x:v>
-      </x:c>
-      <x:c r="JC7" s="3" t="n">
-        <x:v>111</x:v>
-      </x:c>
-      <x:c r="JD7" s="3" t="n">
-        <x:v>112.4</x:v>
-      </x:c>
-      <x:c r="JE7" s="3" t="n">
-        <x:v>113.2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:265">
-      <x:c r="B8" s="2" t="s">
-        <x:v>269</x:v>
-      </x:c>
-      <x:c r="C8" s="3" t="n">
-        <x:v>61.6</x:v>
-      </x:c>
-      <x:c r="D8" s="3" t="n">
-        <x:v>56.6</x:v>
-      </x:c>
-      <x:c r="E8" s="3" t="n">
-        <x:v>62.9</x:v>
-      </x:c>
-      <x:c r="F8" s="3" t="n">
-        <x:v>61.5</x:v>
-      </x:c>
-      <x:c r="G8" s="3" t="n">
-        <x:v>72.4</x:v>
-      </x:c>
-      <x:c r="H8" s="3" t="n">
-        <x:v>67.9</x:v>
-      </x:c>
-      <x:c r="I8" s="3" t="n">
-        <x:v>67.2</x:v>
-      </x:c>
-      <x:c r="J8" s="3" t="n">
-        <x:v>70.4</x:v>
-      </x:c>
-      <x:c r="K8" s="3" t="n">
-        <x:v>64.8</x:v>
-      </x:c>
-      <x:c r="L8" s="3" t="n">
-        <x:v>66.9</x:v>
-      </x:c>
-      <x:c r="M8" s="3" t="n">
-        <x:v>67.3</x:v>
-      </x:c>
-      <x:c r="N8" s="3" t="n">
-        <x:v>90.9</x:v>
-      </x:c>
-      <x:c r="O8" s="3" t="n">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="P8" s="3" t="n">
-        <x:v>56.8</x:v>
-      </x:c>
-      <x:c r="Q8" s="3" t="n">
-        <x:v>64.4</x:v>
-      </x:c>
-      <x:c r="R8" s="3" t="n">
-        <x:v>61.7</x:v>
-      </x:c>
-      <x:c r="S8" s="3" t="n">
-        <x:v>70.8</x:v>
-      </x:c>
-      <x:c r="T8" s="3" t="n">
-        <x:v>70.3</x:v>
-      </x:c>
-      <x:c r="U8" s="3" t="n">
-        <x:v>68.3</x:v>
-      </x:c>
-      <x:c r="V8" s="3" t="n">
-        <x:v>70.9</x:v>
-      </x:c>
-      <x:c r="W8" s="3" t="n">
-        <x:v>66.3</x:v>
-      </x:c>
-      <x:c r="X8" s="3" t="n">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="Y8" s="3" t="n">
-        <x:v>70.9</x:v>
-      </x:c>
-      <x:c r="Z8" s="3" t="n">
-        <x:v>93.7</x:v>
-      </x:c>
-      <x:c r="AA8" s="3" t="n">
-        <x:v>65.5</x:v>
-      </x:c>
-      <x:c r="AB8" s="3" t="n">
-        <x:v>59.6</x:v>
-      </x:c>
-      <x:c r="AC8" s="3" t="n">
-        <x:v>66.5</x:v>
-      </x:c>
-      <x:c r="AD8" s="3" t="n">
-        <x:v>65.7</x:v>
-      </x:c>
-      <x:c r="AE8" s="3" t="n">
-        <x:v>74.9</x:v>
-      </x:c>
-      <x:c r="AF8" s="3" t="n">
-        <x:v>73.5</x:v>
-      </x:c>
-      <x:c r="AG8" s="3" t="n">
-        <x:v>69.8</x:v>
-      </x:c>
-      <x:c r="AH8" s="3" t="n">
-        <x:v>73.2</x:v>
-      </x:c>
-      <x:c r="AI8" s="3" t="n">
-        <x:v>69.4</x:v>
-      </x:c>
-      <x:c r="AJ8" s="3" t="n">
-        <x:v>72.1</x:v>
-      </x:c>
-      <x:c r="AK8" s="3" t="n">
-        <x:v>73.5</x:v>
-      </x:c>
-      <x:c r="AL8" s="3" t="n">
-        <x:v>96.4</x:v>
-      </x:c>
-      <x:c r="AM8" s="3" t="n">
-        <x:v>66.8</x:v>
-      </x:c>
-      <x:c r="AN8" s="3" t="n">
-        <x:v>61.2</x:v>
-      </x:c>
-      <x:c r="AO8" s="3" t="n">
-        <x:v>68.5</x:v>
-      </x:c>
-      <x:c r="AP8" s="3" t="n">
-        <x:v>68.4</x:v>
-      </x:c>
-      <x:c r="AQ8" s="3" t="n">
-        <x:v>75.8</x:v>
-      </x:c>
-      <x:c r="AR8" s="3" t="n">
-        <x:v>77.2</x:v>
-      </x:c>
-      <x:c r="AS8" s="3" t="n">
-        <x:v>74.3</x:v>
-      </x:c>
-      <x:c r="AT8" s="3" t="n">
-        <x:v>76.7</x:v>
-      </x:c>
-      <x:c r="AU8" s="3" t="n">
-        <x:v>72.1</x:v>
-      </x:c>
-      <x:c r="AV8" s="3" t="n">
-        <x:v>74.9</x:v>
-      </x:c>
-      <x:c r="AW8" s="3" t="n">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="AX8" s="3" t="n">
-        <x:v>100.2</x:v>
-      </x:c>
-      <x:c r="AY8" s="3" t="n">
-        <x:v>69.7</x:v>
-      </x:c>
-      <x:c r="AZ8" s="3" t="n">
-        <x:v>62.8</x:v>
-      </x:c>
-      <x:c r="BA8" s="3" t="n">
-        <x:v>71.8</x:v>
-      </x:c>
-      <x:c r="BB8" s="3" t="n">
-        <x:v>70.1</x:v>
-      </x:c>
-      <x:c r="BC8" s="3" t="n">
-        <x:v>77.5</x:v>
-      </x:c>
-      <x:c r="BD8" s="3" t="n">
-        <x:v>80.3</x:v>
-      </x:c>
-      <x:c r="BE8" s="3" t="n">
-        <x:v>75.2</x:v>
-      </x:c>
-      <x:c r="BF8" s="3" t="n">
-        <x:v>79.6</x:v>
-      </x:c>
-      <x:c r="BG8" s="3" t="n">
-        <x:v>74.5</x:v>
-      </x:c>
-      <x:c r="BH8" s="3" t="n">
-        <x:v>76.4</x:v>
-      </x:c>
-      <x:c r="BI8" s="3" t="n">
-        <x:v>77.1</x:v>
-      </x:c>
-      <x:c r="BJ8" s="3" t="n">
-        <x:v>102.3</x:v>
-      </x:c>
-      <x:c r="BK8" s="3" t="n">
-        <x:v>71.9</x:v>
-      </x:c>
-      <x:c r="BL8" s="3" t="n">
-        <x:v>65.5</x:v>
-      </x:c>
-      <x:c r="BM8" s="3" t="n">
-        <x:v>72.2</x:v>
-      </x:c>
-      <x:c r="BN8" s="3" t="n">
-        <x:v>72.1</x:v>
-      </x:c>
-      <x:c r="BO8" s="3" t="n">
-        <x:v>79.1</x:v>
-      </x:c>
-      <x:c r="BP8" s="3" t="n">
-        <x:v>82.3</x:v>
-      </x:c>
-      <x:c r="BQ8" s="3" t="n">
-        <x:v>79.7</x:v>
-      </x:c>
-      <x:c r="BR8" s="3" t="n">
-        <x:v>82.4</x:v>
-      </x:c>
-      <x:c r="BS8" s="3" t="n">
-        <x:v>76.6</x:v>
-      </x:c>
-      <x:c r="BT8" s="3" t="n">
-        <x:v>78.7</x:v>
-      </x:c>
-      <x:c r="BU8" s="3" t="n">
-        <x:v>80.1</x:v>
-      </x:c>
-      <x:c r="BV8" s="3" t="n">
-        <x:v>104.4</x:v>
-      </x:c>
-      <x:c r="BW8" s="3" t="n">
-        <x:v>74.2</x:v>
-      </x:c>
-      <x:c r="BX8" s="3" t="n">
-        <x:v>67.3</x:v>
-      </x:c>
-      <x:c r="BY8" s="3" t="n">
-        <x:v>75.9</x:v>
-      </x:c>
-      <x:c r="BZ8" s="3" t="n">
-        <x:v>74.1</x:v>
-      </x:c>
-      <x:c r="CA8" s="3" t="n">
-        <x:v>85.5</x:v>
-      </x:c>
-      <x:c r="CB8" s="3" t="n">
-        <x:v>87.3</x:v>
-      </x:c>
-      <x:c r="CC8" s="3" t="n">
-        <x:v>83.7</x:v>
-      </x:c>
-      <x:c r="CD8" s="3" t="n">
-        <x:v>86.9</x:v>
-      </x:c>
-      <x:c r="CE8" s="3" t="n">
-        <x:v>81.4</x:v>
-      </x:c>
-      <x:c r="CF8" s="3" t="n">
-        <x:v>84.4</x:v>
-      </x:c>
-      <x:c r="CG8" s="3" t="n">
-        <x:v>85.8</x:v>
-      </x:c>
-      <x:c r="CH8" s="3" t="n">
-        <x:v>111.7</x:v>
-      </x:c>
-      <x:c r="CI8" s="3" t="n">
-        <x:v>79.2</x:v>
-      </x:c>
-      <x:c r="CJ8" s="3" t="n">
-        <x:v>72.2</x:v>
-      </x:c>
-      <x:c r="CK8" s="3" t="n">
-        <x:v>81.1</x:v>
-      </x:c>
-      <x:c r="CL8" s="3" t="n">
-        <x:v>81.4</x:v>
-      </x:c>
-      <x:c r="CM8" s="3" t="n">
-        <x:v>90.4</x:v>
-      </x:c>
-      <x:c r="CN8" s="3" t="n">
-        <x:v>94.3</x:v>
-      </x:c>
-      <x:c r="CO8" s="3" t="n">
-        <x:v>89.3</x:v>
-      </x:c>
-      <x:c r="CP8" s="3" t="n">
-        <x:v>91.6</x:v>
-      </x:c>
-      <x:c r="CQ8" s="3" t="n">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="CR8" s="3" t="n">
-        <x:v>88.6</x:v>
-      </x:c>
-      <x:c r="CS8" s="3" t="n">
-        <x:v>91.4</x:v>
-      </x:c>
-      <x:c r="CT8" s="3" t="n">
-        <x:v>116.5</x:v>
-      </x:c>
-      <x:c r="CU8" s="3" t="n">
-        <x:v>82.6</x:v>
-      </x:c>
-      <x:c r="CV8" s="3" t="n">
-        <x:v>75.6</x:v>
-      </x:c>
-      <x:c r="CW8" s="3" t="n">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="CX8" s="3" t="n">
-        <x:v>82.8</x:v>
-      </x:c>
-      <x:c r="CY8" s="3" t="n">
-        <x:v>95.3</x:v>
-      </x:c>
-      <x:c r="CZ8" s="3" t="n">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="DA8" s="3" t="n">
-        <x:v>90.7</x:v>
-      </x:c>
-      <x:c r="DB8" s="3" t="n">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="DC8" s="3" t="n">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="DD8" s="3" t="n">
-        <x:v>87.9</x:v>
-      </x:c>
-      <x:c r="DE8" s="3" t="n">
-        <x:v>90.1</x:v>
-      </x:c>
-      <x:c r="DF8" s="3" t="n">
-        <x:v>115</x:v>
-      </x:c>
-      <x:c r="DG8" s="3" t="n">
-        <x:v>81.8</x:v>
-      </x:c>
-      <x:c r="DH8" s="3" t="n">
-        <x:v>73.7</x:v>
-      </x:c>
-      <x:c r="DI8" s="3" t="n">
-        <x:v>82.6</x:v>
-      </x:c>
-      <x:c r="DJ8" s="3" t="n">
-        <x:v>81.7</x:v>
-      </x:c>
-      <x:c r="DK8" s="3" t="n">
-        <x:v>92.4</x:v>
-      </x:c>
-      <x:c r="DL8" s="3" t="n">
-        <x:v>94.4</x:v>
-      </x:c>
-      <x:c r="DM8" s="3" t="n">
-        <x:v>92.1</x:v>
-      </x:c>
-      <x:c r="DN8" s="3" t="n">
-        <x:v>94.5</x:v>
-      </x:c>
-      <x:c r="DO8" s="3" t="n">
-        <x:v>87.6</x:v>
-      </x:c>
-      <x:c r="DP8" s="3" t="n">
-        <x:v>91.5</x:v>
-      </x:c>
-      <x:c r="DQ8" s="3" t="n">
-        <x:v>92.1</x:v>
-      </x:c>
-      <x:c r="DR8" s="3" t="n">
-        <x:v>118.4</x:v>
-      </x:c>
-      <x:c r="DS8" s="3" t="n">
-        <x:v>84.7</x:v>
-      </x:c>
-      <x:c r="DT8" s="3" t="n">
-        <x:v>76.1</x:v>
-      </x:c>
-      <x:c r="DU8" s="3" t="n">
-        <x:v>84.7</x:v>
-      </x:c>
-      <x:c r="DV8" s="3" t="n">
-        <x:v>82.1</x:v>
-      </x:c>
-      <x:c r="DW8" s="3" t="n">
-        <x:v>93.9</x:v>
-      </x:c>
-      <x:c r="DX8" s="3" t="n">
-        <x:v>95.6</x:v>
-      </x:c>
-      <x:c r="DY8" s="3" t="n">
-        <x:v>93.4</x:v>
-      </x:c>
-      <x:c r="DZ8" s="3" t="n">
-        <x:v>94.9</x:v>
-      </x:c>
-      <x:c r="EA8" s="3" t="n">
-        <x:v>89.9</x:v>
-      </x:c>
-      <x:c r="EB8" s="3" t="n">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="EC8" s="3" t="n">
-        <x:v>96.4</x:v>
-      </x:c>
-      <x:c r="ED8" s="3" t="n">
-        <x:v>119.7</x:v>
-      </x:c>
-      <x:c r="EE8" s="3" t="n">
-        <x:v>85.5</x:v>
-      </x:c>
-      <x:c r="EF8" s="3" t="n">
-        <x:v>77.8</x:v>
-      </x:c>
-      <x:c r="EG8" s="3" t="n">
-        <x:v>85.4</x:v>
-      </x:c>
-      <x:c r="EH8" s="3" t="n">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="EI8" s="3" t="n">
-        <x:v>96.7</x:v>
-      </x:c>
-      <x:c r="EJ8" s="3" t="n">
-        <x:v>97.6</x:v>
-      </x:c>
-      <x:c r="EK8" s="3" t="n">
-        <x:v>94.7</x:v>
-      </x:c>
-      <x:c r="EL8" s="3" t="n">
-        <x:v>98.4</x:v>
-      </x:c>
-      <x:c r="EM8" s="3" t="n">
-        <x:v>91.9</x:v>
-      </x:c>
-      <x:c r="EN8" s="3" t="n">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="EO8" s="3" t="n">
-        <x:v>97.1</x:v>
-      </x:c>
-      <x:c r="EP8" s="3" t="n">
-        <x:v>122.2</x:v>
-      </x:c>
-      <x:c r="EQ8" s="3" t="n">
-        <x:v>88.2</x:v>
-      </x:c>
-      <x:c r="ER8" s="3" t="n">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="ES8" s="3" t="n">
-        <x:v>89.5</x:v>
-      </x:c>
-      <x:c r="ET8" s="3" t="n">
-        <x:v>87.8</x:v>
-      </x:c>
-      <x:c r="EU8" s="3" t="n">
-        <x:v>101.6</x:v>
-      </x:c>
-      <x:c r="EV8" s="3" t="n">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="EW8" s="3" t="n">
-        <x:v>98.3</x:v>
-      </x:c>
-      <x:c r="EX8" s="3" t="n">
-        <x:v>100.1</x:v>
-      </x:c>
-      <x:c r="EY8" s="3" t="n">
-        <x:v>94.6</x:v>
-      </x:c>
-      <x:c r="EZ8" s="3" t="n">
-        <x:v>95.8</x:v>
-      </x:c>
-      <x:c r="FA8" s="3" t="n">
-        <x:v>98.9</x:v>
-      </x:c>
-      <x:c r="FB8" s="3" t="n">
-        <x:v>124.8</x:v>
-      </x:c>
-      <x:c r="FC8" s="3" t="n">
-        <x:v>90.8</x:v>
-      </x:c>
-      <x:c r="FD8" s="3" t="n">
-        <x:v>82.5</x:v>
-      </x:c>
-      <x:c r="FE8" s="3" t="n">
-        <x:v>90.8</x:v>
-      </x:c>
-      <x:c r="FF8" s="3" t="n">
-        <x:v>88.3</x:v>
-      </x:c>
-      <x:c r="FG8" s="3" t="n">
-        <x:v>103.8</x:v>
-      </x:c>
-      <x:c r="FH8" s="3" t="n">
-        <x:v>104.4</x:v>
-      </x:c>
-      <x:c r="FI8" s="3" t="n">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="FJ8" s="3" t="n">
-        <x:v>101.2</x:v>
-      </x:c>
-      <x:c r="FK8" s="3" t="n">
-        <x:v>95.5</x:v>
-      </x:c>
-      <x:c r="FL8" s="3" t="n">
-        <x:v>97.3</x:v>
-      </x:c>
-      <x:c r="FM8" s="3" t="n">
-        <x:v>100.1</x:v>
-      </x:c>
-      <x:c r="FN8" s="3" t="n">
-        <x:v>126.2</x:v>
-      </x:c>
-      <x:c r="FO8" s="3" t="n">
-        <x:v>90.7</x:v>
-      </x:c>
-      <x:c r="FP8" s="3" t="n">
-        <x:v>83.7</x:v>
-      </x:c>
-      <x:c r="FQ8" s="3" t="n">
-        <x:v>93.3</x:v>
-      </x:c>
-      <x:c r="FR8" s="3" t="n">
-        <x:v>92.5</x:v>
-      </x:c>
-      <x:c r="FS8" s="3" t="n">
-        <x:v>104.4</x:v>
-      </x:c>
       <x:c r="FT8" s="3" t="n">
-        <x:v>106.7</x:v>
+        <x:v>106.4</x:v>
       </x:c>
       <x:c r="FU8" s="3" t="n">
-        <x:v>100.1</x:v>
+        <x:v>99.9</x:v>
       </x:c>
       <x:c r="FV8" s="3" t="n">
-        <x:v>103.3</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="FW8" s="3" t="n">
         <x:v>96.7</x:v>
@@ -5877,19 +5930,19 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="FY8" s="3" t="n">
-        <x:v>102.5</x:v>
+        <x:v>102.6</x:v>
       </x:c>
       <x:c r="FZ8" s="3" t="n">
-        <x:v>128.4</x:v>
+        <x:v>127.6</x:v>
       </x:c>
       <x:c r="GA8" s="3" t="n">
         <x:v>91.6</x:v>
       </x:c>
       <x:c r="GB8" s="3" t="n">
-        <x:v>84.5</x:v>
+        <x:v>84.8</x:v>
       </x:c>
       <x:c r="GC8" s="3" t="n">
-        <x:v>93.6</x:v>
+        <x:v>93.9</x:v>
       </x:c>
       <x:c r="GD8" s="3" t="n">
         <x:v>95.3</x:v>
@@ -5898,795 +5951,804 @@
         <x:v>103.4</x:v>
       </x:c>
       <x:c r="GF8" s="3" t="n">
-        <x:v>106.5</x:v>
+        <x:v>106.3</x:v>
       </x:c>
       <x:c r="GG8" s="3" t="n">
-        <x:v>101.9</x:v>
+        <x:v>101.6</x:v>
       </x:c>
       <x:c r="GH8" s="3" t="n">
-        <x:v>103.5</x:v>
+        <x:v>103.4</x:v>
       </x:c>
       <x:c r="GI8" s="3" t="n">
-        <x:v>96.1</x:v>
+        <x:v>96.3</x:v>
       </x:c>
       <x:c r="GJ8" s="3" t="n">
-        <x:v>99.6</x:v>
+        <x:v>99.7</x:v>
       </x:c>
       <x:c r="GK8" s="3" t="n">
-        <x:v>103.3</x:v>
+        <x:v>103.6</x:v>
       </x:c>
       <x:c r="GL8" s="3" t="n">
-        <x:v>127.3</x:v>
+        <x:v>126.7</x:v>
       </x:c>
       <x:c r="GM8" s="3" t="n">
-        <x:v>91.8</x:v>
+        <x:v>92.1</x:v>
       </x:c>
       <x:c r="GN8" s="3" t="n">
-        <x:v>83.4</x:v>
+        <x:v>83.7</x:v>
       </x:c>
       <x:c r="GO8" s="3" t="n">
-        <x:v>92.7</x:v>
+        <x:v>93.1</x:v>
       </x:c>
       <x:c r="GP8" s="3" t="n">
-        <x:v>90.9</x:v>
+        <x:v>91.1</x:v>
       </x:c>
       <x:c r="GQ8" s="3" t="n">
-        <x:v>105.1</x:v>
+        <x:v>105.3</x:v>
       </x:c>
       <x:c r="GR8" s="3" t="n">
         <x:v>106.2</x:v>
       </x:c>
       <x:c r="GS8" s="3" t="n">
+        <x:v>99.8</x:v>
+      </x:c>
+      <x:c r="GT8" s="3" t="n">
+        <x:v>102.3</x:v>
+      </x:c>
+      <x:c r="GU8" s="3" t="n">
+        <x:v>95.9</x:v>
+      </x:c>
+      <x:c r="GV8" s="3" t="n">
+        <x:v>99.6</x:v>
+      </x:c>
+      <x:c r="GW8" s="3" t="n">
+        <x:v>104.2</x:v>
+      </x:c>
+      <x:c r="GX8" s="3" t="n">
+        <x:v>123.8</x:v>
+      </x:c>
+      <x:c r="GY8" s="3" t="n">
+        <x:v>91.3</x:v>
+      </x:c>
+      <x:c r="GZ8" s="3" t="n">
+        <x:v>85.5</x:v>
+      </x:c>
+      <x:c r="HA8" s="3" t="n">
+        <x:v>95.3</x:v>
+      </x:c>
+      <x:c r="HB8" s="3" t="n">
+        <x:v>93.4</x:v>
+      </x:c>
+      <x:c r="HC8" s="3" t="n">
+        <x:v>108.4</x:v>
+      </x:c>
+      <x:c r="HD8" s="3" t="n">
+        <x:v>109.5</x:v>
+      </x:c>
+      <x:c r="HE8" s="3" t="n">
+        <x:v>103.4</x:v>
+      </x:c>
+      <x:c r="HF8" s="3" t="n">
+        <x:v>105.7</x:v>
+      </x:c>
+      <x:c r="HG8" s="3" t="n">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="HH8" s="3" t="n">
+        <x:v>100.5</x:v>
+      </x:c>
+      <x:c r="HI8" s="3" t="n">
+        <x:v>108.7</x:v>
+      </x:c>
+      <x:c r="HJ8" s="3" t="n">
+        <x:v>129.5</x:v>
+      </x:c>
+      <x:c r="HK8" s="3" t="n">
+        <x:v>93.8</x:v>
+      </x:c>
+      <x:c r="HL8" s="3" t="n">
+        <x:v>86.5</x:v>
+      </x:c>
+      <x:c r="HM8" s="3" t="n">
+        <x:v>96.6</x:v>
+      </x:c>
+      <x:c r="HN8" s="3" t="n">
+        <x:v>96.2</x:v>
+      </x:c>
+      <x:c r="HO8" s="3" t="n">
+        <x:v>113.2</x:v>
+      </x:c>
+      <x:c r="HP8" s="3" t="n">
+        <x:v>109.5</x:v>
+      </x:c>
+      <x:c r="HQ8" s="3" t="n">
+        <x:v>104.3</x:v>
+      </x:c>
+      <x:c r="HR8" s="3" t="n">
+        <x:v>107.7</x:v>
+      </x:c>
+      <x:c r="HS8" s="3" t="n">
+        <x:v>99.6</x:v>
+      </x:c>
+      <x:c r="HT8" s="3" t="n">
+        <x:v>101.8</x:v>
+      </x:c>
+      <x:c r="HU8" s="3" t="n">
+        <x:v>110.3</x:v>
+      </x:c>
+      <x:c r="HV8" s="3" t="n">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="HW8" s="3" t="n">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="HX8" s="3" t="n">
+        <x:v>86.1</x:v>
+      </x:c>
+      <x:c r="HY8" s="3" t="n">
+        <x:v>97.2</x:v>
+      </x:c>
+      <x:c r="HZ8" s="3" t="n">
+        <x:v>97.8</x:v>
+      </x:c>
+      <x:c r="IA8" s="3" t="n">
+        <x:v>110.5</x:v>
+      </x:c>
+      <x:c r="IB8" s="3" t="n">
+        <x:v>110.4</x:v>
+      </x:c>
+      <x:c r="IC8" s="3" t="n">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="ID8" s="3" t="n">
+        <x:v>108.3</x:v>
+      </x:c>
+      <x:c r="IE8" s="3" t="n">
+        <x:v>100.6</x:v>
+      </x:c>
+      <x:c r="IF8" s="3" t="n">
+        <x:v>101.9</x:v>
+      </x:c>
+      <x:c r="IG8" s="3" t="n">
+        <x:v>111.2</x:v>
+      </x:c>
+      <x:c r="IH8" s="3" t="n">
+        <x:v>128.1</x:v>
+      </x:c>
+      <x:c r="II8" s="3" t="n">
+        <x:v>93.9</x:v>
+      </x:c>
+      <x:c r="IJ8" s="3" t="n">
+        <x:v>88.2</x:v>
+      </x:c>
+      <x:c r="IK8" s="3" t="n">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="IL8" s="3" t="n">
+        <x:v>105.3</x:v>
+      </x:c>
+      <x:c r="IM8" s="3" t="n">
+        <x:v>122.2</x:v>
+      </x:c>
+      <x:c r="IN8" s="3" t="n">
+        <x:v>127.9</x:v>
+      </x:c>
+      <x:c r="IO8" s="3" t="n">
+        <x:v>122.3</x:v>
+      </x:c>
+      <x:c r="IP8" s="3" t="n">
+        <x:v>118.9</x:v>
+      </x:c>
+      <x:c r="IQ8" s="3" t="n">
+        <x:v>110.9</x:v>
+      </x:c>
+      <x:c r="IR8" s="3" t="n">
+        <x:v>114.9</x:v>
+      </x:c>
+      <x:c r="IS8" s="3" t="n">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="IT8" s="3" t="n">
+        <x:v>141.1</x:v>
+      </x:c>
+      <x:c r="IU8" s="3" t="n">
+        <x:v>104.9</x:v>
+      </x:c>
+      <x:c r="IV8" s="3" t="n">
+        <x:v>96.4</x:v>
+      </x:c>
+      <x:c r="IW8" s="3" t="n">
+        <x:v>109.2</x:v>
+      </x:c>
+      <x:c r="IX8" s="3" t="n">
+        <x:v>108.7</x:v>
+      </x:c>
+      <x:c r="IY8" s="3" t="n">
+        <x:v>130.2</x:v>
+      </x:c>
+      <x:c r="IZ8" s="3" t="n">
+        <x:v>129.3</x:v>
+      </x:c>
+      <x:c r="JA8" s="3" t="n">
+        <x:v>117.3</x:v>
+      </x:c>
+      <x:c r="JB8" s="3" t="n">
+        <x:v>116.1</x:v>
+      </x:c>
+      <x:c r="JC8" s="3" t="n">
+        <x:v>108.6</x:v>
+      </x:c>
+      <x:c r="JD8" s="3" t="n">
+        <x:v>111.8</x:v>
+      </x:c>
+      <x:c r="JE8" s="3" t="n">
+        <x:v>124.4</x:v>
+      </x:c>
+      <x:c r="JF8" s="3" t="n">
+        <x:v>138.3</x:v>
+      </x:c>
+      <x:c r="JG8" s="3" t="n">
+        <x:v>103.1</x:v>
+      </x:c>
+      <x:c r="JH8" s="3" t="n">
+        <x:v>93.3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:268">
+      <x:c r="B9" s="2" t="s">
+        <x:v>273</x:v>
+      </x:c>
+      <x:c r="C9" s="4" t="s">
+        <x:v>274</x:v>
+      </x:c>
+      <x:c r="D9" s="4" t="s">
+        <x:v>274</x:v>
+      </x:c>
+      <x:c r="E9" s="3" t="n">
+        <x:v>66.4</x:v>
+      </x:c>
+      <x:c r="F9" s="3" t="n">
+        <x:v>66.4</x:v>
+      </x:c>
+      <x:c r="G9" s="3" t="n">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="H9" s="3" t="n">
+        <x:v>66.7</x:v>
+      </x:c>
+      <x:c r="I9" s="3" t="n">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="J9" s="3" t="n">
+        <x:v>66.6</x:v>
+      </x:c>
+      <x:c r="K9" s="3" t="n">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="L9" s="3" t="n">
+        <x:v>66.9</x:v>
+      </x:c>
+      <x:c r="M9" s="3" t="n">
+        <x:v>66.4</x:v>
+      </x:c>
+      <x:c r="N9" s="3" t="n">
+        <x:v>66.8</x:v>
+      </x:c>
+      <x:c r="O9" s="3" t="n">
+        <x:v>66.9</x:v>
+      </x:c>
+      <x:c r="P9" s="3" t="n">
+        <x:v>67.2</x:v>
+      </x:c>
+      <x:c r="Q9" s="3" t="n">
+        <x:v>67.2</x:v>
+      </x:c>
+      <x:c r="R9" s="3" t="n">
+        <x:v>67.1</x:v>
+      </x:c>
+      <x:c r="S9" s="3" t="n">
+        <x:v>67.2</x:v>
+      </x:c>
+      <x:c r="T9" s="3" t="n">
+        <x:v>67.1</x:v>
+      </x:c>
+      <x:c r="U9" s="3" t="n">
+        <x:v>67.6</x:v>
+      </x:c>
+      <x:c r="V9" s="3" t="n">
+        <x:v>67.9</x:v>
+      </x:c>
+      <x:c r="W9" s="3" t="n">
+        <x:v>68.1</x:v>
+      </x:c>
+      <x:c r="X9" s="3" t="n">
+        <x:v>68.3</x:v>
+      </x:c>
+      <x:c r="Y9" s="3" t="n">
+        <x:v>68.7</x:v>
+      </x:c>
+      <x:c r="Z9" s="3" t="n">
+        <x:v>69.2</x:v>
+      </x:c>
+      <x:c r="AA9" s="3" t="n">
+        <x:v>69.8</x:v>
+      </x:c>
+      <x:c r="AB9" s="3" t="n">
+        <x:v>70.1</x:v>
+      </x:c>
+      <x:c r="AC9" s="3" t="n">
+        <x:v>70.2</x:v>
+      </x:c>
+      <x:c r="AD9" s="3" t="n">
+        <x:v>70.3</x:v>
+      </x:c>
+      <x:c r="AE9" s="3" t="n">
+        <x:v>70.6</x:v>
+      </x:c>
+      <x:c r="AF9" s="3" t="n">
+        <x:v>70.6</x:v>
+      </x:c>
+      <x:c r="AG9" s="3" t="n">
+        <x:v>70.2</x:v>
+      </x:c>
+      <x:c r="AH9" s="3" t="n">
+        <x:v>69.9</x:v>
+      </x:c>
+      <x:c r="AI9" s="3" t="n">
+        <x:v>70.2</x:v>
+      </x:c>
+      <x:c r="AJ9" s="3" t="n">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="AK9" s="3" t="n">
+        <x:v>71.5</x:v>
+      </x:c>
+      <x:c r="AL9" s="3" t="n">
+        <x:v>71.7</x:v>
+      </x:c>
+      <x:c r="AM9" s="3" t="n">
+        <x:v>71.8</x:v>
+      </x:c>
+      <x:c r="AN9" s="3" t="n">
+        <x:v>71.9</x:v>
+      </x:c>
+      <x:c r="AO9" s="3" t="n">
+        <x:v>72.1</x:v>
+      </x:c>
+      <x:c r="AP9" s="3" t="n">
+        <x:v>72.6</x:v>
+      </x:c>
+      <x:c r="AQ9" s="3" t="n">
+        <x:v>72.6</x:v>
+      </x:c>
+      <x:c r="AR9" s="3" t="n">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="AS9" s="3" t="n">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="AT9" s="3" t="n">
+        <x:v>73.5</x:v>
+      </x:c>
+      <x:c r="AU9" s="3" t="n">
+        <x:v>73.7</x:v>
+      </x:c>
+      <x:c r="AV9" s="3" t="n">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AW9" s="3" t="n">
+        <x:v>74.3</x:v>
+      </x:c>
+      <x:c r="AX9" s="3" t="n">
+        <x:v>74.5</x:v>
+      </x:c>
+      <x:c r="AY9" s="3" t="n">
+        <x:v>74.5</x:v>
+      </x:c>
+      <x:c r="AZ9" s="3" t="n">
+        <x:v>74.4</x:v>
+      </x:c>
+      <x:c r="BA9" s="3" t="n">
+        <x:v>74.9</x:v>
+      </x:c>
+      <x:c r="BB9" s="3" t="n">
+        <x:v>75.1</x:v>
+      </x:c>
+      <x:c r="BC9" s="3" t="n">
+        <x:v>75.1</x:v>
+      </x:c>
+      <x:c r="BD9" s="3" t="n">
+        <x:v>75.1</x:v>
+      </x:c>
+      <x:c r="BE9" s="3" t="n">
+        <x:v>74.9</x:v>
+      </x:c>
+      <x:c r="BF9" s="3" t="n">
+        <x:v>75.6</x:v>
+      </x:c>
+      <x:c r="BG9" s="3" t="n">
+        <x:v>75.6</x:v>
+      </x:c>
+      <x:c r="BH9" s="3" t="n">
+        <x:v>76.1</x:v>
+      </x:c>
+      <x:c r="BI9" s="3" t="n">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="BJ9" s="3" t="n">
+        <x:v>76.1</x:v>
+      </x:c>
+      <x:c r="BK9" s="3" t="n">
+        <x:v>76.5</x:v>
+      </x:c>
+      <x:c r="BL9" s="3" t="n">
+        <x:v>77.2</x:v>
+      </x:c>
+      <x:c r="BM9" s="3" t="n">
+        <x:v>77.2</x:v>
+      </x:c>
+      <x:c r="BN9" s="3" t="n">
+        <x:v>77.3</x:v>
+      </x:c>
+      <x:c r="BO9" s="3" t="n">
+        <x:v>76.8</x:v>
+      </x:c>
+      <x:c r="BP9" s="3" t="n">
+        <x:v>77.2</x:v>
+      </x:c>
+      <x:c r="BQ9" s="3" t="n">
+        <x:v>77.6</x:v>
+      </x:c>
+      <x:c r="BR9" s="3" t="n">
+        <x:v>78.4</x:v>
+      </x:c>
+      <x:c r="BS9" s="3" t="n">
+        <x:v>78.6</x:v>
+      </x:c>
+      <x:c r="BT9" s="3" t="n">
+        <x:v>78.4</x:v>
+      </x:c>
+      <x:c r="BU9" s="3" t="n">
+        <x:v>78.4</x:v>
+      </x:c>
+      <x:c r="BV9" s="3" t="n">
+        <x:v>78.5</x:v>
+      </x:c>
+      <x:c r="BW9" s="3" t="n">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="BX9" s="3" t="n">
+        <x:v>79.5</x:v>
+      </x:c>
+      <x:c r="BY9" s="3" t="n">
+        <x:v>80.2</x:v>
+      </x:c>
+      <x:c r="BZ9" s="3" t="n">
+        <x:v>80.3</x:v>
+      </x:c>
+      <x:c r="CA9" s="3" t="n">
+        <x:v>81.1</x:v>
+      </x:c>
+      <x:c r="CB9" s="3" t="n">
+        <x:v>81.6</x:v>
+      </x:c>
+      <x:c r="CC9" s="3" t="n">
+        <x:v>82.5</x:v>
+      </x:c>
+      <x:c r="CD9" s="3" t="n">
+        <x:v>82.7</x:v>
+      </x:c>
+      <x:c r="CE9" s="3" t="n">
+        <x:v>82.9</x:v>
+      </x:c>
+      <x:c r="CF9" s="3" t="n">
+        <x:v>83.4</x:v>
+      </x:c>
+      <x:c r="CG9" s="3" t="n">
+        <x:v>83.8</x:v>
+      </x:c>
+      <x:c r="CH9" s="3" t="n">
+        <x:v>84.2</x:v>
+      </x:c>
+      <x:c r="CI9" s="3" t="n">
+        <x:v>84.6</x:v>
+      </x:c>
+      <x:c r="CJ9" s="3" t="n">
+        <x:v>85.2</x:v>
+      </x:c>
+      <x:c r="CK9" s="3" t="n">
+        <x:v>85.9</x:v>
+      </x:c>
+      <x:c r="CL9" s="3" t="n">
+        <x:v>86.8</x:v>
+      </x:c>
+      <x:c r="CM9" s="3" t="n">
+        <x:v>87.1</x:v>
+      </x:c>
+      <x:c r="CN9" s="3" t="n">
+        <x:v>87.8</x:v>
+      </x:c>
+      <x:c r="CO9" s="3" t="n">
+        <x:v>87.8</x:v>
+      </x:c>
+      <x:c r="CP9" s="3" t="n">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="CQ9" s="3" t="n">
+        <x:v>88.1</x:v>
+      </x:c>
+      <x:c r="CR9" s="3" t="n">
+        <x:v>88.2</x:v>
+      </x:c>
+      <x:c r="CS9" s="3" t="n">
+        <x:v>88.9</x:v>
+      </x:c>
+      <x:c r="CT9" s="3" t="n">
+        <x:v>88.7</x:v>
+      </x:c>
+      <x:c r="CU9" s="3" t="n">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="CV9" s="3" t="n">
+        <x:v>89.2</x:v>
+      </x:c>
+      <x:c r="CW9" s="3" t="n">
+        <x:v>89.7</x:v>
+      </x:c>
+      <x:c r="CX9" s="3" t="n">
+        <x:v>89.9</x:v>
+      </x:c>
+      <x:c r="CY9" s="3" t="n">
+        <x:v>90.4</x:v>
+      </x:c>
+      <x:c r="CZ9" s="3" t="n">
+        <x:v>90.4</x:v>
+      </x:c>
+      <x:c r="DA9" s="3" t="n">
+        <x:v>90.1</x:v>
+      </x:c>
+      <x:c r="DB9" s="3" t="n">
+        <x:v>89.2</x:v>
+      </x:c>
+      <x:c r="DC9" s="3" t="n">
+        <x:v>88.8</x:v>
+      </x:c>
+      <x:c r="DD9" s="3" t="n">
+        <x:v>88.4</x:v>
+      </x:c>
+      <x:c r="DE9" s="3" t="n">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="DF9" s="3" t="n">
+        <x:v>87.7</x:v>
+      </x:c>
+      <x:c r="DG9" s="3" t="n">
+        <x:v>87.8</x:v>
+      </x:c>
+      <x:c r="DH9" s="3" t="n">
+        <x:v>87.8</x:v>
+      </x:c>
+      <x:c r="DI9" s="3" t="n">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="DJ9" s="3" t="n">
+        <x:v>88.2</x:v>
+      </x:c>
+      <x:c r="DK9" s="3" t="n">
+        <x:v>88.5</x:v>
+      </x:c>
+      <x:c r="DL9" s="3" t="n">
+        <x:v>88.9</x:v>
+      </x:c>
+      <x:c r="DM9" s="3" t="n">
+        <x:v>89.4</x:v>
+      </x:c>
+      <x:c r="DN9" s="3" t="n">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="DO9" s="3" t="n">
+        <x:v>90.2</x:v>
+      </x:c>
+      <x:c r="DP9" s="3" t="n">
+        <x:v>90.4</x:v>
+      </x:c>
+      <x:c r="DQ9" s="3" t="n">
+        <x:v>90.1</x:v>
+      </x:c>
+      <x:c r="DR9" s="3" t="n">
+        <x:v>90.5</x:v>
+      </x:c>
+      <x:c r="DS9" s="3" t="n">
+        <x:v>90.5</x:v>
+      </x:c>
+      <x:c r="DT9" s="3" t="n">
+        <x:v>90.7</x:v>
+      </x:c>
+      <x:c r="DU9" s="3" t="n">
+        <x:v>90.7</x:v>
+      </x:c>
+      <x:c r="DV9" s="3" t="n">
+        <x:v>90.1</x:v>
+      </x:c>
+      <x:c r="DW9" s="3" t="n">
+        <x:v>89.9</x:v>
+      </x:c>
+      <x:c r="DX9" s="3" t="n">
+        <x:v>89.9</x:v>
+      </x:c>
+      <x:c r="DY9" s="3" t="n">
+        <x:v>90.6</x:v>
+      </x:c>
+      <x:c r="DZ9" s="3" t="n">
+        <x:v>90.9</x:v>
+      </x:c>
+      <x:c r="EA9" s="3" t="n">
+        <x:v>91.5</x:v>
+      </x:c>
+      <x:c r="EB9" s="3" t="n">
+        <x:v>91.8</x:v>
+      </x:c>
+      <x:c r="EC9" s="3" t="n">
+        <x:v>92.8</x:v>
+      </x:c>
+      <x:c r="ED9" s="3" t="n">
+        <x:v>92.7</x:v>
+      </x:c>
+      <x:c r="EE9" s="3" t="n">
+        <x:v>92.5</x:v>
+      </x:c>
+      <x:c r="EF9" s="3" t="n">
+        <x:v>92.1</x:v>
+      </x:c>
+      <x:c r="EG9" s="3" t="n">
+        <x:v>91.9</x:v>
+      </x:c>
+      <x:c r="EH9" s="3" t="n">
+        <x:v>92.1</x:v>
+      </x:c>
+      <x:c r="EI9" s="3" t="n">
+        <x:v>92.1</x:v>
+      </x:c>
+      <x:c r="EJ9" s="3" t="n">
+        <x:v>92.3</x:v>
+      </x:c>
+      <x:c r="EK9" s="3" t="n">
+        <x:v>92.4</x:v>
+      </x:c>
+      <x:c r="EL9" s="3" t="n">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="EM9" s="3" t="n">
+        <x:v>93.6</x:v>
+      </x:c>
+      <x:c r="EN9" s="3" t="n">
+        <x:v>94.3</x:v>
+      </x:c>
+      <x:c r="EO9" s="3" t="n">
+        <x:v>94.3</x:v>
+      </x:c>
+      <x:c r="EP9" s="3" t="n">
+        <x:v>94.4</x:v>
+      </x:c>
+      <x:c r="EQ9" s="3" t="n">
+        <x:v>94.6</x:v>
+      </x:c>
+      <x:c r="ER9" s="3" t="n">
+        <x:v>94.8</x:v>
+      </x:c>
+      <x:c r="ES9" s="3" t="n">
+        <x:v>95.5</x:v>
+      </x:c>
+      <x:c r="ET9" s="3" t="n">
+        <x:v>95.6</x:v>
+      </x:c>
+      <x:c r="EU9" s="3" t="n">
+        <x:v>96.2</x:v>
+      </x:c>
+      <x:c r="EV9" s="3" t="n">
+        <x:v>96.2</x:v>
+      </x:c>
+      <x:c r="EW9" s="3" t="n">
+        <x:v>96.5</x:v>
+      </x:c>
+      <x:c r="EX9" s="3" t="n">
+        <x:v>96.2</x:v>
+      </x:c>
+      <x:c r="EY9" s="3" t="n">
+        <x:v>96.5</x:v>
+      </x:c>
+      <x:c r="EZ9" s="3" t="n">
+        <x:v>96.3</x:v>
+      </x:c>
+      <x:c r="FA9" s="3" t="n">
+        <x:v>96.3</x:v>
+      </x:c>
+      <x:c r="FB9" s="3" t="n">
+        <x:v>96.2</x:v>
+      </x:c>
+      <x:c r="FC9" s="3" t="n">
+        <x:v>97.1</x:v>
+      </x:c>
+      <x:c r="FD9" s="3" t="n">
+        <x:v>97.6</x:v>
+      </x:c>
+      <x:c r="FE9" s="3" t="n">
+        <x:v>97.8</x:v>
+      </x:c>
+      <x:c r="FF9" s="3" t="n">
+        <x:v>97.1</x:v>
+      </x:c>
+      <x:c r="FG9" s="3" t="n">
+        <x:v>97.5</x:v>
+      </x:c>
+      <x:c r="FH9" s="3" t="n">
+        <x:v>97.8</x:v>
+      </x:c>
+      <x:c r="FI9" s="3" t="n">
+        <x:v>98.2</x:v>
+      </x:c>
+      <x:c r="FJ9" s="3" t="n">
+        <x:v>97.8</x:v>
+      </x:c>
+      <x:c r="FK9" s="3" t="n">
+        <x:v>97.8</x:v>
+      </x:c>
+      <x:c r="FL9" s="3" t="n">
+        <x:v>97.9</x:v>
+      </x:c>
+      <x:c r="FM9" s="3" t="n">
+        <x:v>97.9</x:v>
+      </x:c>
+      <x:c r="FN9" s="3" t="n">
+        <x:v>97.9</x:v>
+      </x:c>
+      <x:c r="FO9" s="3" t="n">
+        <x:v>98.4</x:v>
+      </x:c>
+      <x:c r="FP9" s="3" t="n">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="FQ9" s="3" t="n">
+        <x:v>99.6</x:v>
+      </x:c>
+      <x:c r="FR9" s="3" t="n">
+        <x:v>100.1</x:v>
+      </x:c>
+      <x:c r="FS9" s="3" t="n">
+        <x:v>100.2</x:v>
+      </x:c>
+      <x:c r="FT9" s="3" t="n">
+        <x:v>100.3</x:v>
+      </x:c>
+      <x:c r="FU9" s="3" t="n">
         <x:v>99.7</x:v>
       </x:c>
-      <x:c r="GT8" s="3" t="n">
-        <x:v>102.2</x:v>
-      </x:c>
-      <x:c r="GU8" s="3" t="n">
-        <x:v>95.6</x:v>
-      </x:c>
-      <x:c r="GV8" s="3" t="n">
-        <x:v>99.2</x:v>
-      </x:c>
-      <x:c r="GW8" s="3" t="n">
-        <x:v>103.7</x:v>
-      </x:c>
-      <x:c r="GX8" s="3" t="n">
-        <x:v>124</x:v>
-      </x:c>
-      <x:c r="GY8" s="3" t="n">
-        <x:v>90.9</x:v>
-      </x:c>
-      <x:c r="GZ8" s="3" t="n">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="HA8" s="3" t="n">
-        <x:v>94.5</x:v>
-      </x:c>
-      <x:c r="HB8" s="3" t="n">
-        <x:v>92.9</x:v>
-      </x:c>
-      <x:c r="HC8" s="3" t="n">
-        <x:v>107.9</x:v>
-      </x:c>
-      <x:c r="HD8" s="3" t="n">
-        <x:v>109.1</x:v>
-      </x:c>
-      <x:c r="HE8" s="3" t="n">
-        <x:v>103.2</x:v>
-      </x:c>
-      <x:c r="HF8" s="3" t="n">
-        <x:v>105.4</x:v>
-      </x:c>
-      <x:c r="HG8" s="3" t="n">
-        <x:v>97.3</x:v>
-      </x:c>
-      <x:c r="HH8" s="3" t="n">
-        <x:v>99.8</x:v>
-      </x:c>
-      <x:c r="HI8" s="3" t="n">
-        <x:v>107.6</x:v>
-      </x:c>
-      <x:c r="HJ8" s="3" t="n">
-        <x:v>129.4</x:v>
-      </x:c>
-      <x:c r="HK8" s="3" t="n">
-        <x:v>92.9</x:v>
-      </x:c>
-      <x:c r="HL8" s="3" t="n">
-        <x:v>85.7</x:v>
-      </x:c>
-      <x:c r="HM8" s="3" t="n">
-        <x:v>95.6</x:v>
-      </x:c>
-      <x:c r="HN8" s="3" t="n">
-        <x:v>95.3</x:v>
-      </x:c>
-      <x:c r="HO8" s="3" t="n">
-        <x:v>112.5</x:v>
-      </x:c>
-      <x:c r="HP8" s="3" t="n">
-        <x:v>108.6</x:v>
-      </x:c>
-      <x:c r="HQ8" s="3" t="n">
-        <x:v>103.6</x:v>
-      </x:c>
-      <x:c r="HR8" s="3" t="n">
-        <x:v>106.8</x:v>
-      </x:c>
-      <x:c r="HS8" s="3" t="n">
-        <x:v>98.5</x:v>
-      </x:c>
-      <x:c r="HT8" s="3" t="n">
-        <x:v>100.9</x:v>
-      </x:c>
-      <x:c r="HU8" s="3" t="n">
-        <x:v>108.5</x:v>
-      </x:c>
-      <x:c r="HV8" s="3" t="n">
-        <x:v>127.8</x:v>
-      </x:c>
-      <x:c r="HW8" s="3" t="n">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="HX8" s="3" t="n">
-        <x:v>85.1</x:v>
-      </x:c>
-      <x:c r="HY8" s="3" t="n">
-        <x:v>96.1</x:v>
-      </x:c>
-      <x:c r="HZ8" s="3" t="n">
-        <x:v>96.9</x:v>
-      </x:c>
-      <x:c r="IA8" s="3" t="n">
-        <x:v>109.5</x:v>
-      </x:c>
-      <x:c r="IB8" s="3" t="n">
-        <x:v>109.4</x:v>
-      </x:c>
-      <x:c r="IC8" s="3" t="n">
-        <x:v>105.1</x:v>
-      </x:c>
-      <x:c r="ID8" s="3" t="n">
-        <x:v>107.2</x:v>
-      </x:c>
-      <x:c r="IE8" s="3" t="n">
-        <x:v>99.3</x:v>
-      </x:c>
-      <x:c r="IF8" s="3" t="n">
-        <x:v>100.8</x:v>
-      </x:c>
-      <x:c r="IG8" s="3" t="n">
-        <x:v>109.4</x:v>
-      </x:c>
-      <x:c r="IH8" s="3" t="n">
-        <x:v>127.2</x:v>
-      </x:c>
-      <x:c r="II8" s="3" t="n">
-        <x:v>92.6</x:v>
-      </x:c>
-      <x:c r="IJ8" s="3" t="n">
-        <x:v>87.1</x:v>
-      </x:c>
-      <x:c r="IK8" s="3" t="n">
-        <x:v>98.6</x:v>
-      </x:c>
-      <x:c r="IL8" s="3" t="n">
-        <x:v>102.9</x:v>
-      </x:c>
-      <x:c r="IM8" s="3" t="n">
-        <x:v>120.3</x:v>
-      </x:c>
-      <x:c r="IN8" s="3" t="n">
-        <x:v>126.3</x:v>
-      </x:c>
-      <x:c r="IO8" s="3" t="n">
-        <x:v>121.1</x:v>
-      </x:c>
-      <x:c r="IP8" s="3" t="n">
-        <x:v>117.2</x:v>
-      </x:c>
-      <x:c r="IQ8" s="3" t="n">
-        <x:v>109.2</x:v>
-      </x:c>
-      <x:c r="IR8" s="3" t="n">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="IS8" s="3" t="n">
-        <x:v>126.2</x:v>
-      </x:c>
-      <x:c r="IT8" s="3" t="n">
-        <x:v>139</x:v>
-      </x:c>
-      <x:c r="IU8" s="3" t="n">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="IV8" s="3" t="n">
-        <x:v>93.9</x:v>
-      </x:c>
-      <x:c r="IW8" s="3" t="n">
-        <x:v>105.8</x:v>
-      </x:c>
-      <x:c r="IX8" s="3" t="n">
-        <x:v>105.4</x:v>
-      </x:c>
-      <x:c r="IY8" s="3" t="n">
-        <x:v>127.5</x:v>
-      </x:c>
-      <x:c r="IZ8" s="3" t="n">
-        <x:v>126.9</x:v>
-      </x:c>
-      <x:c r="JA8" s="3" t="n">
-        <x:v>115.8</x:v>
-      </x:c>
-      <x:c r="JB8" s="3" t="n">
-        <x:v>114.1</x:v>
-      </x:c>
-      <x:c r="JC8" s="3" t="n">
-        <x:v>106.4</x:v>
-      </x:c>
-      <x:c r="JD8" s="3" t="n">
-        <x:v>109.4</x:v>
-      </x:c>
-      <x:c r="JE8" s="3" t="n">
-        <x:v>120.3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:265">
-      <x:c r="B9" s="2" t="s">
-        <x:v>270</x:v>
-      </x:c>
-      <x:c r="C9" s="4" t="s">
-        <x:v>271</x:v>
-      </x:c>
-      <x:c r="D9" s="4" t="s">
-        <x:v>271</x:v>
-      </x:c>
-      <x:c r="E9" s="3" t="n">
-        <x:v>67.2</x:v>
-      </x:c>
-      <x:c r="F9" s="3" t="n">
-        <x:v>67.2</x:v>
-      </x:c>
-      <x:c r="G9" s="3" t="n">
-        <x:v>67.8</x:v>
-      </x:c>
-      <x:c r="H9" s="3" t="n">
-        <x:v>67.4</x:v>
-      </x:c>
-      <x:c r="I9" s="3" t="n">
-        <x:v>67.7</x:v>
-      </x:c>
-      <x:c r="J9" s="3" t="n">
-        <x:v>67.3</x:v>
-      </x:c>
-      <x:c r="K9" s="3" t="n">
-        <x:v>67.8</x:v>
-      </x:c>
-      <x:c r="L9" s="3" t="n">
-        <x:v>67.7</x:v>
-      </x:c>
-      <x:c r="M9" s="3" t="n">
-        <x:v>67.1</x:v>
-      </x:c>
-      <x:c r="N9" s="3" t="n">
-        <x:v>67.6</x:v>
-      </x:c>
-      <x:c r="O9" s="3" t="n">
-        <x:v>67.6</x:v>
-      </x:c>
-      <x:c r="P9" s="3" t="n">
-        <x:v>67.9</x:v>
-      </x:c>
-      <x:c r="Q9" s="3" t="n">
-        <x:v>67.9</x:v>
-      </x:c>
-      <x:c r="R9" s="3" t="n">
-        <x:v>67.9</x:v>
-      </x:c>
-      <x:c r="S9" s="3" t="n">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="T9" s="3" t="n">
-        <x:v>67.8</x:v>
-      </x:c>
-      <x:c r="U9" s="3" t="n">
-        <x:v>68.4</x:v>
-      </x:c>
-      <x:c r="V9" s="3" t="n">
-        <x:v>68.7</x:v>
-      </x:c>
-      <x:c r="W9" s="3" t="n">
-        <x:v>68.9</x:v>
-      </x:c>
-      <x:c r="X9" s="3" t="n">
-        <x:v>69.1</x:v>
-      </x:c>
-      <x:c r="Y9" s="3" t="n">
-        <x:v>69.5</x:v>
-      </x:c>
-      <x:c r="Z9" s="3" t="n">
-        <x:v>70.1</x:v>
-      </x:c>
-      <x:c r="AA9" s="3" t="n">
-        <x:v>70.6</x:v>
-      </x:c>
-      <x:c r="AB9" s="3" t="n">
-        <x:v>70.9</x:v>
-      </x:c>
-      <x:c r="AC9" s="3" t="n">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="AD9" s="3" t="n">
-        <x:v>71.2</x:v>
-      </x:c>
-      <x:c r="AE9" s="3" t="n">
-        <x:v>71.5</x:v>
-      </x:c>
-      <x:c r="AF9" s="3" t="n">
-        <x:v>71.6</x:v>
-      </x:c>
-      <x:c r="AG9" s="3" t="n">
-        <x:v>71.2</x:v>
-      </x:c>
-      <x:c r="AH9" s="3" t="n">
-        <x:v>70.9</x:v>
-      </x:c>
-      <x:c r="AI9" s="3" t="n">
-        <x:v>71.2</x:v>
-      </x:c>
-      <x:c r="AJ9" s="3" t="n">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="AK9" s="3" t="n">
-        <x:v>72.5</x:v>
-      </x:c>
-      <x:c r="AL9" s="3" t="n">
-        <x:v>72.7</x:v>
-      </x:c>
-      <x:c r="AM9" s="3" t="n">
-        <x:v>72.8</x:v>
-      </x:c>
-      <x:c r="AN9" s="3" t="n">
-        <x:v>72.9</x:v>
-      </x:c>
-      <x:c r="AO9" s="3" t="n">
-        <x:v>73.1</x:v>
-      </x:c>
-      <x:c r="AP9" s="3" t="n">
-        <x:v>73.6</x:v>
-      </x:c>
-      <x:c r="AQ9" s="3" t="n">
-        <x:v>73.6</x:v>
-      </x:c>
-      <x:c r="AR9" s="3" t="n">
-        <x:v>73.9</x:v>
-      </x:c>
-      <x:c r="AS9" s="3" t="n">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="AT9" s="3" t="n">
-        <x:v>74.4</x:v>
-      </x:c>
-      <x:c r="AU9" s="3" t="n">
-        <x:v>74.6</x:v>
-      </x:c>
-      <x:c r="AV9" s="3" t="n">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="AW9" s="3" t="n">
-        <x:v>75.3</x:v>
-      </x:c>
-      <x:c r="AX9" s="3" t="n">
-        <x:v>75.5</x:v>
-      </x:c>
-      <x:c r="AY9" s="3" t="n">
-        <x:v>75.5</x:v>
-      </x:c>
-      <x:c r="AZ9" s="3" t="n">
-        <x:v>75.4</x:v>
-      </x:c>
-      <x:c r="BA9" s="3" t="n">
-        <x:v>75.9</x:v>
-      </x:c>
-      <x:c r="BB9" s="3" t="n">
-        <x:v>76.1</x:v>
-      </x:c>
-      <x:c r="BC9" s="3" t="n">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="BD9" s="3" t="n">
-        <x:v>76.1</x:v>
-      </x:c>
-      <x:c r="BE9" s="3" t="n">
-        <x:v>75.8</x:v>
-      </x:c>
-      <x:c r="BF9" s="3" t="n">
-        <x:v>76.5</x:v>
-      </x:c>
-      <x:c r="BG9" s="3" t="n">
-        <x:v>76.5</x:v>
-      </x:c>
-      <x:c r="BH9" s="3" t="n">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="BI9" s="3" t="n">
-        <x:v>76.8</x:v>
-      </x:c>
-      <x:c r="BJ9" s="3" t="n">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="BK9" s="3" t="n">
-        <x:v>77.4</x:v>
-      </x:c>
-      <x:c r="BL9" s="3" t="n">
-        <x:v>78.1</x:v>
-      </x:c>
-      <x:c r="BM9" s="3" t="n">
-        <x:v>78.1</x:v>
-      </x:c>
-      <x:c r="BN9" s="3" t="n">
-        <x:v>78.2</x:v>
-      </x:c>
-      <x:c r="BO9" s="3" t="n">
-        <x:v>77.6</x:v>
-      </x:c>
-      <x:c r="BP9" s="3" t="n">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BQ9" s="3" t="n">
-        <x:v>78.4</x:v>
-      </x:c>
-      <x:c r="BR9" s="3" t="n">
-        <x:v>79.3</x:v>
-      </x:c>
-      <x:c r="BS9" s="3" t="n">
-        <x:v>79.5</x:v>
-      </x:c>
-      <x:c r="BT9" s="3" t="n">
-        <x:v>79.3</x:v>
-      </x:c>
-      <x:c r="BU9" s="3" t="n">
-        <x:v>79.3</x:v>
-      </x:c>
-      <x:c r="BV9" s="3" t="n">
-        <x:v>79.4</x:v>
-      </x:c>
-      <x:c r="BW9" s="3" t="n">
-        <x:v>79.8</x:v>
-      </x:c>
-      <x:c r="BX9" s="3" t="n">
-        <x:v>80.3</x:v>
-      </x:c>
-      <x:c r="BY9" s="3" t="n">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="BZ9" s="3" t="n">
-        <x:v>81.1</x:v>
-      </x:c>
-      <x:c r="CA9" s="3" t="n">
-        <x:v>81.8</x:v>
-      </x:c>
-      <x:c r="CB9" s="3" t="n">
-        <x:v>82.4</x:v>
-      </x:c>
-      <x:c r="CC9" s="3" t="n">
-        <x:v>83.2</x:v>
-      </x:c>
-      <x:c r="CD9" s="3" t="n">
-        <x:v>83.5</x:v>
-      </x:c>
-      <x:c r="CE9" s="3" t="n">
-        <x:v>83.7</x:v>
-      </x:c>
-      <x:c r="CF9" s="3" t="n">
-        <x:v>84.2</x:v>
-      </x:c>
-      <x:c r="CG9" s="3" t="n">
-        <x:v>84.6</x:v>
-      </x:c>
-      <x:c r="CH9" s="3" t="n">
-        <x:v>85.1</x:v>
-      </x:c>
-      <x:c r="CI9" s="3" t="n">
-        <x:v>85.5</x:v>
-      </x:c>
-      <x:c r="CJ9" s="3" t="n">
-        <x:v>86.1</x:v>
-      </x:c>
-      <x:c r="CK9" s="3" t="n">
-        <x:v>86.8</x:v>
-      </x:c>
-      <x:c r="CL9" s="3" t="n">
-        <x:v>87.8</x:v>
-      </x:c>
-      <x:c r="CM9" s="3" t="n">
-        <x:v>88.2</x:v>
-      </x:c>
-      <x:c r="CN9" s="3" t="n">
-        <x:v>88.9</x:v>
-      </x:c>
-      <x:c r="CO9" s="3" t="n">
-        <x:v>88.8</x:v>
-      </x:c>
-      <x:c r="CP9" s="3" t="n">
-        <x:v>88.9</x:v>
-      </x:c>
-      <x:c r="CQ9" s="3" t="n">
-        <x:v>88.9</x:v>
-      </x:c>
-      <x:c r="CR9" s="3" t="n">
-        <x:v>89.1</x:v>
-      </x:c>
-      <x:c r="CS9" s="3" t="n">
-        <x:v>89.7</x:v>
-      </x:c>
-      <x:c r="CT9" s="3" t="n">
-        <x:v>89.6</x:v>
-      </x:c>
-      <x:c r="CU9" s="3" t="n">
-        <x:v>89.8</x:v>
-      </x:c>
-      <x:c r="CV9" s="3" t="n">
-        <x:v>90.1</x:v>
-      </x:c>
-      <x:c r="CW9" s="3" t="n">
-        <x:v>90.5</x:v>
-      </x:c>
-      <x:c r="CX9" s="3" t="n">
-        <x:v>90.8</x:v>
-      </x:c>
-      <x:c r="CY9" s="3" t="n">
-        <x:v>91.3</x:v>
-      </x:c>
-      <x:c r="CZ9" s="3" t="n">
-        <x:v>91.3</x:v>
-      </x:c>
-      <x:c r="DA9" s="3" t="n">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="DB9" s="3" t="n">
-        <x:v>90.1</x:v>
-      </x:c>
-      <x:c r="DC9" s="3" t="n">
-        <x:v>89.8</x:v>
-      </x:c>
-      <x:c r="DD9" s="3" t="n">
-        <x:v>89.3</x:v>
-      </x:c>
-      <x:c r="DE9" s="3" t="n">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="DF9" s="3" t="n">
-        <x:v>88.5</x:v>
-      </x:c>
-      <x:c r="DG9" s="3" t="n">
-        <x:v>88.7</x:v>
-      </x:c>
-      <x:c r="DH9" s="3" t="n">
-        <x:v>88.6</x:v>
-      </x:c>
-      <x:c r="DI9" s="3" t="n">
-        <x:v>88.8</x:v>
-      </x:c>
-      <x:c r="DJ9" s="3" t="n">
-        <x:v>88.9</x:v>
-      </x:c>
-      <x:c r="DK9" s="3" t="n">
-        <x:v>89.3</x:v>
-      </x:c>
-      <x:c r="DL9" s="3" t="n">
-        <x:v>89.6</x:v>
-      </x:c>
-      <x:c r="DM9" s="3" t="n">
-        <x:v>90.2</x:v>
-      </x:c>
-      <x:c r="DN9" s="3" t="n">
-        <x:v>90.8</x:v>
-      </x:c>
-      <x:c r="DO9" s="3" t="n">
-        <x:v>90.9</x:v>
-      </x:c>
-      <x:c r="DP9" s="3" t="n">
-        <x:v>91.1</x:v>
-      </x:c>
-      <x:c r="DQ9" s="3" t="n">
-        <x:v>90.9</x:v>
-      </x:c>
-      <x:c r="DR9" s="3" t="n">
-        <x:v>91.2</x:v>
-      </x:c>
-      <x:c r="DS9" s="3" t="n">
-        <x:v>91.3</x:v>
-      </x:c>
-      <x:c r="DT9" s="3" t="n">
-        <x:v>91.5</x:v>
-      </x:c>
-      <x:c r="DU9" s="3" t="n">
-        <x:v>91.5</x:v>
-      </x:c>
-      <x:c r="DV9" s="3" t="n">
-        <x:v>90.8</x:v>
-      </x:c>
-      <x:c r="DW9" s="3" t="n">
-        <x:v>90.7</x:v>
-      </x:c>
-      <x:c r="DX9" s="3" t="n">
-        <x:v>90.6</x:v>
-      </x:c>
-      <x:c r="DY9" s="3" t="n">
-        <x:v>91.3</x:v>
-      </x:c>
-      <x:c r="DZ9" s="3" t="n">
-        <x:v>91.6</x:v>
-      </x:c>
-      <x:c r="EA9" s="3" t="n">
-        <x:v>92.2</x:v>
-      </x:c>
-      <x:c r="EB9" s="3" t="n">
-        <x:v>92.6</x:v>
-      </x:c>
-      <x:c r="EC9" s="3" t="n">
-        <x:v>93.5</x:v>
-      </x:c>
-      <x:c r="ED9" s="3" t="n">
-        <x:v>93.5</x:v>
-      </x:c>
-      <x:c r="EE9" s="3" t="n">
-        <x:v>93.3</x:v>
-      </x:c>
-      <x:c r="EF9" s="3" t="n">
-        <x:v>92.9</x:v>
-      </x:c>
-      <x:c r="EG9" s="3" t="n">
-        <x:v>92.8</x:v>
-      </x:c>
-      <x:c r="EH9" s="3" t="n">
-        <x:v>92.9</x:v>
-      </x:c>
-      <x:c r="EI9" s="3" t="n">
-        <x:v>92.9</x:v>
-      </x:c>
-      <x:c r="EJ9" s="3" t="n">
-        <x:v>93.1</x:v>
-      </x:c>
-      <x:c r="EK9" s="3" t="n">
-        <x:v>93.2</x:v>
-      </x:c>
-      <x:c r="EL9" s="3" t="n">
-        <x:v>93.8</x:v>
-      </x:c>
-      <x:c r="EM9" s="3" t="n">
-        <x:v>94.5</x:v>
-      </x:c>
-      <x:c r="EN9" s="3" t="n">
-        <x:v>95.1</x:v>
-      </x:c>
-      <x:c r="EO9" s="3" t="n">
-        <x:v>95.1</x:v>
-      </x:c>
-      <x:c r="EP9" s="3" t="n">
-        <x:v>95.2</x:v>
-      </x:c>
-      <x:c r="EQ9" s="3" t="n">
-        <x:v>95.4</x:v>
-      </x:c>
-      <x:c r="ER9" s="3" t="n">
-        <x:v>95.6</x:v>
-      </x:c>
-      <x:c r="ES9" s="3" t="n">
-        <x:v>96.2</x:v>
-      </x:c>
-      <x:c r="ET9" s="3" t="n">
-        <x:v>96.3</x:v>
-      </x:c>
-      <x:c r="EU9" s="3" t="n">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="EV9" s="3" t="n">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="EW9" s="3" t="n">
-        <x:v>97.2</x:v>
-      </x:c>
-      <x:c r="EX9" s="3" t="n">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="EY9" s="3" t="n">
-        <x:v>97.3</x:v>
-      </x:c>
-      <x:c r="EZ9" s="3" t="n">
-        <x:v>97.1</x:v>
-      </x:c>
-      <x:c r="FA9" s="3" t="n">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="FB9" s="3" t="n">
-        <x:v>96.8</x:v>
-      </x:c>
-      <x:c r="FC9" s="3" t="n">
-        <x:v>97.7</x:v>
-      </x:c>
-      <x:c r="FD9" s="3" t="n">
-        <x:v>98.3</x:v>
-      </x:c>
-      <x:c r="FE9" s="3" t="n">
-        <x:v>98.5</x:v>
-      </x:c>
-      <x:c r="FF9" s="3" t="n">
-        <x:v>97.7</x:v>
-      </x:c>
-      <x:c r="FG9" s="3" t="n">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="FH9" s="3" t="n">
-        <x:v>98.3</x:v>
-      </x:c>
-      <x:c r="FI9" s="3" t="n">
-        <x:v>98.7</x:v>
-      </x:c>
-      <x:c r="FJ9" s="3" t="n">
-        <x:v>98.2</x:v>
-      </x:c>
-      <x:c r="FK9" s="3" t="n">
-        <x:v>98.3</x:v>
-      </x:c>
-      <x:c r="FL9" s="3" t="n">
-        <x:v>98.4</x:v>
-      </x:c>
-      <x:c r="FM9" s="3" t="n">
-        <x:v>98.3</x:v>
-      </x:c>
-      <x:c r="FN9" s="3" t="n">
-        <x:v>98.3</x:v>
-      </x:c>
-      <x:c r="FO9" s="3" t="n">
-        <x:v>98.7</x:v>
-      </x:c>
-      <x:c r="FP9" s="3" t="n">
-        <x:v>99.3</x:v>
-      </x:c>
-      <x:c r="FQ9" s="3" t="n">
+      <x:c r="FV9" s="3" t="n">
         <x:v>99.9</x:v>
       </x:c>
-      <x:c r="FR9" s="3" t="n">
-        <x:v>100.4</x:v>
-      </x:c>
-      <x:c r="FS9" s="3" t="n">
-        <x:v>100.4</x:v>
-      </x:c>
-      <x:c r="FT9" s="3" t="n">
-        <x:v>100.5</x:v>
-      </x:c>
-      <x:c r="FU9" s="3" t="n">
-        <x:v>99.9</x:v>
-      </x:c>
-      <x:c r="FV9" s="3" t="n">
+      <x:c r="FW9" s="3" t="n">
+        <x:v>99.7</x:v>
+      </x:c>
+      <x:c r="FX9" s="3" t="n">
+        <x:v>100.1</x:v>
+      </x:c>
+      <x:c r="FY9" s="3" t="n">
         <x:v>100</x:v>
-      </x:c>
-      <x:c r="FW9" s="3" t="n">
-        <x:v>99.9</x:v>
-      </x:c>
-      <x:c r="FX9" s="3" t="n">
-        <x:v>100.3</x:v>
-      </x:c>
-      <x:c r="FY9" s="3" t="n">
-        <x:v>100.1</x:v>
       </x:c>
       <x:c r="FZ9" s="3" t="n">
         <x:v>100.2</x:v>
       </x:c>
       <x:c r="GA9" s="3" t="n">
-        <x:v>100.3</x:v>
+        <x:v>100.2</x:v>
       </x:c>
       <x:c r="GB9" s="3" t="n">
         <x:v>100.6</x:v>
       </x:c>
       <x:c r="GC9" s="3" t="n">
-        <x:v>100.7</x:v>
+        <x:v>100.6</x:v>
       </x:c>
       <x:c r="GD9" s="3" t="n">
-        <x:v>101.8</x:v>
+        <x:v>101.7</x:v>
       </x:c>
       <x:c r="GE9" s="3" t="n">
         <x:v>101</x:v>
@@ -6695,7 +6757,7 @@
         <x:v>100.8</x:v>
       </x:c>
       <x:c r="GG9" s="3" t="n">
-        <x:v>99.9</x:v>
+        <x:v>99.8</x:v>
       </x:c>
       <x:c r="GH9" s="3" t="n">
         <x:v>100.5</x:v>
@@ -6710,598 +6772,611 @@
         <x:v>100.4</x:v>
       </x:c>
       <x:c r="GL9" s="3" t="n">
-        <x:v>100.5</x:v>
+        <x:v>100.6</x:v>
       </x:c>
       <x:c r="GM9" s="3" t="n">
-        <x:v>100.5</x:v>
+        <x:v>100.6</x:v>
       </x:c>
       <x:c r="GN9" s="3" t="n">
+        <x:v>100.4</x:v>
+      </x:c>
+      <x:c r="GO9" s="3" t="n">
+        <x:v>100.1</x:v>
+      </x:c>
+      <x:c r="GP9" s="3" t="n">
+        <x:v>99.4</x:v>
+      </x:c>
+      <x:c r="GQ9" s="3" t="n">
+        <x:v>99.5</x:v>
+      </x:c>
+      <x:c r="GR9" s="3" t="n">
+        <x:v>99.6</x:v>
+      </x:c>
+      <x:c r="GS9" s="3" t="n">
+        <x:v>99.6</x:v>
+      </x:c>
+      <x:c r="GT9" s="3" t="n">
+        <x:v>99.5</x:v>
+      </x:c>
+      <x:c r="GU9" s="3" t="n">
+        <x:v>99.5</x:v>
+      </x:c>
+      <x:c r="GV9" s="3" t="n">
+        <x:v>100.2</x:v>
+      </x:c>
+      <x:c r="GW9" s="3" t="n">
+        <x:v>100.4</x:v>
+      </x:c>
+      <x:c r="GX9" s="3" t="n">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="GY9" s="3" t="n">
+        <x:v>99.8</x:v>
+      </x:c>
+      <x:c r="GZ9" s="3" t="n">
         <x:v>100.3</x:v>
       </x:c>
-      <x:c r="GO9" s="3" t="n">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="GP9" s="3" t="n">
-        <x:v>99.3</x:v>
-      </x:c>
-      <x:c r="GQ9" s="3" t="n">
-        <x:v>99.3</x:v>
-      </x:c>
-      <x:c r="GR9" s="3" t="n">
-        <x:v>99.4</x:v>
-      </x:c>
-      <x:c r="GS9" s="3" t="n">
-        <x:v>99.4</x:v>
-      </x:c>
-      <x:c r="GT9" s="3" t="n">
-        <x:v>99.3</x:v>
-      </x:c>
-      <x:c r="GU9" s="3" t="n">
-        <x:v>99.2</x:v>
-      </x:c>
-      <x:c r="GV9" s="3" t="n">
-        <x:v>99.9</x:v>
-      </x:c>
-      <x:c r="GW9" s="3" t="n">
-        <x:v>100.2</x:v>
-      </x:c>
-      <x:c r="GX9" s="3" t="n">
-        <x:v>99.7</x:v>
-      </x:c>
-      <x:c r="GY9" s="3" t="n">
-        <x:v>99.5</x:v>
-      </x:c>
-      <x:c r="GZ9" s="3" t="n">
-        <x:v>99.9</x:v>
-      </x:c>
       <x:c r="HA9" s="3" t="n">
-        <x:v>101</x:v>
+        <x:v>101.4</x:v>
       </x:c>
       <x:c r="HB9" s="3" t="n">
-        <x:v>101.3</x:v>
+        <x:v>101.7</x:v>
       </x:c>
       <x:c r="HC9" s="3" t="n">
-        <x:v>101.5</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="HD9" s="3" t="n">
-        <x:v>101.9</x:v>
+        <x:v>102.4</x:v>
       </x:c>
       <x:c r="HE9" s="3" t="n">
-        <x:v>102.4</x:v>
+        <x:v>102.9</x:v>
       </x:c>
       <x:c r="HF9" s="3" t="n">
+        <x:v>102.8</x:v>
+      </x:c>
+      <x:c r="HG9" s="3" t="n">
+        <x:v>102.5</x:v>
+      </x:c>
+      <x:c r="HH9" s="3" t="n">
         <x:v>102.3</x:v>
       </x:c>
-      <x:c r="HG9" s="3" t="n">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="HH9" s="3" t="n">
-        <x:v>101.7</x:v>
-      </x:c>
       <x:c r="HI9" s="3" t="n">
-        <x:v>102.1</x:v>
+        <x:v>102.7</x:v>
       </x:c>
       <x:c r="HJ9" s="3" t="n">
-        <x:v>102.5</x:v>
+        <x:v>103.2</x:v>
       </x:c>
       <x:c r="HK9" s="3" t="n">
-        <x:v>102.7</x:v>
+        <x:v>103.4</x:v>
       </x:c>
       <x:c r="HL9" s="3" t="n">
-        <x:v>102.5</x:v>
+        <x:v>103.2</x:v>
       </x:c>
       <x:c r="HM9" s="3" t="n">
-        <x:v>102.5</x:v>
+        <x:v>103.2</x:v>
       </x:c>
       <x:c r="HN9" s="3" t="n">
-        <x:v>102.8</x:v>
+        <x:v>103.6</x:v>
       </x:c>
       <x:c r="HO9" s="3" t="n">
+        <x:v>104.8</x:v>
+      </x:c>
+      <x:c r="HP9" s="3" t="n">
+        <x:v>104.8</x:v>
+      </x:c>
+      <x:c r="HQ9" s="3" t="n">
+        <x:v>104.6</x:v>
+      </x:c>
+      <x:c r="HR9" s="3" t="n">
+        <x:v>103.7</x:v>
+      </x:c>
+      <x:c r="HS9" s="3" t="n">
         <x:v>103.9</x:v>
       </x:c>
-      <x:c r="HP9" s="3" t="n">
+      <x:c r="HT9" s="3" t="n">
+        <x:v>103.9</x:v>
+      </x:c>
+      <x:c r="HU9" s="3" t="n">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="HV9" s="3" t="n">
         <x:v>103.8</x:v>
       </x:c>
-      <x:c r="HQ9" s="3" t="n">
-        <x:v>103.6</x:v>
-      </x:c>
-      <x:c r="HR9" s="3" t="n">
-        <x:v>102.8</x:v>
-      </x:c>
-      <x:c r="HS9" s="3" t="n">
-        <x:v>102.9</x:v>
-      </x:c>
-      <x:c r="HT9" s="3" t="n">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="HU9" s="3" t="n">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="HV9" s="3" t="n">
-        <x:v>102.8</x:v>
-      </x:c>
       <x:c r="HW9" s="3" t="n">
-        <x:v>103.1</x:v>
+        <x:v>104.1</x:v>
       </x:c>
       <x:c r="HX9" s="3" t="n">
-        <x:v>102.6</x:v>
+        <x:v>103.5</x:v>
       </x:c>
       <x:c r="HY9" s="3" t="n">
-        <x:v>102.9</x:v>
+        <x:v>103.8</x:v>
       </x:c>
       <x:c r="HZ9" s="3" t="n">
-        <x:v>103.2</x:v>
+        <x:v>104.2</x:v>
       </x:c>
       <x:c r="IA9" s="3" t="n">
-        <x:v>103.7</x:v>
+        <x:v>104.7</x:v>
       </x:c>
       <x:c r="IB9" s="3" t="n">
-        <x:v>103.6</x:v>
+        <x:v>104.7</x:v>
       </x:c>
       <x:c r="IC9" s="3" t="n">
-        <x:v>103.4</x:v>
+        <x:v>104.5</x:v>
       </x:c>
       <x:c r="ID9" s="3" t="n">
-        <x:v>103.5</x:v>
+        <x:v>104.6</x:v>
       </x:c>
       <x:c r="IE9" s="3" t="n">
-        <x:v>103.7</x:v>
+        <x:v>104.9</x:v>
       </x:c>
       <x:c r="IF9" s="3" t="n">
-        <x:v>103.4</x:v>
+        <x:v>104.6</x:v>
       </x:c>
       <x:c r="IG9" s="3" t="n">
-        <x:v>103.6</x:v>
+        <x:v>104.7</x:v>
       </x:c>
       <x:c r="IH9" s="3" t="n">
-        <x:v>103.1</x:v>
+        <x:v>104.3</x:v>
       </x:c>
       <x:c r="II9" s="3" t="n">
-        <x:v>102.8</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="IJ9" s="3" t="n">
-        <x:v>102.9</x:v>
+        <x:v>104.1</x:v>
       </x:c>
       <x:c r="IK9" s="3" t="n">
-        <x:v>103.8</x:v>
+        <x:v>105.3</x:v>
       </x:c>
       <x:c r="IL9" s="3" t="n">
-        <x:v>106.4</x:v>
+        <x:v>108.5</x:v>
       </x:c>
       <x:c r="IM9" s="3" t="n">
-        <x:v>109.2</x:v>
+        <x:v>111.7</x:v>
       </x:c>
       <x:c r="IN9" s="3" t="n">
-        <x:v>114</x:v>
+        <x:v>116.2</x:v>
       </x:c>
       <x:c r="IO9" s="3" t="n">
-        <x:v>117.2</x:v>
+        <x:v>118.9</x:v>
       </x:c>
       <x:c r="IP9" s="3" t="n">
-        <x:v>117.4</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="IQ9" s="3" t="n">
-        <x:v>115.7</x:v>
+        <x:v>117.3</x:v>
       </x:c>
       <x:c r="IR9" s="3" t="n">
-        <x:v>114.4</x:v>
+        <x:v>116.1</x:v>
       </x:c>
       <x:c r="IS9" s="3" t="n">
-        <x:v>116.4</x:v>
+        <x:v>118.4</x:v>
       </x:c>
       <x:c r="IT9" s="3" t="n">
-        <x:v>115.9</x:v>
+        <x:v>118.2</x:v>
       </x:c>
       <x:c r="IU9" s="3" t="n">
-        <x:v>114.9</x:v>
+        <x:v>117.5</x:v>
       </x:c>
       <x:c r="IV9" s="3" t="n">
+        <x:v>115.2</x:v>
+      </x:c>
+      <x:c r="IW9" s="3" t="n">
+        <x:v>115.6</x:v>
+      </x:c>
+      <x:c r="IX9" s="3" t="n">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="IY9" s="3" t="n">
+        <x:v>118.5</x:v>
+      </x:c>
+      <x:c r="IZ9" s="3" t="n">
+        <x:v>120.4</x:v>
+      </x:c>
+      <x:c r="JA9" s="3" t="n">
+        <x:v>120.5</x:v>
+      </x:c>
+      <x:c r="JB9" s="3" t="n">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="JC9" s="3" t="n">
+        <x:v>114.1</x:v>
+      </x:c>
+      <x:c r="JD9" s="3" t="n">
+        <x:v>113.4</x:v>
+      </x:c>
+      <x:c r="JE9" s="3" t="n">
+        <x:v>114.6</x:v>
+      </x:c>
+      <x:c r="JF9" s="3" t="n">
+        <x:v>114.5</x:v>
+      </x:c>
+      <x:c r="JG9" s="3" t="n">
+        <x:v>113.9</x:v>
+      </x:c>
+      <x:c r="JH9" s="3" t="n">
         <x:v>112.5</x:v>
       </x:c>
-      <x:c r="IW9" s="3" t="n">
-        <x:v>112.5</x:v>
-      </x:c>
-      <x:c r="IX9" s="3" t="n">
-        <x:v>112.6</x:v>
-      </x:c>
-      <x:c r="IY9" s="3" t="n">
-        <x:v>115.1</x:v>
-      </x:c>
-      <x:c r="IZ9" s="3" t="n">
-        <x:v>117.3</x:v>
-      </x:c>
-      <x:c r="JA9" s="3" t="n">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="JB9" s="3" t="n">
-        <x:v>114.9</x:v>
-      </x:c>
-      <x:c r="JC9" s="3" t="n">
-        <x:v>112.1</x:v>
-      </x:c>
-      <x:c r="JD9" s="3" t="n">
-        <x:v>111.3</x:v>
-      </x:c>
-      <x:c r="JE9" s="3" t="n">
-        <x:v>112.2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:265">
+    </x:row>
+    <x:row r="11" spans="1:268">
       <x:c r="A11" s="5" t="s">
+        <x:v>275</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:268">
+      <x:c r="A12" s="0" t="s">
+        <x:v>276</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:268">
+      <x:c r="A13" s="0" t="s">
+        <x:v>277</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:268">
+      <x:c r="A14" s="0" t="s">
+        <x:v>278</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:268">
+      <x:c r="A17" s="0" t="s">
+        <x:v>279</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:268">
+      <x:c r="A18" s="0" t="s">
+        <x:v>280</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:268">
+      <x:c r="A19" s="0" t="s">
+        <x:v>281</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:268">
+      <x:c r="A20" s="0" t="s">
+        <x:v>282</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:268">
+      <x:c r="A21" s="0" t="s">
+        <x:v>281</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:268">
+      <x:c r="A22" s="0" t="s">
+        <x:v>283</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:268">
+      <x:c r="A23" s="0" t="s">
+        <x:v>281</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:268">
+      <x:c r="A24" s="0" t="s">
+        <x:v>284</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:268">
+      <x:c r="A25" s="0" t="s">
+        <x:v>281</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:268">
+      <x:c r="A26" s="0" t="s">
+        <x:v>285</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:268">
+      <x:c r="A27" s="0" t="s">
+        <x:v>281</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:268">
+      <x:c r="A28" s="0" t="s">
+        <x:v>277</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:268">
+      <x:c r="A29" s="0" t="s">
+        <x:v>281</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:268">
+      <x:c r="A31" s="0" t="s">
+        <x:v>286</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:268">
+      <x:c r="A32" s="0" t="s">
+        <x:v>287</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:268">
+      <x:c r="A34" s="0" t="s">
+        <x:v>288</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:268">
+      <x:c r="A35" s="0" t="s">
+        <x:v>280</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:268">
+      <x:c r="A36" s="0" t="s">
+        <x:v>289</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:268">
+      <x:c r="A37" s="0" t="s">
+        <x:v>290</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:268">
+      <x:c r="A38" s="0" t="s">
+        <x:v>291</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:268">
+      <x:c r="A40" s="0" t="s">
+        <x:v>292</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:268">
+      <x:c r="A41" s="0" t="s">
+        <x:v>293</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:268">
+      <x:c r="A42" s="0" t="s">
+        <x:v>294</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:268">
+      <x:c r="A44" s="0" t="s">
+        <x:v>295</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:268">
+      <x:c r="A45" s="0" t="s">
+        <x:v>296</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:268">
+      <x:c r="A46" s="0" t="s">
+        <x:v>297</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:268">
+      <x:c r="A50" s="0" t="s">
+        <x:v>298</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52" spans="1:268">
+      <x:c r="A52" s="0" t="s">
+        <x:v>299</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53" spans="1:268">
+      <x:c r="A53" s="0" t="s">
+        <x:v>280</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54" spans="1:268">
+      <x:c r="A54" s="0" t="s">
+        <x:v>300</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55" spans="1:268">
+      <x:c r="A55" s="0" t="s">
+        <x:v>282</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56" spans="1:268">
+      <x:c r="A56" s="0" t="s">
+        <x:v>300</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57" spans="1:268">
+      <x:c r="A57" s="0" t="s">
+        <x:v>283</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58" spans="1:268">
+      <x:c r="A58" s="0" t="s">
+        <x:v>300</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59" spans="1:268">
+      <x:c r="A59" s="0" t="s">
+        <x:v>284</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60" spans="1:268">
+      <x:c r="A60" s="0" t="s">
+        <x:v>300</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61" spans="1:268">
+      <x:c r="A61" s="0" t="s">
+        <x:v>285</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="62" spans="1:268">
+      <x:c r="A62" s="0" t="s">
+        <x:v>300</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63" spans="1:268">
+      <x:c r="A63" s="0" t="s">
+        <x:v>277</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="64" spans="1:268">
+      <x:c r="A64" s="0" t="s">
+        <x:v>300</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="65" spans="1:268">
+      <x:c r="A65" s="0" t="s">
+        <x:v>301</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="66" spans="1:268">
+      <x:c r="A66" s="0" t="s">
+        <x:v>277</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="67" spans="1:268">
+      <x:c r="A67" s="0" t="s">
+        <x:v>302</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="68" spans="1:268">
+      <x:c r="A68" s="0" t="s">
+        <x:v>268</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="69" spans="1:268">
+      <x:c r="A69" s="0" t="s">
+        <x:v>303</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="70" spans="1:268">
+      <x:c r="A70" s="0" t="s">
+        <x:v>269</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="71" spans="1:268">
+      <x:c r="A71" s="0" t="s">
+        <x:v>303</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="72" spans="1:268">
+      <x:c r="A72" s="0" t="s">
+        <x:v>270</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="73" spans="1:268">
+      <x:c r="A73" s="0" t="s">
+        <x:v>303</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="74" spans="1:268">
+      <x:c r="A74" s="0" t="s">
+        <x:v>271</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="75" spans="1:268">
+      <x:c r="A75" s="0" t="s">
+        <x:v>303</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="76" spans="1:268">
+      <x:c r="A76" s="0" t="s">
         <x:v>272</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:265">
-      <x:c r="A12" s="0" t="s">
+    <x:row r="77" spans="1:268">
+      <x:c r="A77" s="0" t="s">
+        <x:v>303</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="78" spans="1:268">
+      <x:c r="A78" s="0" t="s">
         <x:v>273</x:v>
       </x:c>
     </x:row>
-    <x:row r="13" spans="1:265">
-      <x:c r="A13" s="0" t="s">
-        <x:v>274</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:265">
-      <x:c r="A14" s="0" t="s">
-        <x:v>275</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="1:265">
-      <x:c r="A17" s="0" t="s">
-        <x:v>276</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="1:265">
-      <x:c r="A18" s="0" t="s">
+    <x:row r="79" spans="1:268">
+      <x:c r="A79" s="0" t="s">
+        <x:v>303</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="81" spans="1:268">
+      <x:c r="A81" s="0" t="s">
+        <x:v>280</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="82" spans="1:268">
+      <x:c r="A82" s="0" t="s">
+        <x:v>304</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="83" spans="1:268">
+      <x:c r="A83" s="0" t="s">
+        <x:v>282</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="84" spans="1:268">
+      <x:c r="A84" s="0" t="s">
+        <x:v>304</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="85" spans="1:268">
+      <x:c r="A85" s="0" t="s">
+        <x:v>283</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="86" spans="1:268">
+      <x:c r="A86" s="0" t="s">
+        <x:v>304</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="87" spans="1:268">
+      <x:c r="A87" s="0" t="s">
+        <x:v>284</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="88" spans="1:268">
+      <x:c r="A88" s="0" t="s">
+        <x:v>304</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="89" spans="1:268">
+      <x:c r="A89" s="0" t="s">
+        <x:v>285</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="90" spans="1:268">
+      <x:c r="A90" s="0" t="s">
+        <x:v>304</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="91" spans="1:268">
+      <x:c r="A91" s="0" t="s">
         <x:v>277</x:v>
       </x:c>
     </x:row>
-    <x:row r="19" spans="1:265">
-      <x:c r="A19" s="0" t="s">
-        <x:v>278</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="1:265">
-      <x:c r="A20" s="0" t="s">
-        <x:v>279</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="21" spans="1:265">
-      <x:c r="A21" s="0" t="s">
-        <x:v>278</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="22" spans="1:265">
-      <x:c r="A22" s="0" t="s">
-        <x:v>280</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="23" spans="1:265">
-      <x:c r="A23" s="0" t="s">
-        <x:v>278</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="24" spans="1:265">
-      <x:c r="A24" s="0" t="s">
-        <x:v>281</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="25" spans="1:265">
-      <x:c r="A25" s="0" t="s">
-        <x:v>278</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="26" spans="1:265">
-      <x:c r="A26" s="0" t="s">
-        <x:v>282</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="27" spans="1:265">
-      <x:c r="A27" s="0" t="s">
-        <x:v>278</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="28" spans="1:265">
-      <x:c r="A28" s="0" t="s">
-        <x:v>274</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="29" spans="1:265">
-      <x:c r="A29" s="0" t="s">
-        <x:v>278</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="31" spans="1:265">
-      <x:c r="A31" s="0" t="s">
-        <x:v>283</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="32" spans="1:265">
-      <x:c r="A32" s="0" t="s">
-        <x:v>284</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="34" spans="1:265">
-      <x:c r="A34" s="0" t="s">
-        <x:v>285</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="35" spans="1:265">
-      <x:c r="A35" s="0" t="s">
-        <x:v>277</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="36" spans="1:265">
-      <x:c r="A36" s="0" t="s">
-        <x:v>286</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="37" spans="1:265">
-      <x:c r="A37" s="0" t="s">
-        <x:v>287</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="38" spans="1:265">
-      <x:c r="A38" s="0" t="s">
-        <x:v>288</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="40" spans="1:265">
-      <x:c r="A40" s="0" t="s">
-        <x:v>289</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="41" spans="1:265">
-      <x:c r="A41" s="0" t="s">
-        <x:v>290</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="42" spans="1:265">
-      <x:c r="A42" s="0" t="s">
-        <x:v>291</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="44" spans="1:265">
-      <x:c r="A44" s="0" t="s">
-        <x:v>292</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="45" spans="1:265">
-      <x:c r="A45" s="0" t="s">
-        <x:v>293</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="46" spans="1:265">
-      <x:c r="A46" s="0" t="s">
-        <x:v>294</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="50" spans="1:265">
-      <x:c r="A50" s="0" t="s">
-        <x:v>295</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="52" spans="1:265">
-      <x:c r="A52" s="0" t="s">
-        <x:v>296</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="53" spans="1:265">
-      <x:c r="A53" s="0" t="s">
-        <x:v>277</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="54" spans="1:265">
-      <x:c r="A54" s="0" t="s">
-        <x:v>297</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="55" spans="1:265">
-      <x:c r="A55" s="0" t="s">
-        <x:v>279</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="56" spans="1:265">
-      <x:c r="A56" s="0" t="s">
-        <x:v>297</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="57" spans="1:265">
-      <x:c r="A57" s="0" t="s">
-        <x:v>280</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="58" spans="1:265">
-      <x:c r="A58" s="0" t="s">
-        <x:v>297</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="59" spans="1:265">
-      <x:c r="A59" s="0" t="s">
-        <x:v>281</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="60" spans="1:265">
-      <x:c r="A60" s="0" t="s">
-        <x:v>297</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="61" spans="1:265">
-      <x:c r="A61" s="0" t="s">
-        <x:v>282</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="62" spans="1:265">
-      <x:c r="A62" s="0" t="s">
-        <x:v>297</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="63" spans="1:265">
-      <x:c r="A63" s="0" t="s">
-        <x:v>274</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="64" spans="1:265">
-      <x:c r="A64" s="0" t="s">
-        <x:v>297</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="65" spans="1:265">
-      <x:c r="A65" s="0" t="s">
-        <x:v>298</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="66" spans="1:265">
-      <x:c r="A66" s="0" t="s">
-        <x:v>274</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="67" spans="1:265">
-      <x:c r="A67" s="0" t="s">
-        <x:v>299</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="68" spans="1:265">
-      <x:c r="A68" s="0" t="s">
-        <x:v>265</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="69" spans="1:265">
-      <x:c r="A69" s="0" t="s">
-        <x:v>300</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="70" spans="1:265">
-      <x:c r="A70" s="0" t="s">
-        <x:v>266</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="71" spans="1:265">
-      <x:c r="A71" s="0" t="s">
-        <x:v>300</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="72" spans="1:265">
-      <x:c r="A72" s="0" t="s">
-        <x:v>267</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="73" spans="1:265">
-      <x:c r="A73" s="0" t="s">
-        <x:v>300</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="74" spans="1:265">
-      <x:c r="A74" s="0" t="s">
-        <x:v>268</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="75" spans="1:265">
-      <x:c r="A75" s="0" t="s">
-        <x:v>300</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="76" spans="1:265">
-      <x:c r="A76" s="0" t="s">
-        <x:v>269</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="77" spans="1:265">
-      <x:c r="A77" s="0" t="s">
-        <x:v>300</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="78" spans="1:265">
-      <x:c r="A78" s="0" t="s">
-        <x:v>270</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="79" spans="1:265">
-      <x:c r="A79" s="0" t="s">
-        <x:v>300</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="81" spans="1:265">
-      <x:c r="A81" s="0" t="s">
-        <x:v>277</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="82" spans="1:265">
-      <x:c r="A82" s="0" t="s">
-        <x:v>301</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="83" spans="1:265">
-      <x:c r="A83" s="0" t="s">
-        <x:v>279</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="84" spans="1:265">
-      <x:c r="A84" s="0" t="s">
-        <x:v>301</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="85" spans="1:265">
-      <x:c r="A85" s="0" t="s">
-        <x:v>280</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="86" spans="1:265">
-      <x:c r="A86" s="0" t="s">
-        <x:v>301</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="87" spans="1:265">
-      <x:c r="A87" s="0" t="s">
-        <x:v>281</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="88" spans="1:265">
-      <x:c r="A88" s="0" t="s">
-        <x:v>301</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="89" spans="1:265">
-      <x:c r="A89" s="0" t="s">
-        <x:v>282</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="90" spans="1:265">
-      <x:c r="A90" s="0" t="s">
-        <x:v>301</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="91" spans="1:265">
-      <x:c r="A91" s="0" t="s">
-        <x:v>274</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="92" spans="1:265">
+    <x:row r="92" spans="1:268">
       <x:c r="A92" s="0" t="s">
-        <x:v>301</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="98" spans="1:265">
+        <x:v>304</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="98" spans="1:268">
       <x:c r="A98" s="0" t="s">
-        <x:v>302</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="99" spans="1:265">
+        <x:v>305</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="99" spans="1:268">
       <x:c r="A99" s="0" t="s">
-        <x:v>303</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="101" spans="1:265">
+        <x:v>306</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="101" spans="1:268">
       <x:c r="A101" s="0" t="s">
-        <x:v>304</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="102" spans="1:265">
+        <x:v>307</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="102" spans="1:268">
       <x:c r="A102" s="0" t="s">
-        <x:v>305</x:v>
+        <x:v>308</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
+  <x:mergeCells count="2">
+    <x:mergeCell ref="A11:JH11"/>
+    <x:mergeCell ref="A14:JH14"/>
+  </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
